--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B379C-A311-4649-9F7C-F4569A0B197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73AA7A2-563D-42A4-B374-02050022B3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>Interface einschalten</t>
   </si>
   <si>
-    <t>interface GigaEthernet 0/0/0</t>
-  </si>
-  <si>
     <t>description RT-HH-01 - SW-HH-01</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>ipv6 address 2001:db8:D60::1/64</t>
+  </si>
+  <si>
+    <t>interface gigabitEthernet 0/0/0</t>
   </si>
 </sst>
 </file>
@@ -560,10 +560,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5F5F5"/>
+      <color rgb="FF001F32"/>
       <color rgb="FF00273E"/>
-      <color rgb="FF001F32"/>
       <color rgb="FF1C50A6"/>
-      <color rgb="FFF5F5F5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2287,7 +2287,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -2300,7 +2300,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
@@ -2313,7 +2313,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2341,7 +2341,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -2354,7 +2354,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
@@ -2367,7 +2367,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2395,7 +2395,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -2408,7 +2408,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
@@ -2421,7 +2421,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
@@ -2527,52 +2527,52 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
@@ -2938,7 +2938,7 @@
   <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21:AI21"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2954,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2964,7 +2964,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="J1" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -2974,7 +2974,7 @@
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="S1" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
@@ -2985,7 +2985,7 @@
       <c r="Z1" s="17"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="17"/>
       <c r="AD1" s="17"/>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3455,7 +3455,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3467,7 +3467,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="S13" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -3479,7 +3479,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AB13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -3527,40 +3527,40 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="S15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="20"/>
       <c r="W15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AB15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
@@ -3568,40 +3568,40 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="S16" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="20"/>
       <c r="W16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AB16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
@@ -3609,49 +3609,49 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="S17" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AB17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
@@ -3693,49 +3693,49 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="20"/>
       <c r="E19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="20"/>
       <c r="N19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="S19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="20"/>
       <c r="W19" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AB19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="20"/>
       <c r="AF19" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
@@ -3743,49 +3743,49 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="S20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AB20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
@@ -3793,49 +3793,49 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="20"/>
       <c r="E21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="20"/>
       <c r="N21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="S21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="20"/>
       <c r="W21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
       <c r="AB21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="20"/>
       <c r="AF21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
@@ -3877,49 +3877,49 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="20"/>
       <c r="E23" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="20"/>
       <c r="N23" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="S23" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="20"/>
       <c r="W23" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AB23" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="20"/>
       <c r="AF23" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
@@ -3927,49 +3927,49 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="S24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="20"/>
       <c r="W24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
       <c r="AB24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="20"/>
       <c r="AF24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
@@ -3977,49 +3977,49 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="20"/>
       <c r="E25" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="J25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="20"/>
       <c r="N25" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="S25" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="20"/>
       <c r="W25" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AB25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="20"/>
       <c r="AF25" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="20"/>
       <c r="E27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="20"/>
       <c r="N27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -4103,25 +4103,25 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="20"/>
       <c r="E28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="J28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="20"/>
       <c r="N28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -4145,25 +4145,25 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="20"/>
       <c r="E29" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="J29" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="20"/>
       <c r="N29" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -4221,25 +4221,25 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="20"/>
       <c r="E31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="J31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="20"/>
       <c r="N31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -4263,25 +4263,25 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="20"/>
       <c r="E32" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="J32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="20"/>
       <c r="N32" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
@@ -4305,25 +4305,25 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="20"/>
       <c r="E33" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="J33" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="20"/>
       <c r="N33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087F979-D7EC-4817-9F97-AC0DB5B124D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BDA2A1-A274-485E-8C9A-696216F85683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="120">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>do copy running-config startup-config</t>
+  </si>
+  <si>
+    <t>ipv6 address FD00:CAFE:AA::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 address FD00:CAFE:BB::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 address FD00:CAFE:CC::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 address FD00:CAFE:DD::2/64</t>
   </si>
 </sst>
 </file>
@@ -490,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -528,19 +540,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,16 +555,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
@@ -927,64 +933,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1015,10 +1021,10 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
       <c r="J3" s="12" t="s">
         <v>1</v>
@@ -1026,7 +1032,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -1037,7 +1043,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="15"/>
+      <c r="W3" s="13"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -1048,7 +1054,7 @@
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="13"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
@@ -1060,10 +1066,10 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2"/>
       <c r="J4" s="12" t="s">
         <v>1</v>
@@ -1071,7 +1077,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -1082,7 +1088,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="15"/>
+      <c r="W4" s="13"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
@@ -1093,7 +1099,7 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="13"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
@@ -1105,7 +1111,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1116,7 +1122,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -1127,7 +1133,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="15"/>
+      <c r="W5" s="13"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
@@ -1138,7 +1144,7 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
-      <c r="AF5" s="15"/>
+      <c r="AF5" s="13"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
@@ -1171,14 +1177,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1187,7 +1193,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1198,7 +1204,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1209,7 +1215,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="13"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
@@ -1220,7 +1226,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="13"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
@@ -1232,7 +1238,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1243,7 +1249,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1254,7 +1260,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="13"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
@@ -1265,7 +1271,7 @@
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="13"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
@@ -1298,14 +1304,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1314,7 +1320,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="12"/>
@@ -1327,7 +1333,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="12"/>
@@ -1340,7 +1346,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="12"/>
@@ -1353,7 +1359,7 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="12"/>
@@ -1367,7 +1373,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="12"/>
@@ -1380,7 +1386,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="12"/>
@@ -1393,7 +1399,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="12"/>
@@ -1406,7 +1412,7 @@
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="12"/>
@@ -1441,14 +1447,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1456,8 +1462,8 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="12"/>
@@ -1470,7 +1476,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="12"/>
@@ -1483,7 +1489,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="12"/>
@@ -1496,7 +1502,7 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="12"/>
@@ -1531,14 +1537,14 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -1547,7 +1553,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="12"/>
@@ -1560,7 +1566,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="13" t="s">
         <v>43</v>
       </c>
       <c r="O15" s="12"/>
@@ -1573,7 +1579,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="13" t="s">
         <v>43</v>
       </c>
       <c r="X15" s="12"/>
@@ -1586,7 +1592,7 @@
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
-      <c r="AF15" s="15" t="s">
+      <c r="AF15" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AG15" s="12"/>
@@ -1599,8 +1605,8 @@
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="12"/>
@@ -1613,7 +1619,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="13" t="s">
         <v>44</v>
       </c>
       <c r="O16" s="12"/>
@@ -1626,7 +1632,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="13" t="s">
         <v>44</v>
       </c>
       <c r="X16" s="12"/>
@@ -1639,7 +1645,7 @@
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
-      <c r="AF16" s="15" t="s">
+      <c r="AF16" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AG16" s="12"/>
@@ -1653,7 +1659,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="12"/>
@@ -1666,7 +1672,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="13" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="12"/>
@@ -1679,7 +1685,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="13" t="s">
         <v>45</v>
       </c>
       <c r="X17" s="12"/>
@@ -1692,7 +1698,7 @@
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
-      <c r="AF17" s="15" t="s">
+      <c r="AF17" s="13" t="s">
         <v>45</v>
       </c>
       <c r="AG17" s="12"/>
@@ -1705,8 +1711,8 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="12"/>
@@ -1719,7 +1725,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="12"/>
@@ -1732,7 +1738,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="X18" s="12"/>
@@ -1745,7 +1751,7 @@
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
-      <c r="AF18" s="15" t="s">
+      <c r="AF18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="AG18" s="12"/>
@@ -1780,14 +1786,14 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1809,7 +1815,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="13" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="12"/>
@@ -1822,7 +1828,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="13" t="s">
         <v>43</v>
       </c>
       <c r="X20" s="12"/>
@@ -1835,7 +1841,7 @@
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
-      <c r="AF20" s="15" t="s">
+      <c r="AF20" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AG20" s="12"/>
@@ -1862,7 +1868,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="O21" s="12"/>
@@ -1875,7 +1881,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="X21" s="12"/>
@@ -1888,7 +1894,7 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
-      <c r="AF21" s="15" t="s">
+      <c r="AF21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AG21" s="12"/>
@@ -1915,7 +1921,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="O22" s="12"/>
@@ -1928,7 +1934,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="X22" s="12"/>
@@ -1941,7 +1947,7 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-      <c r="AF22" s="15" t="s">
+      <c r="AF22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="AG22" s="12"/>
@@ -1955,7 +1961,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="12"/>
@@ -1968,7 +1974,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O23" s="12"/>
@@ -1981,7 +1987,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="X23" s="12"/>
@@ -1994,7 +2000,7 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
-      <c r="AF23" s="15" t="s">
+      <c r="AF23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="AG23" s="12"/>
@@ -2029,14 +2035,14 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -2045,7 +2051,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="12"/>
@@ -2058,7 +2064,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="13" t="s">
         <v>43</v>
       </c>
       <c r="O25" s="12"/>
@@ -2071,7 +2077,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="13" t="s">
         <v>43</v>
       </c>
       <c r="X25" s="12"/>
@@ -2084,7 +2090,7 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
-      <c r="AF25" s="15" t="s">
+      <c r="AF25" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AG25" s="12"/>
@@ -2098,7 +2104,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="12"/>
@@ -2111,7 +2117,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="O26" s="12"/>
@@ -2124,7 +2130,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="X26" s="12"/>
@@ -2137,7 +2143,7 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="15" t="s">
+      <c r="AF26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AG26" s="12"/>
@@ -2151,7 +2157,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="12"/>
@@ -2164,7 +2170,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="13" t="s">
         <v>45</v>
       </c>
       <c r="O27" s="12"/>
@@ -2177,7 +2183,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="13" t="s">
         <v>45</v>
       </c>
       <c r="X27" s="12"/>
@@ -2190,7 +2196,7 @@
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
-      <c r="AF27" s="15" t="s">
+      <c r="AF27" s="13" t="s">
         <v>45</v>
       </c>
       <c r="AG27" s="12"/>
@@ -2204,7 +2210,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="12"/>
@@ -2217,7 +2223,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="12"/>
@@ -2230,7 +2236,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="X28" s="12"/>
@@ -2243,7 +2249,7 @@
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
-      <c r="AF28" s="15" t="s">
+      <c r="AF28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="AG28" s="12"/>
@@ -2278,14 +2284,14 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
@@ -2294,7 +2300,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="12"/>
@@ -2307,7 +2313,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="13" t="s">
         <v>43</v>
       </c>
       <c r="O30" s="12"/>
@@ -2320,7 +2326,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
-      <c r="W30" s="15" t="s">
+      <c r="W30" s="13" t="s">
         <v>43</v>
       </c>
       <c r="X30" s="12"/>
@@ -2333,7 +2339,7 @@
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
-      <c r="AF30" s="15" t="s">
+      <c r="AF30" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AG30" s="12"/>
@@ -2348,7 +2354,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="12"/>
@@ -2361,7 +2367,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="13" t="s">
         <v>44</v>
       </c>
       <c r="O31" s="12"/>
@@ -2374,7 +2380,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="15" t="s">
+      <c r="W31" s="13" t="s">
         <v>44</v>
       </c>
       <c r="X31" s="12"/>
@@ -2387,7 +2393,7 @@
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="15" t="s">
+      <c r="AF31" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AG31" s="12"/>
@@ -2402,7 +2408,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="12"/>
@@ -2415,7 +2421,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="13" t="s">
         <v>45</v>
       </c>
       <c r="O32" s="12"/>
@@ -2428,7 +2434,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="15" t="s">
+      <c r="W32" s="13" t="s">
         <v>45</v>
       </c>
       <c r="X32" s="12"/>
@@ -2441,7 +2447,7 @@
       <c r="AC32" s="12"/>
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
-      <c r="AF32" s="15" t="s">
+      <c r="AF32" s="13" t="s">
         <v>45</v>
       </c>
       <c r="AG32" s="12"/>
@@ -2456,7 +2462,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="12"/>
@@ -2469,7 +2475,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="12"/>
@@ -2482,7 +2488,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="X33" s="12"/>
@@ -2495,7 +2501,7 @@
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
-      <c r="AF33" s="15" t="s">
+      <c r="AF33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="12"/>
@@ -2531,14 +2537,14 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
@@ -2547,7 +2553,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="12"/>
@@ -2560,7 +2566,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="13" t="s">
         <v>62</v>
       </c>
       <c r="O35" s="12"/>
@@ -2573,7 +2579,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="15" t="s">
+      <c r="W35" s="13" t="s">
         <v>63</v>
       </c>
       <c r="X35" s="12"/>
@@ -2586,7 +2592,7 @@
       <c r="AC35" s="12"/>
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
-      <c r="AF35" s="15" t="s">
+      <c r="AF35" s="13" t="s">
         <v>64</v>
       </c>
       <c r="AG35" s="12"/>
@@ -2595,10 +2601,10 @@
       <c r="AJ35" s="12"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2608,7 +2614,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="13"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -2617,7 +2623,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
-      <c r="W36" s="15"/>
+      <c r="W36" s="13"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -2626,47 +2632,47 @@
       <c r="AC36" s="12"/>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="15"/>
+      <c r="AF36" s="13"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
@@ -2675,11 +2681,11 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
         <v>115</v>
       </c>
@@ -2687,10 +2693,6 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
       <c r="S38" s="12" t="s">
         <v>115</v>
       </c>
@@ -2698,10 +2700,6 @@
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
       <c r="AB38" s="12" t="s">
         <v>115</v>
       </c>
@@ -2709,30 +2707,19 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="11"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
       <c r="W39" s="11"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
       <c r="AF39" s="11"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
@@ -2748,6 +2735,226 @@
     </row>
   </sheetData>
   <mergeCells count="244">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="W31:AA31"/>
     <mergeCell ref="J38:M38"/>
     <mergeCell ref="S38:V38"/>
     <mergeCell ref="AB38:AE38"/>
@@ -2772,226 +2979,6 @@
     <mergeCell ref="S33:V33"/>
     <mergeCell ref="AB26:AE26"/>
     <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3001,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC194F1D-C6D7-4472-AAD1-B0F01E2CC6D9}">
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3017,81 +3004,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -3100,7 +3087,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -3110,7 +3097,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -3120,7 +3107,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="15"/>
+      <c r="W3" s="13"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -3130,7 +3117,7 @@
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="13"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
@@ -3142,7 +3129,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -3152,7 +3139,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -3162,7 +3149,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="15"/>
+      <c r="W4" s="13"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
@@ -3172,7 +3159,7 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="13"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
@@ -3184,7 +3171,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3194,7 +3181,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -3204,7 +3191,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="15"/>
+      <c r="W5" s="13"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
@@ -3214,44 +3201,44 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
-      <c r="AF5" s="15"/>
+      <c r="AF5" s="13"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -3260,7 +3247,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -3270,7 +3257,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -3280,7 +3267,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="13"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
@@ -3290,7 +3277,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="13"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
@@ -3302,7 +3289,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3312,7 +3299,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -3322,7 +3309,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="13"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
@@ -3332,44 +3319,44 @@
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="13"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -3378,7 +3365,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="12"/>
@@ -3390,7 +3377,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="12"/>
@@ -3402,7 +3389,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="12"/>
@@ -3414,7 +3401,7 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="12"/>
@@ -3428,7 +3415,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="12"/>
@@ -3440,7 +3427,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="12"/>
@@ -3452,7 +3439,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="12"/>
@@ -3464,7 +3451,7 @@
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="12"/>
@@ -3472,38 +3459,38 @@
       <c r="AI11" s="12"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -3512,7 +3499,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="12"/>
@@ -3524,7 +3511,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="12"/>
@@ -3536,7 +3523,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="12"/>
@@ -3548,7 +3535,7 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="12"/>
@@ -3556,44 +3543,44 @@
       <c r="AI13" s="12"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="12"/>
@@ -3602,7 +3589,7 @@
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="O15" s="12"/>
@@ -3613,8 +3600,8 @@
       </c>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15" t="s">
+      <c r="V15" s="22"/>
+      <c r="W15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="X15" s="12"/>
@@ -3623,7 +3610,7 @@
       <c r="AB15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="15" t="s">
+      <c r="AF15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="AG15" s="12"/>
@@ -3634,7 +3621,7 @@
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="12"/>
@@ -3643,7 +3630,7 @@
       <c r="J16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="13" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="12"/>
@@ -3654,8 +3641,8 @@
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15" t="s">
+      <c r="V16" s="22"/>
+      <c r="W16" s="13" t="s">
         <v>80</v>
       </c>
       <c r="X16" s="12"/>
@@ -3664,7 +3651,7 @@
       <c r="AB16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF16" s="15" t="s">
+      <c r="AF16" s="13" t="s">
         <v>80</v>
       </c>
       <c r="AG16" s="12"/>
@@ -3673,48 +3660,48 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="J17" s="12" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="S17" s="12" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AB17" s="12" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
-      <c r="AF17" s="15" t="s">
+      <c r="AF17" s="13" t="s">
         <v>81</v>
       </c>
       <c r="AG17" s="12"/>
@@ -3722,38 +3709,38 @@
       <c r="AI17" s="12"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -3761,8 +3748,8 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="12"/>
@@ -3773,8 +3760,8 @@
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="13" t="s">
         <v>92</v>
       </c>
       <c r="O19" s="12"/>
@@ -3785,8 +3772,8 @@
       </c>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15" t="s">
+      <c r="V19" s="22"/>
+      <c r="W19" s="13" t="s">
         <v>99</v>
       </c>
       <c r="X19" s="12"/>
@@ -3797,8 +3784,8 @@
       </c>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="15" t="s">
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="13" t="s">
         <v>101</v>
       </c>
       <c r="AG19" s="12"/>
@@ -3812,7 +3799,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="12"/>
@@ -3824,7 +3811,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="13" t="s">
         <v>81</v>
       </c>
       <c r="O20" s="12"/>
@@ -3836,7 +3823,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="13" t="s">
         <v>81</v>
       </c>
       <c r="X20" s="12"/>
@@ -3848,7 +3835,7 @@
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
-      <c r="AF20" s="15" t="s">
+      <c r="AF20" s="13" t="s">
         <v>81</v>
       </c>
       <c r="AG20" s="12"/>
@@ -3861,8 +3848,8 @@
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="13" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="12"/>
@@ -3873,8 +3860,8 @@
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="13" t="s">
         <v>83</v>
       </c>
       <c r="O21" s="12"/>
@@ -3885,8 +3872,8 @@
       </c>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15" t="s">
+      <c r="V21" s="22"/>
+      <c r="W21" s="13" t="s">
         <v>83</v>
       </c>
       <c r="X21" s="12"/>
@@ -3897,8 +3884,8 @@
       </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="15" t="s">
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="13" t="s">
         <v>83</v>
       </c>
       <c r="AG21" s="12"/>
@@ -3906,38 +3893,38 @@
       <c r="AI21" s="12"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -3945,8 +3932,8 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="12"/>
@@ -3957,8 +3944,8 @@
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="13" t="s">
         <v>93</v>
       </c>
       <c r="O23" s="12"/>
@@ -3969,8 +3956,8 @@
       </c>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15" t="s">
+      <c r="V23" s="22"/>
+      <c r="W23" s="13" t="s">
         <v>85</v>
       </c>
       <c r="X23" s="12"/>
@@ -3981,8 +3968,8 @@
       </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="15" t="s">
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="13" t="s">
         <v>85</v>
       </c>
       <c r="AG23" s="12"/>
@@ -3996,7 +3983,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="12"/>
@@ -4008,7 +3995,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="13" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="12"/>
@@ -4019,8 +4006,8 @@
       </c>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="15" t="s">
+      <c r="V24" s="22"/>
+      <c r="W24" s="13" t="s">
         <v>86</v>
       </c>
       <c r="X24" s="12"/>
@@ -4031,8 +4018,8 @@
       </c>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="15" t="s">
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="13" t="s">
         <v>86</v>
       </c>
       <c r="AG24" s="12"/>
@@ -4045,8 +4032,8 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="13" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="12"/>
@@ -4057,8 +4044,8 @@
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15" t="s">
+      <c r="M25" s="22"/>
+      <c r="N25" s="13" t="s">
         <v>83</v>
       </c>
       <c r="O25" s="12"/>
@@ -4069,8 +4056,8 @@
       </c>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15" t="s">
+      <c r="V25" s="22"/>
+      <c r="W25" s="13" t="s">
         <v>104</v>
       </c>
       <c r="X25" s="12"/>
@@ -4081,8 +4068,8 @@
       </c>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="15" t="s">
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="13" t="s">
         <v>103</v>
       </c>
       <c r="AG25" s="12"/>
@@ -4090,30 +4077,30 @@
       <c r="AI25" s="12"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="14"/>
+      <c r="V26" s="22"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="14"/>
+      <c r="AE26" s="22"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -4121,8 +4108,8 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="12"/>
@@ -4133,8 +4120,8 @@
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15" t="s">
+      <c r="M27" s="22"/>
+      <c r="N27" s="13" t="s">
         <v>85</v>
       </c>
       <c r="O27" s="12"/>
@@ -4145,13 +4132,11 @@
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="25"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="25"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -4159,8 +4144,8 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="12"/>
@@ -4171,8 +4156,8 @@
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15" t="s">
+      <c r="M28" s="22"/>
+      <c r="N28" s="13" t="s">
         <v>86</v>
       </c>
       <c r="O28" s="12"/>
@@ -4185,7 +4170,6 @@
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="25"/>
       <c r="AB28" s="12" t="s">
         <v>115</v>
       </c>
@@ -4193,7 +4177,6 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="25"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -4201,8 +4184,8 @@
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="12"/>
@@ -4213,8 +4196,8 @@
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15" t="s">
+      <c r="M29" s="22"/>
+      <c r="N29" s="13" t="s">
         <v>109</v>
       </c>
       <c r="O29" s="12"/>
@@ -4225,31 +4208,29 @@
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="25"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="11"/>
-      <c r="AG29" s="25"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
@@ -4273,8 +4254,8 @@
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="12"/>
@@ -4285,8 +4266,8 @@
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15" t="s">
+      <c r="M31" s="22"/>
+      <c r="N31" s="13" t="s">
         <v>85</v>
       </c>
       <c r="O31" s="12"/>
@@ -4315,8 +4296,8 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="12"/>
@@ -4327,8 +4308,8 @@
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15" t="s">
+      <c r="M32" s="22"/>
+      <c r="N32" s="13" t="s">
         <v>86</v>
       </c>
       <c r="O32" s="12"/>
@@ -4357,8 +4338,8 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="12"/>
@@ -4369,8 +4350,8 @@
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15" t="s">
+      <c r="M33" s="22"/>
+      <c r="N33" s="13" t="s">
         <v>108</v>
       </c>
       <c r="O33" s="12"/>
@@ -4397,11 +4378,11 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="22"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="14"/>
+      <c r="M34" s="22"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -4417,13 +4398,11 @@
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="25"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -4433,7 +4412,6 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="25"/>
       <c r="J36" s="12" t="s">
         <v>115</v>
       </c>
@@ -4441,7 +4419,6 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="25"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
@@ -4449,13 +4426,11 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="25"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -4507,6 +4482,246 @@
     </row>
   </sheetData>
   <mergeCells count="264">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="J35:M35"/>
     <mergeCell ref="J36:M36"/>
     <mergeCell ref="J37:M37"/>
@@ -4531,246 +4746,6 @@
     <mergeCell ref="AB23:AE23"/>
     <mergeCell ref="AF23:AI23"/>
     <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BDA2A1-A274-485E-8C9A-696216F85683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BCFA5-43A3-466E-962B-330143ECECA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="138">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -397,6 +397,60 @@
   </si>
   <si>
     <t>ipv6 address FD00:CAFE:DD::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:AB::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:AB::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:AC::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:AD::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AB::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AB::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:BC::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:BD::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:BC::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:BC::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AC::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AC::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:CD::2/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AD::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AD::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:BD::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:BD::1/64</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:CD::1/64</t>
   </si>
 </sst>
 </file>
@@ -502,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -537,6 +591,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -565,12 +625,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,9 +641,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF5F5F5"/>
       <color rgb="FF001F32"/>
       <color rgb="FF00273E"/>
+      <color rgb="FFF5F5F5"/>
       <color rgb="FF1C50A6"/>
     </mruColors>
   </colors>
@@ -915,82 +975,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
     <col min="7" max="8" width="10.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16" width="11.42578125" style="1"/>
+    <col min="10" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="1"/>
+    <col min="19" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="23" style="1" customWidth="1"/>
+    <col min="23" max="30" width="11.42578125" style="1"/>
+    <col min="31" max="31" width="19.28515625" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1015,139 +1083,139 @@
       <c r="AI2" s="6"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -1177,104 +1245,104 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12" t="s">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12" t="s">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -1304,120 +1372,120 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12" t="s">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13" t="s">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12" t="s">
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="13" t="s">
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13" t="s">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12" t="s">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="13" t="s">
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -1447,67 +1515,67 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13" t="s">
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12" t="s">
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="13" t="s">
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -1537,226 +1605,226 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12" t="s">
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="13" t="s">
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12" t="s">
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="13" t="s">
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13" t="s">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12" t="s">
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13" t="s">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12" t="s">
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="13" t="s">
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12" t="s">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="13" t="s">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12" t="s">
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="13" t="s">
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12" t="s">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="13" t="s">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12" t="s">
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="13" t="s">
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1786,22 +1854,22 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
@@ -1809,52 +1877,52 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13" t="s">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12" t="s">
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="13" t="s">
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
@@ -1862,52 +1930,52 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="13" t="s">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12" t="s">
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="13" t="s">
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1915,97 +1983,97 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12" t="s">
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="13" t="s">
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12" t="s">
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="13" t="s">
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12" t="s">
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="13" t="s">
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12" t="s">
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="13" t="s">
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -2035,226 +2103,226 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13" t="s">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12" t="s">
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="13" t="s">
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12" t="s">
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="13" t="s">
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13" t="s">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12" t="s">
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="13" t="s">
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12" t="s">
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="13" t="s">
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13" t="s">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12" t="s">
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="13" t="s">
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12" t="s">
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="13" t="s">
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="13" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12" t="s">
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="13" t="s">
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12" t="s">
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="13" t="s">
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -2284,230 +2352,230 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12" t="s">
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="13" t="s">
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12" t="s">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="13" t="s">
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12" t="s">
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="13" t="s">
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12" t="s">
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="13" t="s">
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13" t="s">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12" t="s">
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="13" t="s">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12" t="s">
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="13" t="s">
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
-      <c r="AJ32" s="12"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13" t="s">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12" t="s">
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="13" t="s">
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12" t="s">
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="13" t="s">
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -2537,204 +2605,353 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="13" t="s">
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12" t="s">
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="13" t="s">
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12" t="s">
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="13" t="s">
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
+      <c r="J36" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
+      <c r="A37" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="11"/>
+      <c r="S37" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="11"/>
+      <c r="AB37" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="11"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="11"/>
+      <c r="S38" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="11"/>
+      <c r="AB38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="11"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="11"/>
+      <c r="S39" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="11"/>
+      <c r="AB39" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="11"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="11"/>
-      <c r="S38" s="12" t="s">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="11"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="11"/>
+      <c r="S42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="11"/>
-      <c r="AB38" s="12" t="s">
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="11"/>
+      <c r="AB42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="11"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="N39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="AF39" s="11"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="11"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="W43" s="11"/>
+      <c r="AF43" s="11"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="244">
+  <mergeCells count="254">
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
@@ -2810,9 +3027,7 @@
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A37:D37"/>
     <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E37:I37"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="J32:M32"/>
@@ -2829,10 +3044,9 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="J35:M35"/>
     <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J40:M40"/>
     <mergeCell ref="N35:R35"/>
     <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
     <mergeCell ref="N28:R28"/>
     <mergeCell ref="N22:R22"/>
     <mergeCell ref="N23:R23"/>
@@ -2938,12 +3152,12 @@
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="AB35:AE35"/>
     <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB40:AE40"/>
     <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="AF34:AI34"/>
     <mergeCell ref="W35:AA35"/>
     <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="W40:AA40"/>
     <mergeCell ref="AB29:AE29"/>
     <mergeCell ref="AB30:AE30"/>
     <mergeCell ref="AB31:AE31"/>
@@ -2952,28 +3166,28 @@
     <mergeCell ref="AB34:AE34"/>
     <mergeCell ref="S35:V35"/>
     <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S40:V40"/>
     <mergeCell ref="W30:AA30"/>
     <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="E44:I44"/>
     <mergeCell ref="AF35:AJ35"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="AF30:AJ30"/>
     <mergeCell ref="AF31:AJ31"/>
     <mergeCell ref="AF32:AJ32"/>
     <mergeCell ref="AF33:AJ33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
     <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AF40:AI40"/>
     <mergeCell ref="S31:V31"/>
     <mergeCell ref="S32:V32"/>
     <mergeCell ref="S33:V33"/>
@@ -3004,1481 +3218,1481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="S1" s="18" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="S1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="S3" s="12" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AB3" s="12" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AB3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="S4" s="12" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="S4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AB4" s="12" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AB4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="S5" s="12" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="S5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AB5" s="12" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AB5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="S7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AB7" s="12" t="s">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AB7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="S8" s="12" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="S8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AB8" s="12" t="s">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AB8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="S10" s="12" t="s">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="S10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13" t="s">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AB10" s="12" t="s">
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AB10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="13" t="s">
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="S11" s="12" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="S11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13" t="s">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AB11" s="12" t="s">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AB11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="13" t="s">
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="J13" s="12" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="S13" s="12" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="S13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13" t="s">
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AB13" s="12" t="s">
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AB13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="13" t="s">
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="S15" s="12" t="s">
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="S15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="13" t="s">
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
       <c r="AB15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AF15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="J16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="S16" s="12" t="s">
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="S16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="13" t="s">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
       <c r="AB16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AF16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="12" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="J17" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="S17" s="12" t="s">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="S17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="13" t="s">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AB17" s="12" t="s">
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AB17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="13" t="s">
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="12" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="J19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="13" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="S19" s="12" t="s">
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="S19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="13" t="s">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AB19" s="12" t="s">
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AB19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="13" t="s">
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="12" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="J20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="S20" s="12" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="S20" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13" t="s">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AB20" s="12" t="s">
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AB20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="13" t="s">
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="12" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="J21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="13" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="S21" s="12" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="S21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="13" t="s">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AB21" s="12" t="s">
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AB21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="13" t="s">
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="12" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="J23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="13" t="s">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="S23" s="12" t="s">
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="S23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="13" t="s">
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AB23" s="12" t="s">
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AB23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="13" t="s">
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="12" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="J24" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="13" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="S24" s="12" t="s">
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="S24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="13" t="s">
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AB24" s="12" t="s">
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AB24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="13" t="s">
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="13" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="12" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="J25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="13" t="s">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="S25" s="12" t="s">
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="S25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="13" t="s">
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AB25" s="12" t="s">
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AB25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="13" t="s">
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="22"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="22"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="23"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="23"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="13" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="J27" s="12" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="13" t="s">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
       <c r="W27" s="11"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="J28" s="12" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="J28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="13" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="S28" s="12" t="s">
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="S28" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
       <c r="W28" s="11"/>
-      <c r="AB28" s="12" t="s">
+      <c r="AB28" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
       <c r="AF28" s="11"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="13" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="J29" s="12" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="J29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="13" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
       <c r="W29" s="11"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
       <c r="AF29" s="11"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="13" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="J31" s="12" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="J31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="13" t="s">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="13" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="J32" s="12" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="J32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="13" t="s">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="13" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="J33" s="12" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="J33" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="13" t="s">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="22"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="22"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="23"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="23"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
       <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="11"/>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
       <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="264">

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BCFA5-43A3-466E-962B-330143ECECA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EEE52B-0A18-446A-9034-FDF307CEC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -399,58 +399,58 @@
     <t>ipv6 address FD00:CAFE:DD::2/64</t>
   </si>
   <si>
-    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:AB::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:AB::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:AC::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:AD::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AB::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AB::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:BC::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:BD::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:BC::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:BC::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AC::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AC::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:CD::2/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AD::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AD::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:BD::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:BD::1/64</t>
-  </si>
-  <si>
-    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:CD::1/64</t>
+    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:AB::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:AB::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:AC::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:AD::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:BD::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:BC::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AB::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AB::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AC::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AC::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:BC::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:BC::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:D60::/64 fd00:CAFE:CD::2</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A10::/64 fd00:CAFE:AD::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:A20::/64 fd00:CAFE:AD::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B30::/64 fd00:CAFE:BD::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:B40::/64 fd00:CAFE:BD::1</t>
+  </si>
+  <si>
+    <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:CD::1</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -600,7 +600,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,22 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1001,64 +998,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1089,10 +1086,10 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="2"/>
       <c r="J3" s="14" t="s">
         <v>1</v>
@@ -1100,7 +1097,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -1111,7 +1108,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="15"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
@@ -1122,7 +1119,7 @@
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
@@ -1134,10 +1131,10 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1145,7 +1142,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -1156,7 +1153,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -1167,7 +1164,7 @@
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -1179,7 +1176,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1190,7 +1187,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -1201,7 +1198,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
@@ -1212,7 +1209,7 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="15"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
@@ -1245,14 +1242,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -1261,7 +1258,7 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1272,7 +1269,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -1283,7 +1280,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
@@ -1294,7 +1291,7 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
       <c r="AI7" s="14"/>
@@ -1306,7 +1303,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1317,7 +1314,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -1328,7 +1325,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
@@ -1339,7 +1336,7 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
@@ -1372,14 +1369,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1388,7 +1385,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="14"/>
@@ -1401,7 +1398,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="14"/>
@@ -1414,7 +1411,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="14"/>
@@ -1427,7 +1424,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="14"/>
@@ -1441,7 +1438,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="14"/>
@@ -1454,7 +1451,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="14"/>
@@ -1467,7 +1464,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="14"/>
@@ -1480,7 +1477,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="14"/>
@@ -1515,14 +1512,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1530,8 +1527,8 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="14"/>
@@ -1544,7 +1541,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="14"/>
@@ -1557,7 +1554,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="14"/>
@@ -1570,7 +1567,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="14"/>
@@ -1605,14 +1602,14 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1621,7 +1618,7 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="14"/>
@@ -1634,7 +1631,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O15" s="14"/>
@@ -1647,7 +1644,7 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X15" s="14"/>
@@ -1660,7 +1657,7 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="15" t="s">
+      <c r="AF15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG15" s="14"/>
@@ -1673,8 +1670,8 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="14"/>
@@ -1687,7 +1684,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O16" s="14"/>
@@ -1700,7 +1697,7 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X16" s="14"/>
@@ -1713,7 +1710,7 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="15" t="s">
+      <c r="AF16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG16" s="14"/>
@@ -1727,7 +1724,7 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="14"/>
@@ -1740,7 +1737,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="14"/>
@@ -1753,7 +1750,7 @@
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X17" s="14"/>
@@ -1766,7 +1763,7 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="15" t="s">
+      <c r="AF17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG17" s="14"/>
@@ -1779,8 +1776,8 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="14"/>
@@ -1793,7 +1790,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="14"/>
@@ -1806,7 +1803,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X18" s="14"/>
@@ -1819,7 +1816,7 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="15" t="s">
+      <c r="AF18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG18" s="14"/>
@@ -1854,14 +1851,14 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -1883,7 +1880,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="14"/>
@@ -1896,7 +1893,7 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X20" s="14"/>
@@ -1909,7 +1906,7 @@
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="15" t="s">
+      <c r="AF20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG20" s="14"/>
@@ -1936,7 +1933,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O21" s="14"/>
@@ -1949,7 +1946,7 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X21" s="14"/>
@@ -1962,7 +1959,7 @@
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="15" t="s">
+      <c r="AF21" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG21" s="14"/>
@@ -1989,7 +1986,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O22" s="14"/>
@@ -2002,7 +1999,7 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X22" s="14"/>
@@ -2015,7 +2012,7 @@
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="15" t="s">
+      <c r="AF22" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG22" s="14"/>
@@ -2029,7 +2026,7 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="14"/>
@@ -2042,7 +2039,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O23" s="14"/>
@@ -2055,7 +2052,7 @@
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X23" s="14"/>
@@ -2068,7 +2065,7 @@
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="15" t="s">
+      <c r="AF23" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG23" s="14"/>
@@ -2103,14 +2100,14 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -2119,7 +2116,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="14"/>
@@ -2132,7 +2129,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O25" s="14"/>
@@ -2145,7 +2142,7 @@
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X25" s="14"/>
@@ -2158,7 +2155,7 @@
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="15" t="s">
+      <c r="AF25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG25" s="14"/>
@@ -2172,7 +2169,7 @@
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="14"/>
@@ -2185,7 +2182,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O26" s="14"/>
@@ -2198,7 +2195,7 @@
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X26" s="14"/>
@@ -2211,7 +2208,7 @@
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="15" t="s">
+      <c r="AF26" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG26" s="14"/>
@@ -2225,7 +2222,7 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="14"/>
@@ -2238,7 +2235,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O27" s="14"/>
@@ -2251,7 +2248,7 @@
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X27" s="14"/>
@@ -2264,7 +2261,7 @@
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="15" t="s">
+      <c r="AF27" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG27" s="14"/>
@@ -2278,7 +2275,7 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="14"/>
@@ -2291,7 +2288,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="14"/>
@@ -2304,7 +2301,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X28" s="14"/>
@@ -2317,7 +2314,7 @@
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="15" t="s">
+      <c r="AF28" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG28" s="14"/>
@@ -2352,14 +2349,14 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -2368,7 +2365,7 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="14"/>
@@ -2381,7 +2378,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O30" s="14"/>
@@ -2394,7 +2391,7 @@
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="15" t="s">
+      <c r="W30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X30" s="14"/>
@@ -2407,7 +2404,7 @@
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="15" t="s">
+      <c r="AF30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG30" s="14"/>
@@ -2422,7 +2419,7 @@
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="14"/>
@@ -2435,7 +2432,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O31" s="14"/>
@@ -2448,7 +2445,7 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="15" t="s">
+      <c r="W31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X31" s="14"/>
@@ -2461,7 +2458,7 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="15" t="s">
+      <c r="AF31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG31" s="14"/>
@@ -2476,7 +2473,7 @@
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="14"/>
@@ -2489,7 +2486,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O32" s="14"/>
@@ -2502,7 +2499,7 @@
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="15" t="s">
+      <c r="W32" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X32" s="14"/>
@@ -2515,7 +2512,7 @@
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="15" t="s">
+      <c r="AF32" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG32" s="14"/>
@@ -2530,7 +2527,7 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="14"/>
@@ -2543,7 +2540,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="14"/>
@@ -2556,7 +2553,7 @@
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X33" s="14"/>
@@ -2569,7 +2566,7 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="15" t="s">
+      <c r="AF33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="14"/>
@@ -2605,14 +2602,14 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -2621,7 +2618,7 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="14"/>
@@ -2634,7 +2631,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="17" t="s">
         <v>62</v>
       </c>
       <c r="O35" s="14"/>
@@ -2647,7 +2644,7 @@
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="15" t="s">
+      <c r="W35" s="17" t="s">
         <v>63</v>
       </c>
       <c r="X35" s="14"/>
@@ -2660,7 +2657,7 @@
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
-      <c r="AF35" s="15" t="s">
+      <c r="AF35" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AG35" s="14"/>
@@ -2674,30 +2671,30 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="17"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
@@ -2707,8 +2704,8 @@
       </c>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="17"/>
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
@@ -2719,32 +2716,32 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="23"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="11"/>
       <c r="S37" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="23"/>
+      <c r="V37" s="15"/>
       <c r="W37" s="11"/>
       <c r="AB37" s="14" t="s">
         <v>134</v>
       </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
-      <c r="AE37" s="23"/>
+      <c r="AE37" s="15"/>
       <c r="AF37" s="11"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
@@ -2753,32 +2750,32 @@
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="5"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="11"/>
       <c r="S38" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="23"/>
+      <c r="V38" s="15"/>
       <c r="W38" s="11"/>
       <c r="AB38" s="14" t="s">
         <v>135</v>
       </c>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
-      <c r="AE38" s="23"/>
+      <c r="AE38" s="15"/>
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
@@ -2787,32 +2784,32 @@
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="23"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="11"/>
       <c r="S39" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="23"/>
+      <c r="V39" s="15"/>
       <c r="W39" s="11"/>
       <c r="AB39" s="14" t="s">
         <v>136</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
-      <c r="AE39" s="23"/>
+      <c r="AE39" s="15"/>
       <c r="AF39" s="11"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
@@ -2825,10 +2822,10 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="7"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -2839,8 +2836,8 @@
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="17"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
@@ -2850,8 +2847,8 @@
       </c>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="17"/>
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="14"/>
@@ -2863,7 +2860,7 @@
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -2878,7 +2875,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
-      <c r="V41" s="25"/>
+      <c r="V41" s="12"/>
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -2886,7 +2883,7 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12"/>
-      <c r="AE41" s="25"/>
+      <c r="AE41" s="12"/>
       <c r="AF41" s="13"/>
       <c r="AG41" s="12"/>
       <c r="AH41" s="12"/>
@@ -2897,7 +2894,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -2939,63 +2936,179 @@
     </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J35:M35"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="A36:D36"/>
@@ -3020,179 +3133,63 @@
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="AF30:AJ30"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="AF33:AJ33"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3202,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC194F1D-C6D7-4472-AAD1-B0F01E2CC6D9}">
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:Q8"/>
+    <sheetView topLeftCell="L9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3218,81 +3215,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3301,7 +3298,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3311,7 +3308,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -3321,7 +3318,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="15"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
@@ -3331,7 +3328,7 @@
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
@@ -3343,7 +3340,7 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3353,7 +3350,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -3363,7 +3360,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
-      <c r="W4" s="15"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -3373,7 +3370,7 @@
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -3385,7 +3382,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -3395,7 +3392,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -3405,7 +3402,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
@@ -3415,44 +3412,44 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="15"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -3461,7 +3458,7 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3471,7 +3468,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -3481,7 +3478,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
@@ -3491,7 +3488,7 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
       <c r="AI7" s="14"/>
@@ -3503,7 +3500,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3513,7 +3510,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -3523,7 +3520,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
@@ -3533,44 +3530,44 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3579,7 +3576,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="14"/>
@@ -3591,7 +3588,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="14"/>
@@ -3603,7 +3600,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="14"/>
@@ -3615,7 +3612,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="14"/>
@@ -3629,7 +3626,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="14"/>
@@ -3641,7 +3638,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="14"/>
@@ -3653,7 +3650,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="14"/>
@@ -3665,7 +3662,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="14"/>
@@ -3673,38 +3670,38 @@
       <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3713,7 +3710,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="14"/>
@@ -3725,7 +3722,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="14"/>
@@ -3737,7 +3734,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="14"/>
@@ -3749,7 +3746,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="14"/>
@@ -3757,44 +3754,44 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="14"/>
@@ -3803,7 +3800,7 @@
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O15" s="14"/>
@@ -3814,8 +3811,8 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="15" t="s">
+      <c r="V15" s="15"/>
+      <c r="W15" s="17" t="s">
         <v>79</v>
       </c>
       <c r="X15" s="14"/>
@@ -3824,7 +3821,7 @@
       <c r="AB15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF15" s="15" t="s">
+      <c r="AF15" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AG15" s="14"/>
@@ -3835,7 +3832,7 @@
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="14"/>
@@ -3844,7 +3841,7 @@
       <c r="J16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="17" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="14"/>
@@ -3855,8 +3852,8 @@
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="15" t="s">
+      <c r="V16" s="15"/>
+      <c r="W16" s="17" t="s">
         <v>80</v>
       </c>
       <c r="X16" s="14"/>
@@ -3865,7 +3862,7 @@
       <c r="AB16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF16" s="15" t="s">
+      <c r="AF16" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AG16" s="14"/>
@@ -3879,7 +3876,7 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="14"/>
@@ -3891,7 +3888,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O17" s="14"/>
@@ -3903,7 +3900,7 @@
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X17" s="14"/>
@@ -3915,7 +3912,7 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="15" t="s">
+      <c r="AF17" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG17" s="14"/>
@@ -3923,38 +3920,38 @@
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="24"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
       <c r="AE18" s="24"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -3962,8 +3959,8 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="14"/>
@@ -3974,8 +3971,8 @@
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="15" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="17" t="s">
         <v>92</v>
       </c>
       <c r="O19" s="14"/>
@@ -3986,8 +3983,8 @@
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="15" t="s">
+      <c r="V19" s="15"/>
+      <c r="W19" s="17" t="s">
         <v>99</v>
       </c>
       <c r="X19" s="14"/>
@@ -3998,8 +3995,8 @@
       </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="15" t="s">
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="17" t="s">
         <v>101</v>
       </c>
       <c r="AG19" s="14"/>
@@ -4013,7 +4010,7 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="14"/>
@@ -4025,7 +4022,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O20" s="14"/>
@@ -4037,7 +4034,7 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X20" s="14"/>
@@ -4049,7 +4046,7 @@
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="15" t="s">
+      <c r="AF20" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG20" s="14"/>
@@ -4062,8 +4059,8 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="14"/>
@@ -4074,8 +4071,8 @@
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="15" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O21" s="14"/>
@@ -4086,8 +4083,8 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="15" t="s">
+      <c r="V21" s="15"/>
+      <c r="W21" s="17" t="s">
         <v>83</v>
       </c>
       <c r="X21" s="14"/>
@@ -4098,8 +4095,8 @@
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="15" t="s">
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AG21" s="14"/>
@@ -4107,38 +4104,38 @@
       <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="24"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="24"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -4146,8 +4143,8 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="14"/>
@@ -4158,8 +4155,8 @@
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="15" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O23" s="14"/>
@@ -4170,8 +4167,8 @@
       </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="15" t="s">
+      <c r="V23" s="15"/>
+      <c r="W23" s="17" t="s">
         <v>85</v>
       </c>
       <c r="X23" s="14"/>
@@ -4182,8 +4179,8 @@
       </c>
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="15" t="s">
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="17" t="s">
         <v>85</v>
       </c>
       <c r="AG23" s="14"/>
@@ -4197,7 +4194,7 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="14"/>
@@ -4209,7 +4206,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="14"/>
@@ -4220,8 +4217,8 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="15" t="s">
+      <c r="V24" s="15"/>
+      <c r="W24" s="17" t="s">
         <v>86</v>
       </c>
       <c r="X24" s="14"/>
@@ -4232,8 +4229,8 @@
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="15" t="s">
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="17" t="s">
         <v>86</v>
       </c>
       <c r="AG24" s="14"/>
@@ -4246,8 +4243,8 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="14"/>
@@ -4258,8 +4255,8 @@
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="15" t="s">
+      <c r="M25" s="15"/>
+      <c r="N25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O25" s="14"/>
@@ -4270,8 +4267,8 @@
       </c>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="15" t="s">
+      <c r="V25" s="15"/>
+      <c r="W25" s="17" t="s">
         <v>104</v>
       </c>
       <c r="X25" s="14"/>
@@ -4282,8 +4279,8 @@
       </c>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="15" t="s">
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="17" t="s">
         <v>103</v>
       </c>
       <c r="AG25" s="14"/>
@@ -4291,30 +4288,30 @@
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="23"/>
+      <c r="V26" s="15"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
-      <c r="AE26" s="23"/>
+      <c r="AE26" s="15"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
@@ -4322,8 +4319,8 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="14"/>
@@ -4334,8 +4331,8 @@
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="15" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O27" s="14"/>
@@ -4358,8 +4355,8 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="14"/>
@@ -4370,8 +4367,8 @@
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="15" t="s">
+      <c r="M28" s="15"/>
+      <c r="N28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O28" s="14"/>
@@ -4398,8 +4395,8 @@
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="14"/>
@@ -4410,8 +4407,8 @@
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="15" t="s">
+      <c r="M29" s="15"/>
+      <c r="N29" s="17" t="s">
         <v>109</v>
       </c>
       <c r="O29" s="14"/>
@@ -4429,22 +4426,22 @@
       <c r="AF29" s="11"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="24"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
@@ -4468,8 +4465,8 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="14"/>
@@ -4480,8 +4477,8 @@
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="15" t="s">
+      <c r="M31" s="15"/>
+      <c r="N31" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O31" s="14"/>
@@ -4510,8 +4507,8 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="14"/>
@@ -4522,8 +4519,8 @@
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="15" t="s">
+      <c r="M32" s="15"/>
+      <c r="N32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O32" s="14"/>
@@ -4552,8 +4549,8 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="14"/>
@@ -4564,8 +4561,8 @@
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="15" t="s">
+      <c r="M33" s="15"/>
+      <c r="N33" s="17" t="s">
         <v>108</v>
       </c>
       <c r="O33" s="14"/>
@@ -4592,11 +4589,11 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="15"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="15"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
@@ -4696,39 +4693,213 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E6:H6"/>
@@ -4753,213 +4924,39 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EEE52B-0A18-446A-9034-FDF307CEC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6B675-D167-47EA-988B-639B156CE125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="142">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>ipv6 route 2001:db8:C50::/64 fd00:CAFE:CD::1</t>
+  </si>
+  <si>
+    <t>ipv6 route ::/0 fd00:CAFE:AA::1</t>
+  </si>
+  <si>
+    <t>ipv6 route ::/0 fd00:CAFE:BB::1</t>
+  </si>
+  <si>
+    <t>ipv6 route ::/0 fd00:CAFE:CC::1</t>
+  </si>
+  <si>
+    <t>ipv6 route ::/0 fd00:CAFE:DD::1</t>
   </si>
 </sst>
 </file>
@@ -556,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,6 +642,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -638,9 +656,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF001F32"/>
       <color rgb="FF00273E"/>
       <color rgb="FFF5F5F5"/>
+      <color rgb="FF001F32"/>
       <color rgb="FF1C50A6"/>
     </mruColors>
   </colors>
@@ -974,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D43"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2605,11 +2623,11 @@
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
+      <c r="AE34" s="24"/>
       <c r="AF34" s="19"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -3197,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC194F1D-C6D7-4472-AAD1-B0F01E2CC6D9}">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView topLeftCell="L9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AE30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4304,14 +4322,22 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="15"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="15"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
@@ -4338,15 +4364,15 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
+      <c r="S27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="26"/>
       <c r="W27" s="11"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
+      <c r="AB27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="26"/>
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -4374,20 +4400,22 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="S28" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="11"/>
-      <c r="AB28" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="11"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -4414,15 +4442,19 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="S29" s="14"/>
+      <c r="S29" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
+      <c r="V29" s="15"/>
       <c r="W29" s="11"/>
-      <c r="AB29" s="14"/>
+      <c r="AB29" s="14" t="s">
+        <v>141</v>
+      </c>
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
+      <c r="AE29" s="15"/>
       <c r="AF29" s="11"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -4442,22 +4474,22 @@
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -4484,22 +4516,20 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="S31" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AB31" s="14"/>
+      <c r="W31" s="11"/>
+      <c r="AB31" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
+      <c r="AF31" s="11"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -4530,18 +4560,12 @@
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
+      <c r="W32" s="11"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
+      <c r="AF32" s="11"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -4586,14 +4610,22 @@
       <c r="AI33" s="14"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
@@ -4604,62 +4636,96 @@
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="26"/>
       <c r="E35" s="11"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="J35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="26"/>
       <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="11"/>
-      <c r="J36" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="11"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="11"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
+      <c r="E39" s="11"/>
+      <c r="J39" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
+      <c r="E40" s="11"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
@@ -4691,11 +4757,31 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="264">
-    <mergeCell ref="J35:M35"/>
+  <mergeCells count="256">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="J37:M37"/>
     <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
     <mergeCell ref="AB1:AI1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
@@ -4720,13 +4806,8 @@
     <mergeCell ref="AF17:AI17"/>
     <mergeCell ref="AF18:AI18"/>
     <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
     <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AB27:AE27"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AB29:AE29"/>
     <mergeCell ref="AF19:AI19"/>
@@ -4754,7 +4835,6 @@
     <mergeCell ref="W33:Z33"/>
     <mergeCell ref="S34:V34"/>
     <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="S18:V18"/>
     <mergeCell ref="W18:Z18"/>
     <mergeCell ref="S19:V19"/>
@@ -4774,11 +4854,7 @@
     <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AB7:AE7"/>
     <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
     <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="S27:V27"/>
     <mergeCell ref="S28:V28"/>
     <mergeCell ref="S29:V29"/>
     <mergeCell ref="S24:V24"/>
@@ -4900,7 +4976,7 @@
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E5:H5"/>
@@ -4909,18 +4985,18 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A28:D28"/>
@@ -4959,5 +5035,6 @@
     <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6B675-D167-47EA-988B-639B156CE125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9D843-5A5D-418B-87D8-88A397B8F23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -463,6 +463,33 @@
   </si>
   <si>
     <t>ipv6 route ::/0 fd00:CAFE:DD::1</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am SW-HH-01&lt;---#</t>
+  </si>
+  <si>
+    <t>motd  banner festlegen</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am SW-HL-01&lt;---#</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am SW-B-01&lt;---#</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am SW-M-01&lt;---#</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am RT-HH-01&lt;---#</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am RT-HL-01&lt;---#</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am RT-B-01&lt;---#</t>
+  </si>
+  <si>
+    <t>banner motd #---&gt;I am RT-M-01&lt;---#</t>
   </si>
 </sst>
 </file>
@@ -568,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -612,19 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,10 +654,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15:AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1016,64 +1040,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1104,10 +1128,10 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
       <c r="J3" s="14" t="s">
         <v>1</v>
@@ -1115,7 +1139,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -1126,7 +1150,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="15"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
@@ -1137,7 +1161,7 @@
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="15"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
@@ -1149,10 +1173,10 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="2"/>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1160,7 +1184,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -1171,7 +1195,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -1182,7 +1206,7 @@
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="15"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -1194,7 +1218,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1205,7 +1229,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -1216,7 +1240,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
@@ -1227,7 +1251,7 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
@@ -1260,14 +1284,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -1276,7 +1300,7 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1287,7 +1311,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -1298,7 +1322,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
@@ -1309,7 +1333,7 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="15"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
       <c r="AI7" s="14"/>
@@ -1321,7 +1345,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1332,7 +1356,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -1343,7 +1367,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
@@ -1354,7 +1378,7 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="15"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
@@ -1387,14 +1411,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1403,7 +1427,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="14"/>
@@ -1416,7 +1440,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="14"/>
@@ -1429,7 +1453,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="14"/>
@@ -1442,7 +1466,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="14"/>
@@ -1456,7 +1480,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="14"/>
@@ -1469,7 +1493,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="14"/>
@@ -1482,7 +1506,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="14"/>
@@ -1495,7 +1519,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="14"/>
@@ -1530,14 +1554,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1545,8 +1569,8 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="14"/>
@@ -1559,7 +1583,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="14"/>
@@ -1572,7 +1596,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="14"/>
@@ -1585,7 +1609,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="14"/>
@@ -1593,143 +1617,140 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
+      <c r="A14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="S14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AB14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17" t="s">
-        <v>44</v>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="17" t="s">
-        <v>44</v>
+      <c r="N16" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="17" t="s">
-        <v>44</v>
+      <c r="W16" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="17" t="s">
-        <v>44</v>
+      <c r="AF16" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
@@ -1737,52 +1758,52 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17" t="s">
-        <v>45</v>
+      <c r="D17" s="21"/>
+      <c r="E17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="17" t="s">
-        <v>45</v>
+      <c r="N17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="17" t="s">
-        <v>45</v>
+      <c r="W17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="17" t="s">
-        <v>45</v>
+      <c r="AF17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
@@ -1790,195 +1811,195 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17" t="s">
-        <v>47</v>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="17" t="s">
-        <v>47</v>
+      <c r="N18" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="17" t="s">
-        <v>47</v>
+      <c r="W18" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="17" t="s">
-        <v>47</v>
+      <c r="AF18" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
       <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
+      <c r="A19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="17" t="s">
-        <v>44</v>
+      <c r="N21" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
-      <c r="W21" s="17" t="s">
-        <v>44</v>
+      <c r="W21" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="17" t="s">
-        <v>44</v>
+      <c r="AF21" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
@@ -1986,52 +2007,52 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="17" t="s">
-        <v>45</v>
+      <c r="N22" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="17" t="s">
-        <v>45</v>
+      <c r="W22" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="17" t="s">
-        <v>45</v>
+      <c r="AF22" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
@@ -2039,195 +2060,195 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="14" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="17" t="s">
-        <v>47</v>
+      <c r="N23" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="17" t="s">
-        <v>47</v>
+      <c r="W23" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="17" t="s">
-        <v>47</v>
+      <c r="AF23" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="AG23" s="14"/>
       <c r="AH23" s="14"/>
       <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
+      <c r="A24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="17" t="s">
-        <v>44</v>
+      <c r="E26" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="17" t="s">
-        <v>44</v>
+      <c r="N26" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="17" t="s">
-        <v>44</v>
+      <c r="W26" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="17" t="s">
-        <v>44</v>
+      <c r="AF26" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
@@ -2235,52 +2256,52 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="17" t="s">
-        <v>45</v>
+      <c r="E27" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="17" t="s">
-        <v>45</v>
+      <c r="N27" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="17" t="s">
-        <v>45</v>
+      <c r="W27" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="17" t="s">
-        <v>45</v>
+      <c r="AF27" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="14"/>
@@ -2288,196 +2309,195 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="17" t="s">
-        <v>47</v>
+      <c r="E28" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="17" t="s">
-        <v>47</v>
+      <c r="N28" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="17" t="s">
-        <v>47</v>
+      <c r="W28" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="17" t="s">
-        <v>47</v>
+      <c r="AF28" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
+      <c r="A29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="17" t="s">
-        <v>44</v>
+      <c r="E31" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="17" t="s">
-        <v>44</v>
+      <c r="N31" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="17" t="s">
-        <v>44</v>
+      <c r="W31" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="17" t="s">
-        <v>44</v>
+      <c r="AF31" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
@@ -2486,52 +2506,52 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="17" t="s">
-        <v>45</v>
+      <c r="E32" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="17" t="s">
-        <v>45</v>
+      <c r="N32" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="17" t="s">
-        <v>45</v>
+      <c r="W32" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="17" t="s">
-        <v>45</v>
+      <c r="AF32" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
@@ -2540,52 +2560,52 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="17" t="s">
-        <v>47</v>
+      <c r="E33" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="17" t="s">
-        <v>47</v>
+      <c r="N33" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="17" t="s">
-        <v>47</v>
+      <c r="W33" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="17" t="s">
-        <v>47</v>
+      <c r="AF33" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
@@ -2593,478 +2613,557 @@
       <c r="AJ33" s="14"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
+      <c r="A34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="14" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="17"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="17"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="17"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="11"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
       <c r="S37" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="11"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
       <c r="AB37" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="11"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="5"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="11"/>
       <c r="S38" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="15"/>
+      <c r="V38" s="21"/>
       <c r="W38" s="11"/>
       <c r="AB38" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
-      <c r="AE38" s="15"/>
+      <c r="AE38" s="21"/>
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
+      <c r="M39" s="21"/>
       <c r="N39" s="11"/>
       <c r="S39" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="15"/>
+      <c r="V39" s="21"/>
       <c r="W39" s="11"/>
       <c r="AB39" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
-      <c r="AE39" s="15"/>
+      <c r="AE39" s="21"/>
       <c r="AF39" s="11"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="2"/>
+      <c r="J40" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="11"/>
       <c r="S40" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="11"/>
       <c r="AB40" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="11"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="11"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="J42" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="11"/>
-      <c r="S42" s="14" t="s">
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="11"/>
+      <c r="S43" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="11"/>
-      <c r="AB42" s="14" t="s">
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="11"/>
+      <c r="AB43" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="11"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="W43" s="11"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="W44" s="11"/>
+      <c r="AF44" s="11"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="AF30:AJ30"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="AF33:AJ33"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
+  <mergeCells count="262">
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
     <mergeCell ref="AB14:AE14"/>
     <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:AA19"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="S7:V7"/>
@@ -3080,134 +3179,117 @@
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AB36:AE36"/>
     <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="S36:V36"/>
     <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3215,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC194F1D-C6D7-4472-AAD1-B0F01E2CC6D9}">
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:M37"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14:AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3233,81 +3315,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="S1" s="18" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="S1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3316,7 +3398,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3326,7 +3408,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -3336,7 +3418,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="15"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
@@ -3346,7 +3428,7 @@
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="15"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
@@ -3358,7 +3440,7 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3368,7 +3450,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -3378,7 +3460,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -3388,7 +3470,7 @@
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="15"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -3400,7 +3482,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -3410,7 +3492,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -3420,7 +3502,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
@@ -3430,44 +3512,44 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -3476,7 +3558,7 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3486,7 +3568,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -3496,7 +3578,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
@@ -3506,7 +3588,7 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="15"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
       <c r="AI7" s="14"/>
@@ -3518,7 +3600,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3528,7 +3610,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -3538,7 +3620,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
@@ -3548,44 +3630,44 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="15"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3594,7 +3676,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="14"/>
@@ -3606,7 +3688,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="14"/>
@@ -3618,7 +3700,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="14"/>
@@ -3630,7 +3712,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="14"/>
@@ -3644,7 +3726,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="14"/>
@@ -3656,7 +3738,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="14"/>
@@ -3668,7 +3750,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="14"/>
@@ -3680,7 +3762,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="15" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="14"/>
@@ -3688,38 +3770,38 @@
       <c r="AI11" s="14"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -3728,7 +3810,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="14"/>
@@ -3740,7 +3822,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="14"/>
@@ -3752,7 +3834,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="14"/>
@@ -3764,7 +3846,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="14"/>
@@ -3772,300 +3854,300 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
+      <c r="A14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="S14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AB14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="J15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="S15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AB15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="S16" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="17" t="s">
-        <v>80</v>
+      <c r="V16" s="21"/>
+      <c r="W16" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AB16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF16" s="17" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17" t="s">
-        <v>81</v>
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="J17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="17" t="s">
-        <v>81</v>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="S17" s="14" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="17" t="s">
-        <v>81</v>
+      <c r="V17" s="21"/>
+      <c r="W17" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
-      <c r="AB17" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="17" t="s">
-        <v>81</v>
+      <c r="AB17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF17" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
+      <c r="A18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="S18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AB18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="J19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="S19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AB19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17" t="s">
-        <v>81</v>
+      <c r="D20" s="21"/>
+      <c r="E20" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="J20" s="14" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="17" t="s">
-        <v>81</v>
+      <c r="M20" s="21"/>
+      <c r="N20" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="S20" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="17" t="s">
-        <v>81</v>
+      <c r="V20" s="21"/>
+      <c r="W20" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AB20" s="14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="17" t="s">
-        <v>81</v>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
@@ -4073,183 +4155,183 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
-        <v>83</v>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17" t="s">
-        <v>83</v>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="S21" s="14" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="17" t="s">
-        <v>83</v>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="17" t="s">
-        <v>83</v>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
+      <c r="A22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="S22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AB22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="J23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="S23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AB23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="17" t="s">
-        <v>81</v>
+      <c r="D24" s="21"/>
+      <c r="E24" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="17" t="s">
-        <v>81</v>
+      <c r="M24" s="21"/>
+      <c r="N24" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="S24" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
-        <v>86</v>
+      <c r="V24" s="21"/>
+      <c r="W24" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AB24" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
-        <v>86</v>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
@@ -4257,311 +4339,323 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
-        <v>83</v>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
-        <v>83</v>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="S25" s="14" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
-        <v>104</v>
+      <c r="V25" s="21"/>
+      <c r="W25" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AB25" s="14" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
-        <v>103</v>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
+      <c r="A26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="S26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AB26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="J27" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="S27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V27" s="26"/>
-      <c r="W27" s="11"/>
-      <c r="AB27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="17" t="s">
-        <v>86</v>
+      <c r="D28" s="21"/>
+      <c r="E28" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="17" t="s">
-        <v>86</v>
+      <c r="M28" s="21"/>
+      <c r="N28" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
+      <c r="S28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="11"/>
+      <c r="AB28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="11"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17" t="s">
-        <v>87</v>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
-        <v>109</v>
+      <c r="M29" s="21"/>
+      <c r="N29" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="J30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="S30" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="11"/>
-      <c r="AB29" s="14" t="s">
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="11"/>
+      <c r="AB30" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="11"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="11"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="J31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="S31" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="11"/>
-      <c r="AB31" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="11"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="17" t="s">
-        <v>86</v>
+      <c r="D32" s="21"/>
+      <c r="E32" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="17" t="s">
-        <v>86</v>
+      <c r="M32" s="21"/>
+      <c r="N32" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="S32" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
       <c r="W32" s="11"/>
-      <c r="AB32" s="14"/>
+      <c r="AB32" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
@@ -4569,25 +4663,25 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="17" t="s">
-        <v>87</v>
+      <c r="D33" s="21"/>
+      <c r="E33" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="17" t="s">
-        <v>108</v>
+      <c r="M33" s="21"/>
+      <c r="N33" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -4596,132 +4690,154 @@
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
+      <c r="W33" s="11"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
+      <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="A34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="11"/>
-      <c r="J35" s="1" t="s">
+      <c r="E36" s="11"/>
+      <c r="J36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="11"/>
-      <c r="J37" s="14" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="11"/>
+      <c r="J38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="11"/>
-      <c r="J39" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="11"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -4732,6 +4848,12 @@
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
+      <c r="E41" s="11"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
@@ -4775,249 +4897,22 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="256">
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AB19:AE19"/>
+  <mergeCells count="264">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
     <mergeCell ref="AB14:AE14"/>
     <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -5033,6 +4928,247 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB24:AE24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9D843-5A5D-418B-87D8-88A397B8F23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C94761-845F-4A64-A20D-DF11918BF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="157">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t>banner motd #---&gt;I am RT-M-01&lt;---#</t>
+  </si>
+  <si>
+    <t>password a</t>
+  </si>
+  <si>
+    <t>Legt das Passwort fest</t>
+  </si>
+  <si>
+    <t>line con 0</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>line configuration modus</t>
+  </si>
+  <si>
+    <t>Passwort beim login abfragen</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15:AE15"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14:AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1618,1048 +1636,1036 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="21"/>
       <c r="E14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="J14" s="14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="21"/>
       <c r="N14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="S14" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="21"/>
       <c r="W14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
       <c r="AB14" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AG14" s="25"/>
       <c r="AH14" s="25"/>
       <c r="AI14" s="25"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
+      <c r="A15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="J15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="S15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AB15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="J16" s="14" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
       <c r="S16" s="14" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
+      <c r="V16" s="21"/>
       <c r="W16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
       <c r="AB16" s="14" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
+      <c r="AE16" s="21"/>
       <c r="AF16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="21"/>
       <c r="E17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="J17" s="14" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
       <c r="S17" s="14" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="21"/>
       <c r="W17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
       <c r="AB17" s="14" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
+      <c r="AE17" s="21"/>
       <c r="AF17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
       <c r="AF19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AG19" s="14"/>
       <c r="AH19" s="14"/>
       <c r="AI19" s="14"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
       <c r="W22" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="14"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
       <c r="W24" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="14"/>
       <c r="AI27" s="14"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
       <c r="AI29" s="14"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
       <c r="W32" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="14" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
@@ -2667,90 +2673,107 @@
       <c r="AJ34" s="14"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
+      <c r="A35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
       <c r="W36" s="15" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="15" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
@@ -2759,120 +2782,152 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="14" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="15"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="15"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="AG37" s="14"/>
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="11"/>
-      <c r="S38" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="11"/>
-      <c r="AB38" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="11"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="14" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="11"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
       <c r="S39" s="14" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="11"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
       <c r="AB39" s="14" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="11"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2883,287 +2938,421 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="11"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
       <c r="S40" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="21"/>
-      <c r="W40" s="11"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
       <c r="AB40" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
       <c r="AE40" s="21"/>
-      <c r="AF40" s="11"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="2"/>
+      <c r="J41" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="11"/>
       <c r="S41" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="21"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
+      <c r="W41" s="11"/>
       <c r="AB41" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="21"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
+      <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="11"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="12"/>
+      <c r="S42" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="11"/>
+      <c r="AB42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="11"/>
       <c r="S43" s="14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
+      <c r="V43" s="21"/>
       <c r="W43" s="11"/>
       <c r="AB43" s="14" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
+      <c r="AE43" s="21"/>
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="W44" s="11"/>
-      <c r="AF44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
+      <c r="J45" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="11"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="11"/>
+      <c r="S46" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="11"/>
+      <c r="AB46" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="11"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="W47" s="11"/>
+      <c r="AF47" s="11"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="286">
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="S14:V14"/>
     <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
     <mergeCell ref="AB14:AE14"/>
     <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="J42:M42"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S43:V43"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E27:I27"/>
     <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="J32:M32"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="N7:R7"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="J13:M13"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="N20:R20"/>
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
     <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
     <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
     <mergeCell ref="N34:R34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N35:R35"/>
     <mergeCell ref="N36:R36"/>
     <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N32:R32"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
     <mergeCell ref="S24:V24"/>
     <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
     <mergeCell ref="S21:V21"/>
     <mergeCell ref="W21:AA21"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:AA19"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="S7:V7"/>
@@ -3179,8 +3368,8 @@
     <mergeCell ref="W3:AA3"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:AA19"/>
     <mergeCell ref="S11:V11"/>
     <mergeCell ref="W11:AA11"/>
     <mergeCell ref="S13:V13"/>
@@ -3202,94 +3391,97 @@
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="AB8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
     <mergeCell ref="AB12:AE12"/>
     <mergeCell ref="AF12:AI12"/>
     <mergeCell ref="AB13:AE13"/>
     <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
     <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
     <mergeCell ref="AB21:AE21"/>
     <mergeCell ref="AF21:AI21"/>
     <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="AB23:AE23"/>
     <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AF28:AI28"/>
     <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="W44:AA44"/>
     <mergeCell ref="AB33:AE33"/>
     <mergeCell ref="AB34:AE34"/>
     <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S44:V44"/>
     <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="AF39:AJ39"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="AF37:AJ37"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3297,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC194F1D-C6D7-4472-AAD1-B0F01E2CC6D9}">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14:AI14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14:AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3855,299 +4047,315 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="21"/>
       <c r="E14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="J14" s="14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="21"/>
       <c r="N14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="S14" s="14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="21"/>
       <c r="W14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
       <c r="AB14" s="14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AG14" s="25"/>
       <c r="AH14" s="25"/>
       <c r="AI14" s="25"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
+      <c r="A15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="J15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="S15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AB15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="J16" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="J16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
       <c r="S16" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="21"/>
       <c r="W16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AB16" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AB16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="21"/>
       <c r="AF16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="J17" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="J17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
       <c r="S17" s="14" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="21"/>
       <c r="W17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AB17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="J19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="S19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AB19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AB17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="J18" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="S18" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AB18" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="J20" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="21"/>
+      <c r="J20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="N20" s="15" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="S20" s="14" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="21"/>
       <c r="W20" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
-      <c r="AB20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="21"/>
+      <c r="AB20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AF20" s="15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
@@ -4155,7 +4363,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4167,7 +4375,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4179,7 +4387,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="S21" s="14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -4191,7 +4399,7 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
@@ -4204,134 +4412,134 @@
       <c r="AI21" s="14"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="J22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="S22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AB22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
+      <c r="A23" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="S23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AB23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="21"/>
+      <c r="M24" s="14"/>
       <c r="N24" s="15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="S24" s="14" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="21"/>
+      <c r="V24" s="14"/>
       <c r="W24" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AB24" s="14" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
-      <c r="AE24" s="21"/>
+      <c r="AE24" s="14"/>
       <c r="AF24" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
@@ -4339,539 +4547,655 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="S25" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="21"/>
       <c r="W25" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AB25" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC25" s="14"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="21"/>
       <c r="AF25" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="J26" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="S26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AB26" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
+      <c r="A27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="S27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AB27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="21"/>
+      <c r="M28" s="14"/>
       <c r="N28" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="S28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W28" s="11"/>
-      <c r="AB28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="11"/>
+      <c r="S28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AB28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="21"/>
       <c r="E29" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="J29" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="21"/>
       <c r="N29" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
+      <c r="S29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AB29" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="J30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="S30" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="11"/>
-      <c r="AB30" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="11"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
+      <c r="A31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="J31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="S31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="11"/>
+      <c r="AB31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="11"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="21"/>
       <c r="E32" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="21"/>
       <c r="N32" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="S32" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="11"/>
-      <c r="AB32" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="11"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="21"/>
       <c r="E33" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="J33" s="14" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="21"/>
       <c r="N33" s="15" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="S33" s="14"/>
+      <c r="S33" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
+      <c r="V33" s="21"/>
       <c r="W33" s="11"/>
-      <c r="AB33" s="14"/>
+      <c r="AB33" s="14" t="s">
+        <v>141</v>
+      </c>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
+      <c r="AE33" s="21"/>
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="J34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="S35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="S35" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
-      <c r="AB35" s="14"/>
+      <c r="W35" s="11"/>
+      <c r="AB35" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
+      <c r="AF35" s="11"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="J36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="11"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="11"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="J37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="J36" s="1" t="s">
+      <c r="E39" s="11"/>
+      <c r="J39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="11"/>
-      <c r="J38" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
-      <c r="J40" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="11"/>
-      <c r="J41" s="14"/>
+      <c r="J41" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
+      <c r="E43" s="11"/>
+      <c r="J43" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
+      <c r="E44" s="11"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
@@ -4903,16 +5227,58 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="264">
+  <mergeCells count="288">
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="S14:V14"/>
     <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -4928,33 +5294,33 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E5:H5"/>
@@ -4963,62 +5329,62 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
@@ -5035,30 +5401,30 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="J29:M29"/>
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="W13:Z13"/>
     <mergeCell ref="S8:V8"/>
@@ -5079,21 +5445,21 @@
     <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AB7:AE7"/>
     <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S35:V35"/>
     <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
     <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
     <mergeCell ref="S30:V30"/>
     <mergeCell ref="S25:V25"/>
     <mergeCell ref="W25:Z25"/>
     <mergeCell ref="S26:V26"/>
     <mergeCell ref="W26:Z26"/>
     <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="S20:V20"/>
     <mergeCell ref="S11:V11"/>
     <mergeCell ref="W11:Z11"/>
     <mergeCell ref="S12:V12"/>
@@ -5103,53 +5469,53 @@
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
     <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="S20:V20"/>
     <mergeCell ref="W20:Z20"/>
     <mergeCell ref="S21:V21"/>
     <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S19:V19"/>
     <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
     <mergeCell ref="AB11:AE11"/>
     <mergeCell ref="AF11:AI11"/>
     <mergeCell ref="AB12:AE12"/>
     <mergeCell ref="AF12:AI12"/>
     <mergeCell ref="AB13:AE13"/>
     <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB38:AE38"/>
     <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB36:AE36"/>
     <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="AB1:AI1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
@@ -5157,18 +5523,18 @@
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB30:AE30"/>
     <mergeCell ref="AB25:AE25"/>
     <mergeCell ref="AF25:AI25"/>
     <mergeCell ref="AB26:AE26"/>
     <mergeCell ref="AF26:AI26"/>
     <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB24:AE24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C94761-845F-4A64-A20D-DF11918BF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F22AD-D5D5-4344-A560-EDE2249D5D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="163">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -508,6 +508,24 @@
   </si>
   <si>
     <t>Passwort beim login abfragen</t>
+  </si>
+  <si>
+    <t>ip domain name rt-hh.com</t>
+  </si>
+  <si>
+    <t>crypto key generate rsa general-key modulus 1024</t>
+  </si>
+  <si>
+    <t>username admin secret streamline</t>
+  </si>
+  <si>
+    <t>line vty 0 4</t>
+  </si>
+  <si>
+    <t>login local</t>
+  </si>
+  <si>
+    <t>transport input ssh</t>
   </si>
 </sst>
 </file>
@@ -613,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,6 +708,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -698,8 +719,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5F5F5"/>
       <color rgb="FF00273E"/>
-      <color rgb="FFF5F5F5"/>
       <color rgb="FF001F32"/>
       <color rgb="FF1C50A6"/>
     </mruColors>
@@ -1032,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14:AI16"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1046,14 +1067,14 @@
     <col min="7" max="8" width="10.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
     <col min="14" max="16" width="11.42578125" style="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" customWidth="1"/>
     <col min="19" max="21" width="11.42578125" style="1"/>
     <col min="22" max="22" width="23" style="1" customWidth="1"/>
     <col min="23" max="30" width="11.42578125" style="1"/>
-    <col min="31" max="31" width="19.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="1" customWidth="1"/>
     <col min="32" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -3114,24 +3135,28 @@
       <c r="AI44" s="14"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="11"/>
+      <c r="A45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="2"/>
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
@@ -3150,52 +3175,263 @@
       <c r="AI45" s="12"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="11"/>
-      <c r="S46" s="14" t="s">
+      <c r="A46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="S46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AB46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="S47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W47" s="5"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AB47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="S48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W48" s="5"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AB48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="S49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AB49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="S50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AB50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="11"/>
-      <c r="AB46" s="14" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="11"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="W47" s="11"/>
-      <c r="AF47" s="11"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="S51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W51" s="5"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AB51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="S52" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="26"/>
+      <c r="AB52" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="26"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="26"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="26"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="AB52:AE52"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="S17:V17"/>
@@ -3220,7 +3456,6 @@
     <mergeCell ref="AB41:AE41"/>
     <mergeCell ref="AB42:AE42"/>
     <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="J45:M45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:D43"/>
@@ -3230,6 +3465,8 @@
     <mergeCell ref="S41:V41"/>
     <mergeCell ref="S42:V42"/>
     <mergeCell ref="S43:V43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J51:M51"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
@@ -3458,23 +3695,18 @@
     <mergeCell ref="W36:AA36"/>
     <mergeCell ref="W37:AA37"/>
     <mergeCell ref="S34:V34"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J47:M47"/>
     <mergeCell ref="AF39:AJ39"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="AF34:AJ34"/>
     <mergeCell ref="AF35:AJ35"/>
     <mergeCell ref="AF36:AJ36"/>
     <mergeCell ref="AF37:AJ37"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
     <mergeCell ref="AF40:AI40"/>
     <mergeCell ref="AF44:AI44"/>
     <mergeCell ref="S35:V35"/>
@@ -3491,19 +3723,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC194F1D-C6D7-4472-AAD1-B0F01E2CC6D9}">
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14:AI16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="1"/>
     <col min="9" max="9" width="4.7109375" style="1" customWidth="1"/>
-    <col min="10" max="17" width="11.42578125" style="1"/>
+    <col min="10" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="22.140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.42578125" style="1"/>
     <col min="18" max="18" width="4.7109375" style="1" customWidth="1"/>
-    <col min="19" max="26" width="11.42578125" style="1"/>
+    <col min="19" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="22.28515625" style="1" customWidth="1"/>
+    <col min="23" max="26" width="11.42578125" style="1"/>
     <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="1"/>
+    <col min="28" max="30" width="11.42578125" style="1"/>
+    <col min="31" max="31" width="21.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
@@ -4988,20 +5228,26 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
-      <c r="S35" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="11"/>
-      <c r="AB35" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="11"/>
+      <c r="S35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AB35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -5028,16 +5274,20 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="11"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="11"/>
+      <c r="S36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W36" s="5"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AB36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -5064,22 +5314,26 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
-      <c r="S37" s="14"/>
+      <c r="S37" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AB37" s="14"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AB37" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
@@ -5098,14 +5352,20 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
+      <c r="S38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W38" s="5"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AB38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -5116,6 +5376,26 @@
         <v>1</v>
       </c>
       <c r="N39" s="11"/>
+      <c r="S39" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AB39" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
@@ -5134,6 +5414,20 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
+      <c r="S40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W40" s="5"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AB40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -5150,6 +5444,26 @@
       <c r="L41" s="14"/>
       <c r="M41" s="21"/>
       <c r="N41" s="11"/>
+      <c r="S41" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AB41" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -5168,85 +5482,173 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
+      <c r="W42" s="11"/>
+      <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="11"/>
-      <c r="J43" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="11"/>
+      <c r="A43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="J43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="11"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="11"/>
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="J44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="J45" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="J46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="J47" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="J48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="5"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="J49" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="288">
+  <mergeCells count="281">
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB41:AE41"/>
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="W16:Z16"/>
     <mergeCell ref="AB14:AE14"/>
@@ -5255,6 +5657,7 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AB16:AE16"/>
     <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J45:M45"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="J17:M17"/>
@@ -5329,17 +5732,13 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
@@ -5445,7 +5844,6 @@
     <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AB7:AE7"/>
     <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S35:V35"/>
     <mergeCell ref="S32:V32"/>
     <mergeCell ref="S33:V33"/>
     <mergeCell ref="S28:V28"/>
@@ -5470,9 +5868,6 @@
     <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S36:V36"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="W22:Z22"/>
     <mergeCell ref="S23:V23"/>
@@ -5501,9 +5896,6 @@
     <mergeCell ref="AB21:AE21"/>
     <mergeCell ref="AF21:AI21"/>
     <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
     <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="AB33:AE33"/>
     <mergeCell ref="AF23:AI23"/>
@@ -5514,8 +5906,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="J41:M41"/>
     <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
     <mergeCell ref="AB1:AI1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
@@ -5524,7 +5914,6 @@
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="AF4:AI4"/>
     <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AF37:AI37"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AF28:AI28"/>
     <mergeCell ref="AB29:AE29"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DE64C-25F5-40FA-AD5F-6449F1E48DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E69848-E000-4908-87E0-79462E344C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="177">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -558,6 +558,18 @@
   </si>
   <si>
     <t>ipv6 ospf 1 area 4</t>
+  </si>
+  <si>
+    <t>router-id 1.1.2.1</t>
+  </si>
+  <si>
+    <t>router-id 1.1.2.2</t>
+  </si>
+  <si>
+    <t>router-id 1.1.2.3</t>
+  </si>
+  <si>
+    <t>router-id 1.1.2.4</t>
   </si>
 </sst>
 </file>
@@ -5963,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF66C8F-F7E7-4E47-AB56-867EE702083D}">
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView topLeftCell="M30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45:AE45"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8570,10 +8582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58D888-97B0-4BB4-B0DF-40F9EA743ADA}">
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31:AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -9135,316 +9147,278 @@
       <c r="AI13" s="15"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="J14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="S14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AB14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
+      <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
+      <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
+      <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
+      <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="S17" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AB17" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="A18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="S18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AB18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="17" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="S19" s="15" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="16"/>
       <c r="W19" s="17" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
-      <c r="AB19" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AB19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="16"/>
       <c r="AF19" s="17" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A20" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="17" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="J20" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="J20" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="17" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="S20" s="15" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="16"/>
       <c r="W20" s="17" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
-      <c r="AB20" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AB20" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
       <c r="AF20" s="17" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
@@ -9452,49 +9426,49 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="17" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="S21" s="15" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="17" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AB21" s="15" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
+      <c r="AE21" s="16"/>
       <c r="AF21" s="17" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
@@ -9504,7 +9478,7 @@
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="20"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -9512,7 +9486,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="21"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="20"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
@@ -9520,7 +9494,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
-      <c r="V22" s="21"/>
+      <c r="V22" s="18"/>
       <c r="W22" s="20"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
@@ -9528,107 +9502,89 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
       <c r="AD22" s="18"/>
-      <c r="AE22" s="21"/>
+      <c r="AE22" s="18"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="18"/>
       <c r="AH22" s="18"/>
       <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="J23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
+      <c r="J23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N23" s="17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="S23" s="15" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="16"/>
       <c r="W23" s="17" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
-      <c r="AB23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
+      <c r="AB23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AF23" s="17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="J24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="N24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="S24" s="15" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="V24" s="16"/>
       <c r="W24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
-      <c r="AB24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
+      <c r="AB24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AF24" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
@@ -9636,183 +9592,166 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="S25" s="15" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="16"/>
+      <c r="V25" s="15"/>
       <c r="W25" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AB25" s="15" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
+      <c r="AE25" s="15"/>
       <c r="AF25" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="A26" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="11"/>
+      <c r="S26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="11"/>
+      <c r="AB26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="J27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="S27" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AB27" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="17" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="S28" s="15" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AB28" s="15" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="17" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
@@ -9820,755 +9759,1132 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="S29" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="16"/>
+      <c r="V29" s="15"/>
       <c r="W29" s="17" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AB29" s="15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
+      <c r="AE29" s="15"/>
       <c r="AF29" s="17" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
+      <c r="A30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="J30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="S30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AB30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="J31" s="15" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="S31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W31" s="11"/>
-      <c r="AB31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="11"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="S31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AB31" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="J32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="16"/>
       <c r="N33" s="17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="S33" s="15" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="16"/>
-      <c r="W33" s="11"/>
+      <c r="W33" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
       <c r="AB33" s="15" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="16"/>
-      <c r="AF33" s="11"/>
+      <c r="AF33" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
+      <c r="A34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="J34" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="S34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AB34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="16"/>
       <c r="N35" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="S35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AB35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
+      <c r="S35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AB35" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="J36" s="15" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="S36" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="N36" s="11"/>
+      <c r="S36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="16"/>
       <c r="W36" s="5"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-      <c r="AB36" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="AB36" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="16"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="J38" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="S38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="11"/>
+      <c r="AB38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="11"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="J39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="J40" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="S40" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="11"/>
+      <c r="AB40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="11"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="S42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AB42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="J43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="S43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W43" s="5"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AB43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="J37" s="15" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="J44" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17" t="s">
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="S37" s="15" t="s">
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="S44" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AB37" s="15" t="s">
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AB44" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="S38" s="1" t="s">
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="S45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="W38" s="5"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AB38" s="1" t="s">
+      <c r="W45" s="5"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AB45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="J39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N39" s="11"/>
-      <c r="S39" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AB39" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="S40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W40" s="5"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AB40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="11"/>
-      <c r="J41" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="11"/>
-      <c r="S41" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AB41" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="W42" s="11"/>
-      <c r="AF42" s="11"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="J44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="J45" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="11"/>
       <c r="J46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="S46" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AB46" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="J47" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="S47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W47" s="5"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AB47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="J48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A48" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="11"/>
+      <c r="J48" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="11"/>
+      <c r="S48" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="J49" s="15" t="s">
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AB48" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="11"/>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="W49" s="11"/>
+      <c r="AF49" s="11"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="J51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="J52" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="J53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="J54" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="J55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="J56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="11"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
+  <mergeCells count="301">
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="AB44:AE44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="J45:M45"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
     <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:H41"/>
     <mergeCell ref="J41:M41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
     <mergeCell ref="S39:V39"/>
     <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:Q39"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
     <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
     <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="AF33:AI33"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
     <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="J29:M29"/>
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="S29:V29"/>
     <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="S28:V28"/>
     <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="J27:M27"/>
@@ -10576,64 +10892,54 @@
     <mergeCell ref="S27:V27"/>
     <mergeCell ref="W27:Z27"/>
     <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
     <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="J23:M23"/>
     <mergeCell ref="N23:Q23"/>
     <mergeCell ref="S23:V23"/>
     <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AB23:AE23"/>
     <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="N22:Q22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AB20:AE20"/>
     <mergeCell ref="AF20:AI20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="S19:V19"/>
     <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="E18:H18"/>
@@ -10641,38 +10947,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="S18:V18"/>
     <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
     <mergeCell ref="AB12:AE12"/>
     <mergeCell ref="AF12:AI12"/>
     <mergeCell ref="A13:D13"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E69848-E000-4908-87E0-79462E344C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC223DA0-174E-4B22-AF1C-86B1B7F8B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -722,22 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +736,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,64 +1126,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1208,10 +1214,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -1219,7 +1225,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -1230,7 +1236,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -1241,7 +1247,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -1253,10 +1259,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -1264,7 +1270,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1275,7 +1281,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -1286,7 +1292,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -1298,7 +1304,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1309,7 +1315,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1320,7 +1326,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -1331,7 +1337,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -1364,14 +1370,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1380,7 +1386,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1391,7 +1397,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1402,7 +1408,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -1413,7 +1419,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -1425,7 +1431,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1436,7 +1442,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1447,7 +1453,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -1458,7 +1464,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -1491,14 +1497,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1507,7 +1513,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -1520,7 +1526,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -1533,7 +1539,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -1546,7 +1552,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -1560,7 +1566,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -1573,7 +1579,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -1586,7 +1592,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -1599,7 +1605,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -1634,14 +1640,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1649,8 +1655,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -1663,7 +1669,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -1676,7 +1682,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -1689,7 +1695,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -1702,8 +1708,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -1714,8 +1720,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -1726,8 +1732,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17" t="s">
+      <c r="V14" s="22"/>
+      <c r="W14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -1738,8 +1744,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="17" t="s">
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -1752,8 +1758,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -1764,8 +1770,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -1776,8 +1782,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17" t="s">
+      <c r="V15" s="22"/>
+      <c r="W15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -1788,8 +1794,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -1802,8 +1808,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -1814,8 +1820,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -1826,8 +1832,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17" t="s">
+      <c r="V16" s="22"/>
+      <c r="W16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -1838,8 +1844,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="17" t="s">
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -1852,8 +1858,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -1864,8 +1870,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -1876,8 +1882,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17" t="s">
+      <c r="V17" s="22"/>
+      <c r="W17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -1888,8 +1894,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="17" t="s">
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -1924,14 +1930,14 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1940,7 +1946,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="15"/>
@@ -1953,7 +1959,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O19" s="15"/>
@@ -1966,7 +1972,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X19" s="15"/>
@@ -1979,7 +1985,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
-      <c r="AF19" s="17" t="s">
+      <c r="AF19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG19" s="15"/>
@@ -1992,8 +1998,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="15"/>
@@ -2006,7 +2012,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="15"/>
@@ -2019,7 +2025,7 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="17" t="s">
+      <c r="W20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X20" s="15"/>
@@ -2032,7 +2038,7 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="17" t="s">
+      <c r="AF20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG20" s="15"/>
@@ -2046,7 +2052,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15"/>
@@ -2059,7 +2065,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="15"/>
@@ -2072,7 +2078,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X21" s="15"/>
@@ -2085,7 +2091,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG21" s="15"/>
@@ -2098,8 +2104,8 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="15"/>
@@ -2112,7 +2118,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O22" s="15"/>
@@ -2125,7 +2131,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="17" t="s">
+      <c r="W22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X22" s="15"/>
@@ -2138,7 +2144,7 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="17" t="s">
+      <c r="AF22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG22" s="15"/>
@@ -2173,14 +2179,14 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -2202,7 +2208,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="15"/>
@@ -2215,7 +2221,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X24" s="15"/>
@@ -2228,7 +2234,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG24" s="15"/>
@@ -2255,7 +2261,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O25" s="15"/>
@@ -2268,7 +2274,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X25" s="15"/>
@@ -2281,7 +2287,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG25" s="15"/>
@@ -2308,7 +2314,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O26" s="15"/>
@@ -2321,7 +2327,7 @@
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="17" t="s">
+      <c r="W26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X26" s="15"/>
@@ -2334,7 +2340,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="17" t="s">
+      <c r="AF26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG26" s="15"/>
@@ -2348,7 +2354,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -2361,7 +2367,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -2374,7 +2380,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -2387,7 +2393,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="17" t="s">
+      <c r="AF27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -2422,14 +2428,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -2438,7 +2444,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="15"/>
@@ -2451,7 +2457,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -2464,7 +2470,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -2477,7 +2483,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -2491,7 +2497,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="15"/>
@@ -2504,7 +2510,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -2517,7 +2523,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="17" t="s">
+      <c r="W30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -2530,7 +2536,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="17" t="s">
+      <c r="AF30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -2544,7 +2550,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15"/>
@@ -2557,7 +2563,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -2570,7 +2576,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -2583,7 +2589,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="17" t="s">
+      <c r="AF31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -2597,7 +2603,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="15"/>
@@ -2610,7 +2616,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="15"/>
@@ -2623,7 +2629,7 @@
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="17" t="s">
+      <c r="W32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X32" s="15"/>
@@ -2636,7 +2642,7 @@
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
-      <c r="AF32" s="17" t="s">
+      <c r="AF32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG32" s="15"/>
@@ -2671,14 +2677,14 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
@@ -2687,7 +2693,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="15"/>
@@ -2700,7 +2706,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="15"/>
@@ -2713,7 +2719,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="17" t="s">
+      <c r="W34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X34" s="15"/>
@@ -2726,7 +2732,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
-      <c r="AF34" s="17" t="s">
+      <c r="AF34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG34" s="15"/>
@@ -2741,7 +2747,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="15"/>
@@ -2754,7 +2760,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O35" s="15"/>
@@ -2767,7 +2773,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="17" t="s">
+      <c r="W35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X35" s="15"/>
@@ -2780,7 +2786,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="17" t="s">
+      <c r="AF35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG35" s="15"/>
@@ -2795,7 +2801,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="15"/>
@@ -2808,7 +2814,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O36" s="15"/>
@@ -2821,7 +2827,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="17" t="s">
+      <c r="W36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X36" s="15"/>
@@ -2834,7 +2840,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="17" t="s">
+      <c r="AF36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG36" s="15"/>
@@ -2849,7 +2855,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="15"/>
@@ -2862,7 +2868,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O37" s="15"/>
@@ -2875,7 +2881,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="17" t="s">
+      <c r="W37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X37" s="15"/>
@@ -2888,7 +2894,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="17" t="s">
+      <c r="AF37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG37" s="15"/>
@@ -2924,14 +2930,14 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -2940,7 +2946,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="15"/>
@@ -2953,7 +2959,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="16" t="s">
         <v>62</v>
       </c>
       <c r="O39" s="15"/>
@@ -2966,7 +2972,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="17" t="s">
+      <c r="W39" s="16" t="s">
         <v>63</v>
       </c>
       <c r="X39" s="15"/>
@@ -2979,7 +2985,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="17" t="s">
+      <c r="AF39" s="16" t="s">
         <v>64</v>
       </c>
       <c r="AG39" s="15"/>
@@ -2993,7 +2999,7 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3004,8 +3010,8 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="16"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
@@ -3015,8 +3021,8 @@
       </c>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="17"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="16"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
@@ -3026,8 +3032,8 @@
       </c>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="17"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
@@ -3038,7 +3044,7 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3049,21 +3055,21 @@
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="22"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>129</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="16"/>
+      <c r="V41" s="22"/>
       <c r="W41" s="11"/>
       <c r="AB41" s="15" t="s">
         <v>134</v>
       </c>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
-      <c r="AE41" s="16"/>
+      <c r="AE41" s="22"/>
       <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
@@ -3072,7 +3078,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3083,21 +3089,21 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
+      <c r="M42" s="22"/>
       <c r="N42" s="11"/>
       <c r="S42" s="15" t="s">
         <v>130</v>
       </c>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="16"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="11"/>
       <c r="AB42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
-      <c r="AE42" s="16"/>
+      <c r="AE42" s="22"/>
       <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
@@ -3106,7 +3112,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3117,21 +3123,21 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
+      <c r="M43" s="22"/>
       <c r="N43" s="11"/>
       <c r="S43" s="15" t="s">
         <v>131</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="16"/>
+      <c r="V43" s="22"/>
       <c r="W43" s="11"/>
       <c r="AB43" s="15" t="s">
         <v>136</v>
       </c>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
-      <c r="AE43" s="16"/>
+      <c r="AE43" s="22"/>
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
@@ -3144,10 +3150,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -3158,8 +3164,8 @@
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="17"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="16"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -3169,8 +3175,8 @@
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="16"/>
-      <c r="AF44" s="17"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="16"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
@@ -3469,25 +3475,244 @@
     </row>
   </sheetData>
   <mergeCells count="286">
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="AF36:AJ36"/>
-    <mergeCell ref="AF37:AJ37"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="AB39:AE39"/>
@@ -3512,249 +3737,30 @@
     <mergeCell ref="W36:AA36"/>
     <mergeCell ref="W37:AA37"/>
     <mergeCell ref="S34:V34"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="AF37:AJ37"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AB27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3788,81 +3794,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3871,7 +3877,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -3881,7 +3887,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -3891,7 +3897,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -3901,7 +3907,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -3913,7 +3919,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3923,7 +3929,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -3933,7 +3939,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -3943,7 +3949,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -3955,7 +3961,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -3965,7 +3971,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -3975,7 +3981,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -3985,44 +3991,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -4031,7 +4037,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4041,7 +4047,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -4051,7 +4057,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -4061,7 +4067,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -4073,7 +4079,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4083,7 +4089,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -4093,7 +4099,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -4103,44 +4109,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -4149,7 +4155,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -4161,7 +4167,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -4173,7 +4179,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -4185,7 +4191,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -4199,7 +4205,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -4211,7 +4217,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -4223,7 +4229,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -4235,7 +4241,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -4243,38 +4249,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -4283,7 +4289,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -4295,7 +4301,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -4307,7 +4313,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -4319,7 +4325,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -4332,8 +4338,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -4344,8 +4350,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -4356,8 +4362,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17" t="s">
+      <c r="V14" s="22"/>
+      <c r="W14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -4368,8 +4374,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="17" t="s">
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -4382,8 +4388,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -4394,8 +4400,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -4406,8 +4412,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17" t="s">
+      <c r="V15" s="22"/>
+      <c r="W15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -4418,8 +4424,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -4432,8 +4438,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -4444,8 +4450,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -4456,8 +4462,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17" t="s">
+      <c r="V16" s="22"/>
+      <c r="W16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -4468,8 +4474,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="17" t="s">
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -4482,8 +4488,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -4494,8 +4500,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -4506,8 +4512,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17" t="s">
+      <c r="V17" s="22"/>
+      <c r="W17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -4518,8 +4524,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="17" t="s">
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -4527,44 +4533,44 @@
       <c r="AI17" s="15"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="15"/>
@@ -4573,7 +4579,7 @@
       <c r="J19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="O19" s="15"/>
@@ -4584,8 +4590,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="s">
+      <c r="V19" s="22"/>
+      <c r="W19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="X19" s="15"/>
@@ -4594,7 +4600,7 @@
       <c r="AB19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF19" s="17" t="s">
+      <c r="AF19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="AG19" s="15"/>
@@ -4605,7 +4611,7 @@
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="15"/>
@@ -4614,7 +4620,7 @@
       <c r="J20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="O20" s="15"/>
@@ -4625,8 +4631,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="22"/>
+      <c r="W20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="X20" s="15"/>
@@ -4635,7 +4641,7 @@
       <c r="AB20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF20" s="17" t="s">
+      <c r="AF20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="15"/>
@@ -4649,7 +4655,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="15"/>
@@ -4661,7 +4667,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O21" s="15"/>
@@ -4673,7 +4679,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X21" s="15"/>
@@ -4685,7 +4691,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG21" s="15"/>
@@ -4693,38 +4699,38 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -4732,8 +4738,8 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="15"/>
@@ -4744,8 +4750,8 @@
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="16" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="15"/>
@@ -4756,8 +4762,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17" t="s">
+      <c r="V23" s="22"/>
+      <c r="W23" s="16" t="s">
         <v>99</v>
       </c>
       <c r="X23" s="15"/>
@@ -4768,8 +4774,8 @@
       </c>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="17" t="s">
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="16" t="s">
         <v>101</v>
       </c>
       <c r="AG23" s="15"/>
@@ -4783,7 +4789,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="15"/>
@@ -4795,7 +4801,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="15"/>
@@ -4807,7 +4813,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X24" s="15"/>
@@ -4819,7 +4825,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG24" s="15"/>
@@ -4832,8 +4838,8 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="15"/>
@@ -4844,8 +4850,8 @@
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17" t="s">
+      <c r="M25" s="22"/>
+      <c r="N25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O25" s="15"/>
@@ -4856,8 +4862,8 @@
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="17" t="s">
+      <c r="V25" s="22"/>
+      <c r="W25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="X25" s="15"/>
@@ -4868,8 +4874,8 @@
       </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="AG25" s="15"/>
@@ -4877,38 +4883,38 @@
       <c r="AI25" s="15"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -4916,8 +4922,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="15"/>
@@ -4928,8 +4934,8 @@
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17" t="s">
+      <c r="M27" s="22"/>
+      <c r="N27" s="16" t="s">
         <v>93</v>
       </c>
       <c r="O27" s="15"/>
@@ -4940,8 +4946,8 @@
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="17" t="s">
+      <c r="V27" s="22"/>
+      <c r="W27" s="16" t="s">
         <v>85</v>
       </c>
       <c r="X27" s="15"/>
@@ -4952,8 +4958,8 @@
       </c>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="17" t="s">
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="16" t="s">
         <v>85</v>
       </c>
       <c r="AG27" s="15"/>
@@ -4967,7 +4973,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="15"/>
@@ -4979,7 +4985,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="15"/>
@@ -4990,8 +4996,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="17" t="s">
+      <c r="V28" s="22"/>
+      <c r="W28" s="16" t="s">
         <v>86</v>
       </c>
       <c r="X28" s="15"/>
@@ -5002,8 +5008,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="17" t="s">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="16" t="s">
         <v>86</v>
       </c>
       <c r="AG28" s="15"/>
@@ -5016,8 +5022,8 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="15"/>
@@ -5028,8 +5034,8 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17" t="s">
+      <c r="M29" s="22"/>
+      <c r="N29" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O29" s="15"/>
@@ -5040,8 +5046,8 @@
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="17" t="s">
+      <c r="V29" s="22"/>
+      <c r="W29" s="16" t="s">
         <v>104</v>
       </c>
       <c r="X29" s="15"/>
@@ -5052,8 +5058,8 @@
       </c>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="16" t="s">
         <v>103</v>
       </c>
       <c r="AG29" s="15"/>
@@ -5061,34 +5067,34 @@
       <c r="AI29" s="15"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="21"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="25"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="21"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="25"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
@@ -5100,8 +5106,8 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="15"/>
@@ -5112,8 +5118,8 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17" t="s">
+      <c r="M31" s="22"/>
+      <c r="N31" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O31" s="15"/>
@@ -5134,8 +5140,8 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
@@ -5146,25 +5152,25 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17" t="s">
+      <c r="M32" s="22"/>
+      <c r="N32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
       <c r="W32" s="13"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -5176,8 +5182,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="15"/>
@@ -5188,8 +5194,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17" t="s">
+      <c r="M33" s="22"/>
+      <c r="N33" s="16" t="s">
         <v>109</v>
       </c>
       <c r="O33" s="15"/>
@@ -5200,33 +5206,33 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
+      <c r="V33" s="22"/>
       <c r="W33" s="11"/>
       <c r="AB33" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="16"/>
+      <c r="AE33" s="22"/>
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -5250,8 +5256,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="15"/>
@@ -5262,8 +5268,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="22"/>
+      <c r="N35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O35" s="15"/>
@@ -5296,8 +5302,8 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="15"/>
@@ -5308,8 +5314,8 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17" t="s">
+      <c r="M36" s="22"/>
+      <c r="N36" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O36" s="15"/>
@@ -5336,8 +5342,8 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="15"/>
@@ -5348,8 +5354,8 @@
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17" t="s">
+      <c r="M37" s="22"/>
+      <c r="N37" s="16" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="15"/>
@@ -5377,18 +5383,18 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="21"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -5439,18 +5445,18 @@
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="13"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -5476,14 +5482,14 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="11"/>
       <c r="J41" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="22"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>115</v>
@@ -5684,6 +5690,263 @@
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="AB1:AI1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
@@ -5708,263 +5971,6 @@
     <mergeCell ref="AB24:AE24"/>
     <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5973,10 +5979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF66C8F-F7E7-4E47-AB56-867EE702083D}">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5999,64 +6005,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -6087,10 +6093,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -6098,7 +6104,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -6109,7 +6115,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -6120,7 +6126,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -6132,10 +6138,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -6143,7 +6149,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -6154,7 +6160,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -6165,7 +6171,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -6177,7 +6183,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -6188,7 +6194,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -6199,7 +6205,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -6210,7 +6216,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -6243,14 +6249,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -6259,7 +6265,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6270,7 +6276,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -6281,7 +6287,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -6292,7 +6298,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -6304,7 +6310,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6315,7 +6321,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -6326,7 +6332,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -6337,7 +6343,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -6370,14 +6376,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -6386,7 +6392,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -6399,7 +6405,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -6412,7 +6418,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -6425,7 +6431,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -6439,7 +6445,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -6452,7 +6458,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -6465,7 +6471,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -6478,7 +6484,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -6513,14 +6519,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -6528,8 +6534,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -6542,7 +6548,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -6555,7 +6561,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -6568,7 +6574,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -6615,28 +6621,28 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="22"/>
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -6645,28 +6651,28 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
         <v>166</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
         <v>167</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="22"/>
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -6709,8 +6715,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -6721,8 +6727,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -6733,8 +6739,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17" t="s">
+      <c r="V18" s="22"/>
+      <c r="W18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -6745,8 +6751,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="17" t="s">
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -6759,8 +6765,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -6771,8 +6777,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -6783,8 +6789,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="s">
+      <c r="V19" s="22"/>
+      <c r="W19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -6795,8 +6801,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="17" t="s">
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -6809,8 +6815,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -6821,8 +6827,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -6833,8 +6839,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="22"/>
+      <c r="W20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -6845,8 +6851,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="17" t="s">
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -6859,8 +6865,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -6871,8 +6877,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -6883,8 +6889,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17" t="s">
+      <c r="V21" s="22"/>
+      <c r="W21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -6895,8 +6901,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -6931,14 +6937,14 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -6947,7 +6953,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="15"/>
@@ -6960,7 +6966,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="15"/>
@@ -6973,7 +6979,7 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="17" t="s">
+      <c r="W23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X23" s="15"/>
@@ -6986,7 +6992,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="17" t="s">
+      <c r="AF23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG23" s="15"/>
@@ -6999,8 +7005,8 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15"/>
@@ -7013,7 +7019,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O24" s="15"/>
@@ -7026,7 +7032,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X24" s="15"/>
@@ -7039,7 +7045,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG24" s="15"/>
@@ -7053,7 +7059,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15"/>
@@ -7066,7 +7072,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O25" s="15"/>
@@ -7079,7 +7085,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X25" s="15"/>
@@ -7092,7 +7098,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG25" s="15"/>
@@ -7105,14 +7111,14 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="11"/>
       <c r="J26" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="W26" s="11"/>
       <c r="AF26" s="11"/>
@@ -7123,8 +7129,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -7137,7 +7143,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -7150,7 +7156,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -7163,7 +7169,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="17" t="s">
+      <c r="AF27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -7198,14 +7204,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -7227,7 +7233,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -7240,7 +7246,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -7253,7 +7259,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -7280,7 +7286,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -7293,7 +7299,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="17" t="s">
+      <c r="W30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -7306,7 +7312,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="17" t="s">
+      <c r="AF30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -7333,7 +7339,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -7346,7 +7352,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -7359,7 +7365,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="17" t="s">
+      <c r="AF31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -7372,7 +7378,7 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7383,21 +7389,21 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="11"/>
       <c r="S32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="16"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="11"/>
       <c r="AB32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
-      <c r="AE32" s="16"/>
+      <c r="AE32" s="22"/>
       <c r="AF32" s="11"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
@@ -7407,7 +7413,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="15"/>
@@ -7420,7 +7426,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="15"/>
@@ -7433,7 +7439,7 @@
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="17" t="s">
+      <c r="W33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X33" s="15"/>
@@ -7446,7 +7452,7 @@
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
-      <c r="AF33" s="17" t="s">
+      <c r="AF33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="15"/>
@@ -7481,14 +7487,14 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
@@ -7497,7 +7503,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="15"/>
@@ -7510,7 +7516,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="15"/>
@@ -7523,7 +7529,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="17" t="s">
+      <c r="W35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X35" s="15"/>
@@ -7536,7 +7542,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="17" t="s">
+      <c r="AF35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG35" s="15"/>
@@ -7550,7 +7556,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="15"/>
@@ -7563,7 +7569,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O36" s="15"/>
@@ -7576,7 +7582,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="17" t="s">
+      <c r="W36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X36" s="15"/>
@@ -7589,7 +7595,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="17" t="s">
+      <c r="AF36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG36" s="15"/>
@@ -7603,7 +7609,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="15"/>
@@ -7616,7 +7622,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O37" s="15"/>
@@ -7629,7 +7635,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="17" t="s">
+      <c r="W37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X37" s="15"/>
@@ -7642,7 +7648,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="17" t="s">
+      <c r="AF37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG37" s="15"/>
@@ -7655,28 +7661,28 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="11"/>
       <c r="J38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="11"/>
       <c r="S38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="16"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="11"/>
       <c r="AB38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
+      <c r="AE38" s="22"/>
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
@@ -7686,7 +7692,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="15"/>
@@ -7699,7 +7705,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O39" s="15"/>
@@ -7712,7 +7718,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="17" t="s">
+      <c r="W39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X39" s="15"/>
@@ -7725,7 +7731,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="17" t="s">
+      <c r="AF39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG39" s="15"/>
@@ -7760,14 +7766,14 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="24"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -7776,7 +7782,7 @@
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="15"/>
@@ -7789,7 +7795,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="17" t="s">
+      <c r="N41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O41" s="15"/>
@@ -7802,7 +7808,7 @@
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="17" t="s">
+      <c r="W41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X41" s="15"/>
@@ -7815,7 +7821,7 @@
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="15"/>
-      <c r="AF41" s="17" t="s">
+      <c r="AF41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG41" s="15"/>
@@ -7830,7 +7836,7 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="15"/>
@@ -7843,7 +7849,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O42" s="15"/>
@@ -7856,7 +7862,7 @@
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="17" t="s">
+      <c r="W42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X42" s="15"/>
@@ -7869,7 +7875,7 @@
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
-      <c r="AF42" s="17" t="s">
+      <c r="AF42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG42" s="15"/>
@@ -7884,7 +7890,7 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15"/>
@@ -7897,7 +7903,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O43" s="15"/>
@@ -7910,7 +7916,7 @@
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="17" t="s">
+      <c r="W43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X43" s="15"/>
@@ -7923,7 +7929,7 @@
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
       <c r="AE43" s="15"/>
-      <c r="AF43" s="17" t="s">
+      <c r="AF43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG43" s="15"/>
@@ -7937,28 +7943,28 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="11"/>
       <c r="J44" s="15" t="s">
         <v>170</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
+      <c r="M44" s="22"/>
       <c r="N44" s="11"/>
       <c r="S44" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="16"/>
+      <c r="V44" s="22"/>
       <c r="W44" s="11"/>
       <c r="AB44" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="16"/>
+      <c r="AE44" s="22"/>
       <c r="AF44" s="11"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
@@ -7968,7 +7974,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="15"/>
@@ -7981,7 +7987,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="17" t="s">
+      <c r="N45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="15"/>
@@ -7994,7 +8000,7 @@
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="17" t="s">
+      <c r="W45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X45" s="15"/>
@@ -8007,7 +8013,7 @@
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
-      <c r="AF45" s="17" t="s">
+      <c r="AF45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG45" s="15"/>
@@ -8286,144 +8292,199 @@
       <c r="AI53" s="2"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="268">
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="AB54:AE54"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AB45:AE45"/>
-    <mergeCell ref="AF45:AJ45"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AF42:AJ42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AF43:AJ43"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:AA42"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AF41:AJ41"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AF28:AI28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="J29:M29"/>
@@ -8448,133 +8509,126 @@
     <mergeCell ref="N25:R25"/>
     <mergeCell ref="S25:V25"/>
     <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AF41:AJ41"/>
+    <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AF42:AJ42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="AB54:AE54"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
     <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="S32:V32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8584,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58D888-97B0-4BB4-B0DF-40F9EA743ADA}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31:AE31"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8608,81 +8662,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -8691,7 +8745,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8701,7 +8755,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -8711,7 +8765,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -8721,7 +8775,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -8733,7 +8787,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -8743,7 +8797,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -8753,7 +8807,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -8763,7 +8817,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -8775,7 +8829,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -8785,7 +8839,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -8795,7 +8849,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -8805,44 +8859,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -8851,7 +8905,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -8861,7 +8915,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -8871,7 +8925,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -8881,7 +8935,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -8893,7 +8947,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -8903,7 +8957,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -8913,7 +8967,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -8923,44 +8977,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -8969,7 +9023,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -8981,7 +9035,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -8993,7 +9047,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -9005,7 +9059,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -9019,7 +9073,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -9031,7 +9085,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -9043,7 +9097,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -9055,7 +9109,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -9063,38 +9117,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -9103,7 +9157,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -9115,7 +9169,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -9127,7 +9181,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -9139,7 +9193,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -9186,28 +9240,28 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="22"/>
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -9216,28 +9270,28 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
         <v>175</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
         <v>176</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="22"/>
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9280,8 +9334,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -9292,8 +9346,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -9304,8 +9358,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17" t="s">
+      <c r="V18" s="22"/>
+      <c r="W18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -9316,8 +9370,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="17" t="s">
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -9330,8 +9384,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -9342,8 +9396,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -9354,8 +9408,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="s">
+      <c r="V19" s="22"/>
+      <c r="W19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -9366,8 +9420,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="17" t="s">
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -9380,8 +9434,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -9392,8 +9446,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -9404,8 +9458,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="22"/>
+      <c r="W20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -9416,8 +9470,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="17" t="s">
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -9430,8 +9484,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -9442,8 +9496,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -9454,8 +9508,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17" t="s">
+      <c r="V21" s="22"/>
+      <c r="W21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -9466,8 +9520,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -9475,44 +9529,44 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="15"/>
@@ -9521,7 +9575,7 @@
       <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="O23" s="15"/>
@@ -9532,8 +9586,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17" t="s">
+      <c r="V23" s="22"/>
+      <c r="W23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="X23" s="15"/>
@@ -9542,7 +9596,7 @@
       <c r="AB23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" s="17" t="s">
+      <c r="AF23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="AG23" s="15"/>
@@ -9553,7 +9607,7 @@
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="15"/>
@@ -9562,7 +9616,7 @@
       <c r="J24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="O24" s="15"/>
@@ -9573,8 +9627,8 @@
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="17" t="s">
+      <c r="V24" s="22"/>
+      <c r="W24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="X24" s="15"/>
@@ -9583,7 +9637,7 @@
       <c r="AB24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="AG24" s="15"/>
@@ -9597,7 +9651,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="15"/>
@@ -9609,7 +9663,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O25" s="15"/>
@@ -9621,7 +9675,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X25" s="15"/>
@@ -9633,7 +9687,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG25" s="15"/>
@@ -9646,7 +9700,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -9656,56 +9710,56 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="11"/>
       <c r="S26" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="16"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="11"/>
       <c r="AB26" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
+      <c r="AE26" s="22"/>
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -9713,8 +9767,8 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="15"/>
@@ -9725,8 +9779,8 @@
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17" t="s">
+      <c r="M28" s="22"/>
+      <c r="N28" s="16" t="s">
         <v>92</v>
       </c>
       <c r="O28" s="15"/>
@@ -9737,8 +9791,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="17" t="s">
+      <c r="V28" s="22"/>
+      <c r="W28" s="16" t="s">
         <v>99</v>
       </c>
       <c r="X28" s="15"/>
@@ -9749,8 +9803,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="17" t="s">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="AG28" s="15"/>
@@ -9764,7 +9818,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="15"/>
@@ -9776,7 +9830,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="15"/>
@@ -9788,7 +9842,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X29" s="15"/>
@@ -9800,7 +9854,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG29" s="15"/>
@@ -9813,8 +9867,8 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="15"/>
@@ -9825,8 +9879,8 @@
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17" t="s">
+      <c r="M30" s="22"/>
+      <c r="N30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O30" s="15"/>
@@ -9837,8 +9891,8 @@
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="17" t="s">
+      <c r="V30" s="22"/>
+      <c r="W30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="X30" s="15"/>
@@ -9849,8 +9903,8 @@
       </c>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="17" t="s">
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="AG30" s="15"/>
@@ -9863,7 +9917,7 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -9873,7 +9927,7 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="5"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -9883,7 +9937,7 @@
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="16"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="5"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -9893,45 +9947,45 @@
       </c>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
-      <c r="AE31" s="16"/>
+      <c r="AE31" s="22"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -9939,8 +9993,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F33" s="15"/>
@@ -9951,8 +10005,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17" t="s">
+      <c r="M33" s="22"/>
+      <c r="N33" s="16" t="s">
         <v>93</v>
       </c>
       <c r="O33" s="15"/>
@@ -9963,8 +10017,8 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="17" t="s">
+      <c r="V33" s="22"/>
+      <c r="W33" s="16" t="s">
         <v>85</v>
       </c>
       <c r="X33" s="15"/>
@@ -9975,8 +10029,8 @@
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="17" t="s">
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="16" t="s">
         <v>85</v>
       </c>
       <c r="AG33" s="15"/>
@@ -9990,7 +10044,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="15"/>
@@ -10002,7 +10056,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O34" s="15"/>
@@ -10013,8 +10067,8 @@
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="17" t="s">
+      <c r="V34" s="22"/>
+      <c r="W34" s="16" t="s">
         <v>86</v>
       </c>
       <c r="X34" s="15"/>
@@ -10025,8 +10079,8 @@
       </c>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="17" t="s">
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="16" t="s">
         <v>86</v>
       </c>
       <c r="AG34" s="15"/>
@@ -10039,8 +10093,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="15"/>
@@ -10051,8 +10105,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="22"/>
+      <c r="N35" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O35" s="15"/>
@@ -10063,8 +10117,8 @@
       </c>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="17" t="s">
+      <c r="V35" s="22"/>
+      <c r="W35" s="16" t="s">
         <v>104</v>
       </c>
       <c r="X35" s="15"/>
@@ -10075,8 +10129,8 @@
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="17" t="s">
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="16" t="s">
         <v>103</v>
       </c>
       <c r="AG35" s="15"/>
@@ -10089,7 +10143,7 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -10099,14 +10153,14 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="11"/>
       <c r="S36" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="16"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="5"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -10116,41 +10170,41 @@
       </c>
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
-      <c r="AE36" s="16"/>
+      <c r="AE36" s="22"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="21"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="25"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="21"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="25"/>
       <c r="AF37" s="12"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
@@ -10162,8 +10216,8 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="15"/>
@@ -10174,8 +10228,8 @@
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17" t="s">
+      <c r="M38" s="22"/>
+      <c r="N38" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="15"/>
@@ -10196,8 +10250,8 @@
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
@@ -10208,25 +10262,25 @@
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17" t="s">
+      <c r="M39" s="22"/>
+      <c r="N39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
       <c r="W39" s="13"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
@@ -10238,8 +10292,8 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="15"/>
@@ -10250,8 +10304,8 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17" t="s">
+      <c r="M40" s="22"/>
+      <c r="N40" s="16" t="s">
         <v>109</v>
       </c>
       <c r="O40" s="15"/>
@@ -10262,33 +10316,33 @@
       </c>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="16"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="11"/>
       <c r="AB40" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="16"/>
+      <c r="AE40" s="22"/>
       <c r="AF40" s="11"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
@@ -10312,8 +10366,8 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="15"/>
@@ -10324,8 +10378,8 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17" t="s">
+      <c r="M42" s="22"/>
+      <c r="N42" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O42" s="15"/>
@@ -10358,8 +10412,8 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
@@ -10370,8 +10424,8 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17" t="s">
+      <c r="M43" s="22"/>
+      <c r="N43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O43" s="15"/>
@@ -10398,8 +10452,8 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="15"/>
@@ -10410,8 +10464,8 @@
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17" t="s">
+      <c r="M44" s="22"/>
+      <c r="N44" s="16" t="s">
         <v>108</v>
       </c>
       <c r="O44" s="15"/>
@@ -10439,18 +10493,18 @@
       <c r="AI44" s="2"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="21"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
@@ -10501,18 +10555,18 @@
       <c r="AI46" s="2"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="13"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
       <c r="N47" s="13"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
@@ -10538,14 +10592,14 @@
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="11"/>
       <c r="J48" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="16"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="11"/>
       <c r="S48" s="15" t="s">
         <v>115</v>
@@ -10568,7 +10622,7 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -10585,10 +10639,24 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
-      <c r="W49" s="11"/>
-      <c r="AF49" s="11"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
@@ -10609,8 +10677,24 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>158</v>
       </c>
@@ -10626,7 +10710,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>159</v>
       </c>
@@ -10648,7 +10732,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -10664,7 +10748,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>161</v>
       </c>
@@ -10686,7 +10770,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -10702,7 +10786,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>115</v>
       </c>
@@ -10724,21 +10808,43 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="11"/>
-      <c r="N57" s="11"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -10746,83 +10852,205 @@
     </row>
   </sheetData>
   <mergeCells count="301">
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="S37:V37"/>
     <mergeCell ref="AB37:AE37"/>
     <mergeCell ref="AB34:AE34"/>
@@ -10841,212 +11069,90 @@
     <mergeCell ref="N34:Q34"/>
     <mergeCell ref="S34:V34"/>
     <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S36:V36"/>
     <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
     <mergeCell ref="W25:Z25"/>
     <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="S25:V25"/>
     <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
     <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC223DA0-174E-4B22-AF1C-86B1B7F8B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8F78A-43BE-417B-8A4E-C0BEDEC59455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="177">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -675,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -722,7 +722,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,27 +752,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -766,9 +760,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00273E"/>
       <color rgb="FF001F32"/>
       <color rgb="FFF5F5F5"/>
-      <color rgb="FF00273E"/>
       <color rgb="FF1C50A6"/>
     </mruColors>
   </colors>
@@ -1126,64 +1120,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1214,10 +1208,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -1225,7 +1219,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -1236,7 +1230,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -1247,7 +1241,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -1259,10 +1253,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -1270,7 +1264,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1281,7 +1275,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -1292,7 +1286,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -1304,7 +1298,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1315,7 +1309,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1326,7 +1320,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -1337,7 +1331,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -1370,14 +1364,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1386,7 +1380,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1397,7 +1391,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1408,7 +1402,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -1419,7 +1413,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -1431,7 +1425,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1442,7 +1436,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1453,7 +1447,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -1464,7 +1458,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -1497,14 +1491,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1513,7 +1507,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -1526,7 +1520,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -1539,7 +1533,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -1552,7 +1546,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -1566,7 +1560,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -1579,7 +1573,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -1592,7 +1586,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -1605,7 +1599,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -1640,14 +1634,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1655,8 +1649,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -1669,7 +1663,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -1682,7 +1676,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -1695,7 +1689,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -1708,8 +1702,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -1720,8 +1714,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -1732,8 +1726,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="16"/>
+      <c r="W14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -1744,8 +1738,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="16" t="s">
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -1758,8 +1752,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -1770,8 +1764,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="16" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -1782,8 +1776,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="16" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -1794,8 +1788,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="16" t="s">
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -1808,8 +1802,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -1820,8 +1814,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -1832,8 +1826,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="16" t="s">
+      <c r="V16" s="16"/>
+      <c r="W16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -1844,8 +1838,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="16" t="s">
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -1858,8 +1852,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -1870,8 +1864,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="16" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -1882,8 +1876,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="16"/>
+      <c r="W17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -1894,8 +1888,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="16" t="s">
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -1930,14 +1924,14 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1946,7 +1940,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="15"/>
@@ -1959,7 +1953,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O19" s="15"/>
@@ -1972,7 +1966,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X19" s="15"/>
@@ -1985,7 +1979,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
-      <c r="AF19" s="16" t="s">
+      <c r="AF19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG19" s="15"/>
@@ -1998,8 +1992,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="15"/>
@@ -2012,7 +2006,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="15"/>
@@ -2025,7 +2019,7 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X20" s="15"/>
@@ -2038,7 +2032,7 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="16" t="s">
+      <c r="AF20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG20" s="15"/>
@@ -2052,7 +2046,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15"/>
@@ -2065,7 +2059,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="15"/>
@@ -2078,7 +2072,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X21" s="15"/>
@@ -2091,7 +2085,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AF21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG21" s="15"/>
@@ -2104,8 +2098,8 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="15"/>
@@ -2118,7 +2112,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O22" s="15"/>
@@ -2131,7 +2125,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="16" t="s">
+      <c r="W22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X22" s="15"/>
@@ -2144,7 +2138,7 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="16" t="s">
+      <c r="AF22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG22" s="15"/>
@@ -2179,14 +2173,14 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -2208,7 +2202,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="15"/>
@@ -2221,7 +2215,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X24" s="15"/>
@@ -2234,7 +2228,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG24" s="15"/>
@@ -2261,7 +2255,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O25" s="15"/>
@@ -2274,7 +2268,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X25" s="15"/>
@@ -2287,7 +2281,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG25" s="15"/>
@@ -2314,7 +2308,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O26" s="15"/>
@@ -2327,7 +2321,7 @@
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X26" s="15"/>
@@ -2340,7 +2334,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="16" t="s">
+      <c r="AF26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG26" s="15"/>
@@ -2354,7 +2348,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -2367,7 +2361,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -2380,7 +2374,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="16" t="s">
+      <c r="W27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -2393,7 +2387,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="16" t="s">
+      <c r="AF27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -2428,14 +2422,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -2444,7 +2438,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="15"/>
@@ -2457,7 +2451,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -2470,7 +2464,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -2483,7 +2477,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AF29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -2497,7 +2491,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="15"/>
@@ -2510,7 +2504,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -2523,7 +2517,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="16" t="s">
+      <c r="W30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -2536,7 +2530,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="16" t="s">
+      <c r="AF30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -2550,7 +2544,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15"/>
@@ -2563,7 +2557,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -2576,7 +2570,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="16" t="s">
+      <c r="W31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -2589,7 +2583,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="16" t="s">
+      <c r="AF31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -2603,7 +2597,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="15"/>
@@ -2616,7 +2610,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="15"/>
@@ -2629,7 +2623,7 @@
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="16" t="s">
+      <c r="W32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X32" s="15"/>
@@ -2642,7 +2636,7 @@
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
-      <c r="AF32" s="16" t="s">
+      <c r="AF32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG32" s="15"/>
@@ -2677,14 +2671,14 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
@@ -2693,7 +2687,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="15"/>
@@ -2706,7 +2700,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="15"/>
@@ -2719,7 +2713,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="16" t="s">
+      <c r="W34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X34" s="15"/>
@@ -2732,7 +2726,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
-      <c r="AF34" s="16" t="s">
+      <c r="AF34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG34" s="15"/>
@@ -2747,7 +2741,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="15"/>
@@ -2760,7 +2754,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O35" s="15"/>
@@ -2773,7 +2767,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="16" t="s">
+      <c r="W35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X35" s="15"/>
@@ -2786,7 +2780,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="16" t="s">
+      <c r="AF35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG35" s="15"/>
@@ -2801,7 +2795,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="15"/>
@@ -2814,7 +2808,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O36" s="15"/>
@@ -2827,7 +2821,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="16" t="s">
+      <c r="W36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X36" s="15"/>
@@ -2840,7 +2834,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="16" t="s">
+      <c r="AF36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG36" s="15"/>
@@ -2855,7 +2849,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="15"/>
@@ -2868,7 +2862,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O37" s="15"/>
@@ -2881,7 +2875,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="16" t="s">
+      <c r="W37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X37" s="15"/>
@@ -2894,7 +2888,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="16" t="s">
+      <c r="AF37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG37" s="15"/>
@@ -2930,14 +2924,14 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -2946,7 +2940,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="15"/>
@@ -2959,7 +2953,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="17" t="s">
         <v>62</v>
       </c>
       <c r="O39" s="15"/>
@@ -2972,7 +2966,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="16" t="s">
+      <c r="W39" s="17" t="s">
         <v>63</v>
       </c>
       <c r="X39" s="15"/>
@@ -2985,7 +2979,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="16" t="s">
+      <c r="AF39" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AG39" s="15"/>
@@ -2999,7 +2993,7 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="22"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3010,8 +3004,8 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
@@ -3021,8 +3015,8 @@
       </c>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="17"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
@@ -3032,8 +3026,8 @@
       </c>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="17"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
@@ -3044,7 +3038,7 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3055,21 +3049,21 @@
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="22"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>129</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="22"/>
+      <c r="V41" s="16"/>
       <c r="W41" s="11"/>
       <c r="AB41" s="15" t="s">
         <v>134</v>
       </c>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
-      <c r="AE41" s="22"/>
+      <c r="AE41" s="16"/>
       <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
@@ -3078,7 +3072,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3089,21 +3083,21 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="22"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="11"/>
       <c r="S42" s="15" t="s">
         <v>130</v>
       </c>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="22"/>
+      <c r="V42" s="16"/>
       <c r="W42" s="11"/>
       <c r="AB42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
-      <c r="AE42" s="22"/>
+      <c r="AE42" s="16"/>
       <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
@@ -3112,7 +3106,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3123,21 +3117,21 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="22"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="11"/>
       <c r="S43" s="15" t="s">
         <v>131</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="22"/>
+      <c r="V43" s="16"/>
       <c r="W43" s="11"/>
       <c r="AB43" s="15" t="s">
         <v>136</v>
       </c>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
-      <c r="AE43" s="22"/>
+      <c r="AE43" s="16"/>
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
@@ -3150,10 +3144,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -3164,8 +3158,8 @@
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="17"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -3175,8 +3169,8 @@
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="17"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
@@ -3475,6 +3469,268 @@
     </row>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="AF37:AJ37"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="W44:AA44"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
     <mergeCell ref="S53:V53"/>
     <mergeCell ref="AB53:AE53"/>
     <mergeCell ref="S52:V52"/>
@@ -3499,268 +3755,6 @@
     <mergeCell ref="N40:R40"/>
     <mergeCell ref="N30:R30"/>
     <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="W44:AA44"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="AF36:AJ36"/>
-    <mergeCell ref="AF37:AJ37"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3794,81 +3788,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3877,7 +3871,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -3887,7 +3881,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -3897,7 +3891,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -3907,7 +3901,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -3919,7 +3913,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3929,7 +3923,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -3939,7 +3933,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -3949,7 +3943,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -3961,7 +3955,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -3971,7 +3965,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -3981,7 +3975,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -3991,44 +3985,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -4037,7 +4031,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4047,7 +4041,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -4057,7 +4051,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -4067,7 +4061,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -4079,7 +4073,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4089,7 +4083,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -4099,7 +4093,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -4109,44 +4103,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -4155,7 +4149,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -4167,7 +4161,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -4179,7 +4173,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -4191,7 +4185,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -4205,7 +4199,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -4217,7 +4211,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -4229,7 +4223,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -4241,7 +4235,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -4249,38 +4243,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -4289,7 +4283,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -4301,7 +4295,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -4313,7 +4307,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -4325,7 +4319,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -4338,8 +4332,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -4350,8 +4344,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -4362,8 +4356,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="16"/>
+      <c r="W14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -4374,8 +4368,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="16" t="s">
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -4388,8 +4382,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -4400,8 +4394,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="16" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -4412,8 +4406,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="16" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -4424,8 +4418,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="16" t="s">
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -4438,8 +4432,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -4450,8 +4444,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -4462,8 +4456,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="16" t="s">
+      <c r="V16" s="16"/>
+      <c r="W16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -4474,8 +4468,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="16" t="s">
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -4488,8 +4482,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -4500,8 +4494,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="16" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -4512,8 +4506,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="16"/>
+      <c r="W17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -4524,8 +4518,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="16" t="s">
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -4533,44 +4527,44 @@
       <c r="AI17" s="15"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="15"/>
@@ -4579,7 +4573,7 @@
       <c r="J19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O19" s="15"/>
@@ -4590,8 +4584,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="16"/>
+      <c r="W19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="X19" s="15"/>
@@ -4600,7 +4594,7 @@
       <c r="AB19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF19" s="16" t="s">
+      <c r="AF19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AG19" s="15"/>
@@ -4611,7 +4605,7 @@
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="15"/>
@@ -4620,7 +4614,7 @@
       <c r="J20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="O20" s="15"/>
@@ -4631,8 +4625,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="X20" s="15"/>
@@ -4641,7 +4635,7 @@
       <c r="AB20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF20" s="16" t="s">
+      <c r="AF20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="15"/>
@@ -4655,7 +4649,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="15"/>
@@ -4667,7 +4661,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O21" s="15"/>
@@ -4679,7 +4673,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X21" s="15"/>
@@ -4691,7 +4685,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AF21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG21" s="15"/>
@@ -4699,38 +4693,38 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -4738,8 +4732,8 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="15"/>
@@ -4750,8 +4744,8 @@
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="16" t="s">
+      <c r="M23" s="16"/>
+      <c r="N23" s="17" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="15"/>
@@ -4762,8 +4756,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="16" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="17" t="s">
         <v>99</v>
       </c>
       <c r="X23" s="15"/>
@@ -4774,8 +4768,8 @@
       </c>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="16" t="s">
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17" t="s">
         <v>101</v>
       </c>
       <c r="AG23" s="15"/>
@@ -4789,7 +4783,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="15"/>
@@ -4801,7 +4795,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="15"/>
@@ -4813,7 +4807,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X24" s="15"/>
@@ -4825,7 +4819,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG24" s="15"/>
@@ -4838,8 +4832,8 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="15"/>
@@ -4850,8 +4844,8 @@
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="16" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O25" s="15"/>
@@ -4862,8 +4856,8 @@
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="16" t="s">
+      <c r="V25" s="16"/>
+      <c r="W25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="X25" s="15"/>
@@ -4874,8 +4868,8 @@
       </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AG25" s="15"/>
@@ -4883,38 +4877,38 @@
       <c r="AI25" s="15"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -4922,8 +4916,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="15"/>
@@ -4934,8 +4928,8 @@
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O27" s="15"/>
@@ -4946,8 +4940,8 @@
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="16" t="s">
+      <c r="V27" s="16"/>
+      <c r="W27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="X27" s="15"/>
@@ -4958,8 +4952,8 @@
       </c>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="16" t="s">
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="AG27" s="15"/>
@@ -4973,7 +4967,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="15"/>
@@ -4985,7 +4979,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="15"/>
@@ -4996,8 +4990,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="16" t="s">
+      <c r="V28" s="16"/>
+      <c r="W28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="X28" s="15"/>
@@ -5008,8 +5002,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="16" t="s">
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="AG28" s="15"/>
@@ -5022,8 +5016,8 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="15"/>
@@ -5034,8 +5028,8 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O29" s="15"/>
@@ -5046,8 +5040,8 @@
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="16" t="s">
+      <c r="V29" s="16"/>
+      <c r="W29" s="17" t="s">
         <v>104</v>
       </c>
       <c r="X29" s="15"/>
@@ -5058,8 +5052,8 @@
       </c>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="17" t="s">
         <v>103</v>
       </c>
       <c r="AG29" s="15"/>
@@ -5067,34 +5061,34 @@
       <c r="AI29" s="15"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="21"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="25"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="21"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
@@ -5106,8 +5100,8 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="15"/>
@@ -5118,8 +5112,8 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="16" t="s">
+      <c r="M31" s="16"/>
+      <c r="N31" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O31" s="15"/>
@@ -5140,8 +5134,8 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
@@ -5152,25 +5146,25 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="16"/>
+      <c r="N32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
       <c r="W32" s="13"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -5182,8 +5176,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="15"/>
@@ -5194,8 +5188,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="16" t="s">
+      <c r="M33" s="16"/>
+      <c r="N33" s="17" t="s">
         <v>109</v>
       </c>
       <c r="O33" s="15"/>
@@ -5206,33 +5200,33 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="22"/>
+      <c r="V33" s="16"/>
       <c r="W33" s="11"/>
       <c r="AB33" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="22"/>
+      <c r="AE33" s="16"/>
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -5256,8 +5250,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="15"/>
@@ -5268,8 +5262,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O35" s="15"/>
@@ -5302,8 +5296,8 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="15"/>
@@ -5314,8 +5308,8 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="16" t="s">
+      <c r="M36" s="16"/>
+      <c r="N36" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O36" s="15"/>
@@ -5342,8 +5336,8 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="15"/>
@@ -5354,8 +5348,8 @@
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="16" t="s">
+      <c r="M37" s="16"/>
+      <c r="N37" s="17" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="15"/>
@@ -5383,18 +5377,18 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -5445,18 +5439,18 @@
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="13"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -5482,14 +5476,14 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="11"/>
       <c r="J41" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="22"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>115</v>
@@ -5690,6 +5684,263 @@
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="J49:M49"/>
     <mergeCell ref="S39:V39"/>
@@ -5714,263 +5965,6 @@
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="J24:M24"/>
     <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB22:AE22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5981,7 +5975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF66C8F-F7E7-4E47-AB56-867EE702083D}">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
@@ -6005,64 +5999,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -6093,10 +6087,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -6104,7 +6098,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -6115,7 +6109,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -6126,7 +6120,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -6138,10 +6132,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -6149,7 +6143,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -6160,7 +6154,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -6171,7 +6165,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -6183,7 +6177,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -6194,7 +6188,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -6205,7 +6199,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -6216,7 +6210,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -6249,14 +6243,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -6265,7 +6259,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6276,7 +6270,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -6287,7 +6281,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -6298,7 +6292,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -6310,7 +6304,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6321,7 +6315,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -6332,7 +6326,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -6343,7 +6337,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -6376,14 +6370,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -6392,7 +6386,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -6405,7 +6399,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -6418,7 +6412,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -6431,7 +6425,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -6445,7 +6439,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -6458,7 +6452,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -6471,7 +6465,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -6484,7 +6478,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -6519,14 +6513,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -6534,8 +6528,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -6548,7 +6542,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -6561,7 +6555,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -6574,7 +6568,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -6621,28 +6615,28 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="22"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="22"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="22"/>
+      <c r="AE15" s="16"/>
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -6651,28 +6645,28 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
         <v>166</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="22"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
         <v>167</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="22"/>
+      <c r="AE16" s="16"/>
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -6715,8 +6709,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -6727,8 +6721,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -6739,8 +6733,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="16"/>
+      <c r="W18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -6751,8 +6745,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="16" t="s">
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -6765,8 +6759,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -6777,8 +6771,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="16" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -6789,8 +6783,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="16"/>
+      <c r="W19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -6801,8 +6795,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="16" t="s">
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -6815,8 +6809,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -6827,8 +6821,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="16" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -6839,8 +6833,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -6851,8 +6845,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="16" t="s">
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -6865,8 +6859,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -6877,8 +6871,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="16" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -6889,8 +6883,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="16" t="s">
+      <c r="V21" s="16"/>
+      <c r="W21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -6901,8 +6895,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -6937,14 +6931,14 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -6953,7 +6947,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="15"/>
@@ -6966,7 +6960,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="15"/>
@@ -6979,7 +6973,7 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="16" t="s">
+      <c r="W23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X23" s="15"/>
@@ -6992,7 +6986,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="16" t="s">
+      <c r="AF23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG23" s="15"/>
@@ -7005,8 +6999,8 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15"/>
@@ -7019,7 +7013,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O24" s="15"/>
@@ -7032,7 +7026,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X24" s="15"/>
@@ -7045,7 +7039,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG24" s="15"/>
@@ -7059,7 +7053,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15"/>
@@ -7072,7 +7066,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O25" s="15"/>
@@ -7085,7 +7079,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X25" s="15"/>
@@ -7098,7 +7092,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG25" s="15"/>
@@ -7111,14 +7105,14 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="11"/>
       <c r="J26" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="22"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="11"/>
       <c r="W26" s="11"/>
       <c r="AF26" s="11"/>
@@ -7129,8 +7123,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -7143,7 +7137,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -7156,7 +7150,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="16" t="s">
+      <c r="W27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -7169,7 +7163,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="16" t="s">
+      <c r="AF27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -7204,14 +7198,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -7233,7 +7227,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -7246,7 +7240,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -7259,7 +7253,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AF29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -7286,7 +7280,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -7299,7 +7293,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="16" t="s">
+      <c r="W30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -7312,7 +7306,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="16" t="s">
+      <c r="AF30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -7339,7 +7333,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -7352,7 +7346,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="16" t="s">
+      <c r="W31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -7365,7 +7359,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="16" t="s">
+      <c r="AF31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -7378,7 +7372,7 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7389,21 +7383,21 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="22"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="11"/>
       <c r="S32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="22"/>
+      <c r="V32" s="16"/>
       <c r="W32" s="11"/>
       <c r="AB32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
-      <c r="AE32" s="22"/>
+      <c r="AE32" s="16"/>
       <c r="AF32" s="11"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
@@ -7413,7 +7407,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="15"/>
@@ -7426,7 +7420,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="15"/>
@@ -7439,7 +7433,7 @@
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="16" t="s">
+      <c r="W33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X33" s="15"/>
@@ -7452,7 +7446,7 @@
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
-      <c r="AF33" s="16" t="s">
+      <c r="AF33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="15"/>
@@ -7487,14 +7481,14 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
@@ -7503,7 +7497,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="15"/>
@@ -7516,7 +7510,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="15"/>
@@ -7529,7 +7523,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="16" t="s">
+      <c r="W35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X35" s="15"/>
@@ -7542,7 +7536,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="16" t="s">
+      <c r="AF35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG35" s="15"/>
@@ -7556,7 +7550,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="15"/>
@@ -7569,7 +7563,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O36" s="15"/>
@@ -7582,7 +7576,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="16" t="s">
+      <c r="W36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X36" s="15"/>
@@ -7595,7 +7589,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="16" t="s">
+      <c r="AF36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG36" s="15"/>
@@ -7609,7 +7603,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="15"/>
@@ -7622,7 +7616,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O37" s="15"/>
@@ -7635,7 +7629,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="16" t="s">
+      <c r="W37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X37" s="15"/>
@@ -7648,7 +7642,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="16" t="s">
+      <c r="AF37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG37" s="15"/>
@@ -7661,28 +7655,28 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="11"/>
       <c r="J38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="22"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="11"/>
       <c r="S38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="22"/>
+      <c r="V38" s="16"/>
       <c r="W38" s="11"/>
       <c r="AB38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
-      <c r="AE38" s="22"/>
+      <c r="AE38" s="16"/>
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
@@ -7692,7 +7686,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="15"/>
@@ -7705,7 +7699,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O39" s="15"/>
@@ -7718,7 +7712,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="16" t="s">
+      <c r="W39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X39" s="15"/>
@@ -7731,7 +7725,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="16" t="s">
+      <c r="AF39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG39" s="15"/>
@@ -7766,14 +7760,14 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -7782,7 +7776,7 @@
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="15"/>
@@ -7795,7 +7789,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="16" t="s">
+      <c r="N41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O41" s="15"/>
@@ -7808,7 +7802,7 @@
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="16" t="s">
+      <c r="W41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X41" s="15"/>
@@ -7821,7 +7815,7 @@
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="15"/>
-      <c r="AF41" s="16" t="s">
+      <c r="AF41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG41" s="15"/>
@@ -7836,7 +7830,7 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="15"/>
@@ -7849,7 +7843,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="16" t="s">
+      <c r="N42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O42" s="15"/>
@@ -7862,7 +7856,7 @@
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="16" t="s">
+      <c r="W42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X42" s="15"/>
@@ -7875,7 +7869,7 @@
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
-      <c r="AF42" s="16" t="s">
+      <c r="AF42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG42" s="15"/>
@@ -7890,7 +7884,7 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15"/>
@@ -7903,7 +7897,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="16" t="s">
+      <c r="N43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O43" s="15"/>
@@ -7916,7 +7910,7 @@
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="16" t="s">
+      <c r="W43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X43" s="15"/>
@@ -7929,7 +7923,7 @@
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
       <c r="AE43" s="15"/>
-      <c r="AF43" s="16" t="s">
+      <c r="AF43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG43" s="15"/>
@@ -7943,28 +7937,28 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="22"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="11"/>
       <c r="J44" s="15" t="s">
         <v>170</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="22"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="11"/>
       <c r="S44" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="22"/>
+      <c r="V44" s="16"/>
       <c r="W44" s="11"/>
       <c r="AB44" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="22"/>
+      <c r="AE44" s="16"/>
       <c r="AF44" s="11"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
@@ -7974,7 +7968,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="15"/>
@@ -7987,7 +7981,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="16" t="s">
+      <c r="N45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="15"/>
@@ -8000,7 +7994,7 @@
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="16" t="s">
+      <c r="W45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X45" s="15"/>
@@ -8013,7 +8007,7 @@
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
-      <c r="AF45" s="16" t="s">
+      <c r="AF45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG45" s="15"/>
@@ -8308,18 +8302,18 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
       <c r="W54" s="7"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
@@ -8361,239 +8355,16 @@
     </row>
   </sheetData>
   <mergeCells count="268">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AF41:AJ41"/>
-    <mergeCell ref="AF45:AJ45"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AF42:AJ42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AF43:AJ43"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="S32:V32"/>
     <mergeCell ref="S54:V54"/>
     <mergeCell ref="AB54:AE54"/>
     <mergeCell ref="A15:D15"/>
@@ -8618,17 +8389,240 @@
     <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AF42:AJ42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AF41:AJ41"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:AA37"/>
     <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8636,10 +8630,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58D888-97B0-4BB4-B0DF-40F9EA743ADA}">
-  <dimension ref="A1:AI59"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="N21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8662,81 +8656,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -8745,7 +8739,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8755,7 +8749,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -8765,7 +8759,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -8775,7 +8769,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -8787,7 +8781,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -8797,7 +8791,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -8807,7 +8801,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -8817,7 +8811,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -8829,7 +8823,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -8839,7 +8833,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -8849,7 +8843,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -8859,44 +8853,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -8905,7 +8899,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -8915,7 +8909,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -8925,7 +8919,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -8935,7 +8929,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -8947,7 +8941,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -8957,7 +8951,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -8967,7 +8961,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -8977,44 +8971,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -9023,7 +9017,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -9035,7 +9029,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -9047,7 +9041,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -9059,7 +9053,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -9073,7 +9067,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -9085,7 +9079,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -9097,7 +9091,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -9109,7 +9103,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -9117,38 +9111,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -9157,7 +9151,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -9169,7 +9163,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -9181,7 +9175,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -9193,7 +9187,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -9240,28 +9234,28 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="22"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="22"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="22"/>
+      <c r="AE15" s="16"/>
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -9270,28 +9264,28 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
         <v>175</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="22"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
         <v>176</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="22"/>
+      <c r="AE16" s="16"/>
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9334,8 +9328,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -9346,8 +9340,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -9358,8 +9352,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="16"/>
+      <c r="W18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -9370,8 +9364,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="16" t="s">
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -9384,8 +9378,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -9396,8 +9390,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="16" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -9408,8 +9402,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="16"/>
+      <c r="W19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -9420,8 +9414,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="16" t="s">
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -9434,8 +9428,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -9446,8 +9440,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="16" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -9458,8 +9452,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -9470,8 +9464,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="16" t="s">
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -9484,8 +9478,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -9496,8 +9490,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="16" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -9508,8 +9502,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="16" t="s">
+      <c r="V21" s="16"/>
+      <c r="W21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -9520,8 +9514,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -9529,44 +9523,44 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="15"/>
@@ -9575,7 +9569,7 @@
       <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O23" s="15"/>
@@ -9586,8 +9580,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="16" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="X23" s="15"/>
@@ -9596,7 +9590,7 @@
       <c r="AB23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" s="16" t="s">
+      <c r="AF23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AG23" s="15"/>
@@ -9607,7 +9601,7 @@
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="15"/>
@@ -9616,7 +9610,7 @@
       <c r="J24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="O24" s="15"/>
@@ -9627,8 +9621,8 @@
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="16" t="s">
+      <c r="V24" s="16"/>
+      <c r="W24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="X24" s="15"/>
@@ -9637,7 +9631,7 @@
       <c r="AB24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AG24" s="15"/>
@@ -9651,7 +9645,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="15"/>
@@ -9663,7 +9657,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O25" s="15"/>
@@ -9675,7 +9669,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X25" s="15"/>
@@ -9687,7 +9681,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG25" s="15"/>
@@ -9700,7 +9694,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -9710,56 +9704,56 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="22"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="11"/>
       <c r="S26" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="22"/>
+      <c r="V26" s="16"/>
       <c r="W26" s="11"/>
       <c r="AB26" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="22"/>
+      <c r="AE26" s="16"/>
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -9767,8 +9761,8 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="15"/>
@@ -9779,8 +9773,8 @@
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="16" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="17" t="s">
         <v>92</v>
       </c>
       <c r="O28" s="15"/>
@@ -9791,8 +9785,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="16" t="s">
+      <c r="V28" s="16"/>
+      <c r="W28" s="17" t="s">
         <v>99</v>
       </c>
       <c r="X28" s="15"/>
@@ -9803,8 +9797,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="16" t="s">
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="17" t="s">
         <v>101</v>
       </c>
       <c r="AG28" s="15"/>
@@ -9818,7 +9812,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="15"/>
@@ -9830,7 +9824,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="15"/>
@@ -9842,7 +9836,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X29" s="15"/>
@@ -9854,7 +9848,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AF29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG29" s="15"/>
@@ -9867,8 +9861,8 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="15"/>
@@ -9879,8 +9873,8 @@
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O30" s="15"/>
@@ -9891,8 +9885,8 @@
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="16" t="s">
+      <c r="V30" s="16"/>
+      <c r="W30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="X30" s="15"/>
@@ -9903,8 +9897,8 @@
       </c>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="16" t="s">
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AG30" s="15"/>
@@ -9917,7 +9911,7 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -9927,7 +9921,7 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="22"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="5"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -9937,7 +9931,7 @@
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="22"/>
+      <c r="V31" s="16"/>
       <c r="W31" s="5"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -9947,45 +9941,45 @@
       </c>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
-      <c r="AE31" s="22"/>
+      <c r="AE31" s="16"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -9993,8 +9987,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F33" s="15"/>
@@ -10005,8 +9999,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="16" t="s">
+      <c r="M33" s="16"/>
+      <c r="N33" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O33" s="15"/>
@@ -10017,8 +10011,8 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="16" t="s">
+      <c r="V33" s="16"/>
+      <c r="W33" s="17" t="s">
         <v>85</v>
       </c>
       <c r="X33" s="15"/>
@@ -10029,8 +10023,8 @@
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="16" t="s">
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="17" t="s">
         <v>85</v>
       </c>
       <c r="AG33" s="15"/>
@@ -10044,7 +10038,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="15"/>
@@ -10056,7 +10050,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O34" s="15"/>
@@ -10067,8 +10061,8 @@
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="16" t="s">
+      <c r="V34" s="16"/>
+      <c r="W34" s="17" t="s">
         <v>86</v>
       </c>
       <c r="X34" s="15"/>
@@ -10079,8 +10073,8 @@
       </c>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="16" t="s">
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="17" t="s">
         <v>86</v>
       </c>
       <c r="AG34" s="15"/>
@@ -10093,8 +10087,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="15"/>
@@ -10105,8 +10099,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O35" s="15"/>
@@ -10117,8 +10111,8 @@
       </c>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="16" t="s">
+      <c r="V35" s="16"/>
+      <c r="W35" s="17" t="s">
         <v>104</v>
       </c>
       <c r="X35" s="15"/>
@@ -10129,8 +10123,8 @@
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="16" t="s">
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="17" t="s">
         <v>103</v>
       </c>
       <c r="AG35" s="15"/>
@@ -10143,7 +10137,7 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -10153,14 +10147,14 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="22"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="11"/>
       <c r="S36" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="22"/>
+      <c r="V36" s="16"/>
       <c r="W36" s="5"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -10170,41 +10164,41 @@
       </c>
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
-      <c r="AE36" s="22"/>
+      <c r="AE36" s="16"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="25"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="25"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="21"/>
       <c r="AF37" s="12"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
@@ -10216,8 +10210,8 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="15"/>
@@ -10228,8 +10222,8 @@
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="16" t="s">
+      <c r="M38" s="16"/>
+      <c r="N38" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="15"/>
@@ -10250,8 +10244,8 @@
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
@@ -10262,25 +10256,25 @@
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="16" t="s">
+      <c r="M39" s="16"/>
+      <c r="N39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="13"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
@@ -10292,8 +10286,8 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="15"/>
@@ -10304,61 +10298,62 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="16" t="s">
+      <c r="M40" s="16"/>
+      <c r="N40" s="17" t="s">
         <v>109</v>
       </c>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="S40" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="22"/>
+      <c r="S40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
       <c r="W40" s="11"/>
-      <c r="AB40" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="11"/>
+      <c r="AB40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="S41" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
+      <c r="AB41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
@@ -10366,8 +10361,8 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="15"/>
@@ -10378,29 +10373,23 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="16" t="s">
+      <c r="M42" s="16"/>
+      <c r="N42" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
-      <c r="S42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
+      <c r="S42" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="W42" s="5"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AB42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
+      <c r="AB42" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
@@ -10412,8 +10401,8 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
@@ -10424,22 +10413,22 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="16" t="s">
+      <c r="M43" s="16"/>
+      <c r="N43" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="S43" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AB43" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF43" s="5"/>
       <c r="AG43" s="2"/>
@@ -10452,8 +10441,8 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="15"/>
@@ -10464,60 +10453,54 @@
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="16" t="s">
+      <c r="M44" s="16"/>
+      <c r="N44" s="17" t="s">
         <v>108</v>
       </c>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
-      <c r="S44" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
+      <c r="S44" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="W44" s="5"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AB44" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
+      <c r="AB44" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="AF44" s="5"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="S45" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="W45" s="5"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AB45" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF45" s="5"/>
       <c r="AG45" s="2"/>
@@ -10533,603 +10516,221 @@
         <v>1</v>
       </c>
       <c r="N46" s="11"/>
-      <c r="S46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
+      <c r="S46" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="W46" s="5"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-      <c r="AB46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
+      <c r="AB46" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AF46" s="5"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="13"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="13"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
-      <c r="S47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W47" s="5"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AB47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="11"/>
-      <c r="J48" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="22"/>
+      <c r="J48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="11"/>
-      <c r="S48" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AB48" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E49" s="13"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
+      <c r="J49" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="N49" s="13"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="J50" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="N50" s="5"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="J51" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="J52" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
+      <c r="J52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="N52" s="5"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="J53" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="J54" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
+      <c r="J54" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="N54" s="5"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="J55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="J56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="301">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="J38:M38"/>
+  <mergeCells count="280">
     <mergeCell ref="AB31:AE31"/>
     <mergeCell ref="AB36:AE36"/>
     <mergeCell ref="A26:D26"/>
@@ -11153,6 +10754,263 @@
     <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="AB20:AE20"/>
     <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8F78A-43BE-417B-8A4E-C0BEDEC59455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4165BA48-5E4F-4364-B1A5-51FEB3C918DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -722,22 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +736,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,64 +1120,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1208,10 +1208,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -1219,7 +1219,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -1230,7 +1230,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -1241,7 +1241,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -1253,10 +1253,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -1264,7 +1264,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1275,7 +1275,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -1286,7 +1286,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -1298,7 +1298,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1309,7 +1309,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1320,7 +1320,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -1331,7 +1331,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -1364,14 +1364,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1380,7 +1380,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1391,7 +1391,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1402,7 +1402,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -1413,7 +1413,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -1425,7 +1425,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1436,7 +1436,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1447,7 +1447,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -1458,7 +1458,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -1491,14 +1491,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1507,7 +1507,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -1520,7 +1520,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -1533,7 +1533,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -1546,7 +1546,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -1560,7 +1560,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -1573,7 +1573,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -1586,7 +1586,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -1599,7 +1599,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -1634,14 +1634,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1649,8 +1649,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -1663,7 +1663,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -1676,7 +1676,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -1689,7 +1689,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -1702,8 +1702,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -1714,8 +1714,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -1726,8 +1726,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17" t="s">
+      <c r="V14" s="24"/>
+      <c r="W14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -1738,8 +1738,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="17" t="s">
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -1752,8 +1752,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -1764,8 +1764,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -1776,8 +1776,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17" t="s">
+      <c r="V15" s="24"/>
+      <c r="W15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -1788,8 +1788,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -1802,8 +1802,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -1814,8 +1814,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17" t="s">
+      <c r="M16" s="24"/>
+      <c r="N16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -1826,8 +1826,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17" t="s">
+      <c r="V16" s="24"/>
+      <c r="W16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -1838,8 +1838,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="17" t="s">
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -1852,8 +1852,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -1864,8 +1864,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17" t="s">
+      <c r="M17" s="24"/>
+      <c r="N17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -1876,8 +1876,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17" t="s">
+      <c r="V17" s="24"/>
+      <c r="W17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -1888,8 +1888,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="17" t="s">
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -1924,14 +1924,14 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1940,7 +1940,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="15"/>
@@ -1953,7 +1953,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O19" s="15"/>
@@ -1966,7 +1966,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X19" s="15"/>
@@ -1979,7 +1979,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
-      <c r="AF19" s="17" t="s">
+      <c r="AF19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG19" s="15"/>
@@ -1992,8 +1992,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="15"/>
@@ -2006,7 +2006,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="15"/>
@@ -2019,7 +2019,7 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="17" t="s">
+      <c r="W20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X20" s="15"/>
@@ -2032,7 +2032,7 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="17" t="s">
+      <c r="AF20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG20" s="15"/>
@@ -2046,7 +2046,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15"/>
@@ -2059,7 +2059,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="15"/>
@@ -2072,7 +2072,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X21" s="15"/>
@@ -2085,7 +2085,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG21" s="15"/>
@@ -2098,8 +2098,8 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="15"/>
@@ -2112,7 +2112,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O22" s="15"/>
@@ -2125,7 +2125,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="17" t="s">
+      <c r="W22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X22" s="15"/>
@@ -2138,7 +2138,7 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="17" t="s">
+      <c r="AF22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG22" s="15"/>
@@ -2173,14 +2173,14 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -2202,7 +2202,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="15"/>
@@ -2215,7 +2215,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X24" s="15"/>
@@ -2228,7 +2228,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG24" s="15"/>
@@ -2255,7 +2255,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O25" s="15"/>
@@ -2268,7 +2268,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X25" s="15"/>
@@ -2281,7 +2281,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG25" s="15"/>
@@ -2308,7 +2308,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O26" s="15"/>
@@ -2321,7 +2321,7 @@
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="17" t="s">
+      <c r="W26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X26" s="15"/>
@@ -2334,7 +2334,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="17" t="s">
+      <c r="AF26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG26" s="15"/>
@@ -2348,7 +2348,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -2361,7 +2361,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -2374,7 +2374,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -2387,7 +2387,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="17" t="s">
+      <c r="AF27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -2422,14 +2422,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -2438,7 +2438,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="15"/>
@@ -2451,7 +2451,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -2464,7 +2464,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -2477,7 +2477,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -2491,7 +2491,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="15"/>
@@ -2504,7 +2504,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -2517,7 +2517,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="17" t="s">
+      <c r="W30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -2530,7 +2530,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="17" t="s">
+      <c r="AF30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -2544,7 +2544,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15"/>
@@ -2557,7 +2557,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -2570,7 +2570,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -2583,7 +2583,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="17" t="s">
+      <c r="AF31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -2597,7 +2597,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="15"/>
@@ -2610,7 +2610,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="15"/>
@@ -2623,7 +2623,7 @@
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="17" t="s">
+      <c r="W32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X32" s="15"/>
@@ -2636,7 +2636,7 @@
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
-      <c r="AF32" s="17" t="s">
+      <c r="AF32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG32" s="15"/>
@@ -2671,14 +2671,14 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
@@ -2687,7 +2687,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="15"/>
@@ -2700,7 +2700,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="15"/>
@@ -2713,7 +2713,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="17" t="s">
+      <c r="W34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X34" s="15"/>
@@ -2726,7 +2726,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
-      <c r="AF34" s="17" t="s">
+      <c r="AF34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG34" s="15"/>
@@ -2741,7 +2741,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="15"/>
@@ -2754,7 +2754,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O35" s="15"/>
@@ -2767,7 +2767,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="17" t="s">
+      <c r="W35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X35" s="15"/>
@@ -2780,7 +2780,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="17" t="s">
+      <c r="AF35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG35" s="15"/>
@@ -2795,7 +2795,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="15"/>
@@ -2808,7 +2808,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O36" s="15"/>
@@ -2821,7 +2821,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="17" t="s">
+      <c r="W36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X36" s="15"/>
@@ -2834,7 +2834,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="17" t="s">
+      <c r="AF36" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG36" s="15"/>
@@ -2849,7 +2849,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="15"/>
@@ -2862,7 +2862,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O37" s="15"/>
@@ -2875,7 +2875,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="17" t="s">
+      <c r="W37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X37" s="15"/>
@@ -2888,7 +2888,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="17" t="s">
+      <c r="AF37" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG37" s="15"/>
@@ -2924,14 +2924,14 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -2940,7 +2940,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="15"/>
@@ -2953,7 +2953,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="16" t="s">
         <v>62</v>
       </c>
       <c r="O39" s="15"/>
@@ -2966,7 +2966,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="17" t="s">
+      <c r="W39" s="16" t="s">
         <v>63</v>
       </c>
       <c r="X39" s="15"/>
@@ -2979,7 +2979,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="17" t="s">
+      <c r="AF39" s="16" t="s">
         <v>64</v>
       </c>
       <c r="AG39" s="15"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3004,8 +3004,8 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="16"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
@@ -3015,8 +3015,8 @@
       </c>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="17"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="16"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
@@ -3026,8 +3026,8 @@
       </c>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="17"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3049,21 +3049,21 @@
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>129</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="16"/>
+      <c r="V41" s="24"/>
       <c r="W41" s="11"/>
       <c r="AB41" s="15" t="s">
         <v>134</v>
       </c>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
-      <c r="AE41" s="16"/>
+      <c r="AE41" s="24"/>
       <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3083,21 +3083,21 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="11"/>
       <c r="S42" s="15" t="s">
         <v>130</v>
       </c>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="16"/>
+      <c r="V42" s="24"/>
       <c r="W42" s="11"/>
       <c r="AB42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
-      <c r="AE42" s="16"/>
+      <c r="AE42" s="24"/>
       <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3117,21 +3117,21 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="11"/>
       <c r="S43" s="15" t="s">
         <v>131</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="16"/>
+      <c r="V43" s="24"/>
       <c r="W43" s="11"/>
       <c r="AB43" s="15" t="s">
         <v>136</v>
       </c>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
-      <c r="AE43" s="16"/>
+      <c r="AE43" s="24"/>
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -3158,8 +3158,8 @@
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="17"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="16"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -3169,8 +3169,8 @@
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="16"/>
-      <c r="AF44" s="17"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="16"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
@@ -3469,6 +3469,268 @@
     </row>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="W44:AA44"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="S34:V34"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="AF39:AJ39"/>
     <mergeCell ref="E2:H2"/>
@@ -3493,268 +3755,6 @@
     <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="W44:AA44"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3788,81 +3788,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3871,7 +3871,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -3881,7 +3881,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -3891,7 +3891,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -3901,7 +3901,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -3913,7 +3913,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3923,7 +3923,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -3933,7 +3933,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -3943,7 +3943,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -3955,7 +3955,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -3965,7 +3965,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -3975,7 +3975,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -3985,44 +3985,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -4031,7 +4031,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4041,7 +4041,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -4051,7 +4051,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -4061,7 +4061,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -4073,7 +4073,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4083,7 +4083,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -4093,7 +4093,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -4103,44 +4103,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -4149,7 +4149,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -4161,7 +4161,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -4173,7 +4173,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -4185,7 +4185,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -4199,7 +4199,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -4211,7 +4211,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -4223,7 +4223,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -4235,7 +4235,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -4243,38 +4243,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -4295,7 +4295,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -4307,7 +4307,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -4319,7 +4319,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -4332,8 +4332,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -4344,8 +4344,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -4356,8 +4356,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17" t="s">
+      <c r="V14" s="24"/>
+      <c r="W14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -4368,8 +4368,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="17" t="s">
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -4382,8 +4382,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -4394,8 +4394,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -4406,8 +4406,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17" t="s">
+      <c r="V15" s="24"/>
+      <c r="W15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -4418,8 +4418,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="17" t="s">
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -4432,8 +4432,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -4444,8 +4444,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17" t="s">
+      <c r="M16" s="24"/>
+      <c r="N16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -4456,8 +4456,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17" t="s">
+      <c r="V16" s="24"/>
+      <c r="W16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -4468,8 +4468,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="17" t="s">
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -4482,8 +4482,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -4494,8 +4494,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17" t="s">
+      <c r="M17" s="24"/>
+      <c r="N17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -4506,8 +4506,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17" t="s">
+      <c r="V17" s="24"/>
+      <c r="W17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -4518,8 +4518,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="17" t="s">
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -4527,44 +4527,44 @@
       <c r="AI17" s="15"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="15"/>
@@ -4573,7 +4573,7 @@
       <c r="J19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="O19" s="15"/>
@@ -4584,8 +4584,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="s">
+      <c r="V19" s="24"/>
+      <c r="W19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="X19" s="15"/>
@@ -4594,7 +4594,7 @@
       <c r="AB19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF19" s="17" t="s">
+      <c r="AF19" s="16" t="s">
         <v>79</v>
       </c>
       <c r="AG19" s="15"/>
@@ -4605,7 +4605,7 @@
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="15"/>
@@ -4614,7 +4614,7 @@
       <c r="J20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="O20" s="15"/>
@@ -4625,8 +4625,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="24"/>
+      <c r="W20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="X20" s="15"/>
@@ -4635,7 +4635,7 @@
       <c r="AB20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF20" s="17" t="s">
+      <c r="AF20" s="16" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="15"/>
@@ -4649,7 +4649,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="15"/>
@@ -4661,7 +4661,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O21" s="15"/>
@@ -4673,7 +4673,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X21" s="15"/>
@@ -4685,7 +4685,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AF21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG21" s="15"/>
@@ -4693,38 +4693,38 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -4732,8 +4732,8 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="15"/>
@@ -4744,8 +4744,8 @@
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17" t="s">
+      <c r="M23" s="24"/>
+      <c r="N23" s="16" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="15"/>
@@ -4756,8 +4756,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17" t="s">
+      <c r="V23" s="24"/>
+      <c r="W23" s="16" t="s">
         <v>99</v>
       </c>
       <c r="X23" s="15"/>
@@ -4768,8 +4768,8 @@
       </c>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="17" t="s">
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="16" t="s">
         <v>101</v>
       </c>
       <c r="AG23" s="15"/>
@@ -4783,7 +4783,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="15"/>
@@ -4795,7 +4795,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="15"/>
@@ -4807,7 +4807,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X24" s="15"/>
@@ -4819,7 +4819,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG24" s="15"/>
@@ -4832,8 +4832,8 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="15"/>
@@ -4844,8 +4844,8 @@
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17" t="s">
+      <c r="M25" s="24"/>
+      <c r="N25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O25" s="15"/>
@@ -4856,8 +4856,8 @@
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="17" t="s">
+      <c r="V25" s="24"/>
+      <c r="W25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="X25" s="15"/>
@@ -4868,8 +4868,8 @@
       </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="16" t="s">
         <v>83</v>
       </c>
       <c r="AG25" s="15"/>
@@ -4877,38 +4877,38 @@
       <c r="AI25" s="15"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -4916,8 +4916,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="15"/>
@@ -4928,8 +4928,8 @@
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17" t="s">
+      <c r="M27" s="24"/>
+      <c r="N27" s="16" t="s">
         <v>93</v>
       </c>
       <c r="O27" s="15"/>
@@ -4940,8 +4940,8 @@
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="17" t="s">
+      <c r="V27" s="24"/>
+      <c r="W27" s="16" t="s">
         <v>85</v>
       </c>
       <c r="X27" s="15"/>
@@ -4952,8 +4952,8 @@
       </c>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="17" t="s">
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="16" t="s">
         <v>85</v>
       </c>
       <c r="AG27" s="15"/>
@@ -4967,7 +4967,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="15"/>
@@ -4979,7 +4979,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="15"/>
@@ -4990,8 +4990,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="17" t="s">
+      <c r="V28" s="24"/>
+      <c r="W28" s="16" t="s">
         <v>86</v>
       </c>
       <c r="X28" s="15"/>
@@ -5002,8 +5002,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="17" t="s">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="16" t="s">
         <v>86</v>
       </c>
       <c r="AG28" s="15"/>
@@ -5016,8 +5016,8 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="15"/>
@@ -5028,8 +5028,8 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17" t="s">
+      <c r="M29" s="24"/>
+      <c r="N29" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O29" s="15"/>
@@ -5040,8 +5040,8 @@
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="17" t="s">
+      <c r="V29" s="24"/>
+      <c r="W29" s="16" t="s">
         <v>104</v>
       </c>
       <c r="X29" s="15"/>
@@ -5052,8 +5052,8 @@
       </c>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="16" t="s">
         <v>103</v>
       </c>
       <c r="AG29" s="15"/>
@@ -5061,34 +5061,34 @@
       <c r="AI29" s="15"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="21"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="25"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="25"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
@@ -5100,8 +5100,8 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="15"/>
@@ -5112,8 +5112,8 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17" t="s">
+      <c r="M31" s="24"/>
+      <c r="N31" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O31" s="15"/>
@@ -5134,8 +5134,8 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
@@ -5146,25 +5146,25 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17" t="s">
+      <c r="M32" s="24"/>
+      <c r="N32" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
       <c r="W32" s="13"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -5176,8 +5176,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="15"/>
@@ -5188,8 +5188,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17" t="s">
+      <c r="M33" s="24"/>
+      <c r="N33" s="16" t="s">
         <v>109</v>
       </c>
       <c r="O33" s="15"/>
@@ -5200,33 +5200,33 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
+      <c r="V33" s="24"/>
       <c r="W33" s="11"/>
       <c r="AB33" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="16"/>
+      <c r="AE33" s="24"/>
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -5250,8 +5250,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="15"/>
@@ -5262,8 +5262,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="24"/>
+      <c r="N35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O35" s="15"/>
@@ -5296,8 +5296,8 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="15"/>
@@ -5308,8 +5308,8 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17" t="s">
+      <c r="M36" s="24"/>
+      <c r="N36" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O36" s="15"/>
@@ -5336,8 +5336,8 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="15"/>
@@ -5348,8 +5348,8 @@
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17" t="s">
+      <c r="M37" s="24"/>
+      <c r="N37" s="16" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="15"/>
@@ -5377,18 +5377,18 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -5439,18 +5439,18 @@
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="13"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -5476,14 +5476,14 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="11"/>
       <c r="J41" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>115</v>
@@ -5684,6 +5684,263 @@
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="AB1:AI1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
@@ -5708,263 +5965,6 @@
     <mergeCell ref="AB24:AE24"/>
     <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5975,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF66C8F-F7E7-4E47-AB56-867EE702083D}">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29:AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5999,64 +5999,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -6087,10 +6087,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -6098,7 +6098,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -6109,7 +6109,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -6120,7 +6120,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -6132,10 +6132,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -6143,7 +6143,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -6154,7 +6154,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -6165,7 +6165,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -6177,7 +6177,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -6188,7 +6188,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -6199,7 +6199,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -6210,7 +6210,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -6243,14 +6243,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -6259,7 +6259,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6270,7 +6270,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -6281,7 +6281,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -6292,7 +6292,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -6304,7 +6304,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6315,7 +6315,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -6326,7 +6326,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -6337,7 +6337,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -6370,14 +6370,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -6386,7 +6386,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -6399,7 +6399,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -6412,7 +6412,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -6425,7 +6425,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -6439,7 +6439,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -6452,7 +6452,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -6465,7 +6465,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -6478,7 +6478,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -6513,14 +6513,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -6528,8 +6528,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -6542,7 +6542,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -6555,7 +6555,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -6568,7 +6568,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -6615,28 +6615,28 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="24"/>
       <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="24"/>
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -6645,28 +6645,28 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
         <v>166</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="24"/>
       <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
         <v>167</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="24"/>
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -6709,8 +6709,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -6721,8 +6721,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M18" s="24"/>
+      <c r="N18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -6733,8 +6733,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17" t="s">
+      <c r="V18" s="24"/>
+      <c r="W18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -6745,8 +6745,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="17" t="s">
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -6759,8 +6759,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -6771,8 +6771,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="24"/>
+      <c r="N19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -6783,8 +6783,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="s">
+      <c r="V19" s="24"/>
+      <c r="W19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -6795,8 +6795,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="17" t="s">
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -6809,8 +6809,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -6821,8 +6821,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
+      <c r="M20" s="24"/>
+      <c r="N20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -6833,8 +6833,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="24"/>
+      <c r="W20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -6845,8 +6845,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="17" t="s">
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -6859,8 +6859,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -6871,8 +6871,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17" t="s">
+      <c r="M21" s="24"/>
+      <c r="N21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -6883,8 +6883,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17" t="s">
+      <c r="V21" s="24"/>
+      <c r="W21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -6895,8 +6895,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -6931,14 +6931,14 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -6947,7 +6947,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="15"/>
@@ -6960,7 +6960,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="15"/>
@@ -6973,7 +6973,7 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="17" t="s">
+      <c r="W23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X23" s="15"/>
@@ -6986,7 +6986,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="17" t="s">
+      <c r="AF23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG23" s="15"/>
@@ -6999,8 +6999,8 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15"/>
@@ -7013,7 +7013,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O24" s="15"/>
@@ -7026,7 +7026,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X24" s="15"/>
@@ -7039,7 +7039,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG24" s="15"/>
@@ -7053,7 +7053,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15"/>
@@ -7066,7 +7066,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O25" s="15"/>
@@ -7079,7 +7079,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X25" s="15"/>
@@ -7092,7 +7092,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG25" s="15"/>
@@ -7105,16 +7105,28 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="11"/>
       <c r="J26" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="11"/>
+      <c r="S26" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="11"/>
+      <c r="AB26" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="24"/>
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -7123,8 +7135,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -7137,7 +7149,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -7150,7 +7162,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -7163,7 +7175,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="17" t="s">
+      <c r="AF27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -7198,14 +7210,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -7227,7 +7239,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -7240,7 +7252,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -7253,7 +7265,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -7280,7 +7292,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -7293,7 +7305,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="17" t="s">
+      <c r="W30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -7306,7 +7318,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="17" t="s">
+      <c r="AF30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -7333,7 +7345,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -7346,7 +7358,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -7359,7 +7371,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="17" t="s">
+      <c r="AF31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -7372,7 +7384,7 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7383,21 +7395,21 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="11"/>
       <c r="S32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="16"/>
+      <c r="V32" s="24"/>
       <c r="W32" s="11"/>
       <c r="AB32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
-      <c r="AE32" s="16"/>
+      <c r="AE32" s="24"/>
       <c r="AF32" s="11"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
@@ -7407,7 +7419,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="15"/>
@@ -7420,7 +7432,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="15"/>
@@ -7433,7 +7445,7 @@
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="17" t="s">
+      <c r="W33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X33" s="15"/>
@@ -7446,7 +7458,7 @@
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
-      <c r="AF33" s="17" t="s">
+      <c r="AF33" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="15"/>
@@ -7481,14 +7493,14 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
@@ -7497,7 +7509,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="15"/>
@@ -7510,7 +7522,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="15"/>
@@ -7523,7 +7535,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="17" t="s">
+      <c r="W35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X35" s="15"/>
@@ -7536,7 +7548,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="17" t="s">
+      <c r="AF35" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG35" s="15"/>
@@ -7550,7 +7562,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="15"/>
@@ -7563,7 +7575,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O36" s="15"/>
@@ -7576,7 +7588,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="17" t="s">
+      <c r="W36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X36" s="15"/>
@@ -7589,7 +7601,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="17" t="s">
+      <c r="AF36" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG36" s="15"/>
@@ -7603,7 +7615,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="15"/>
@@ -7616,7 +7628,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O37" s="15"/>
@@ -7629,7 +7641,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="17" t="s">
+      <c r="W37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X37" s="15"/>
@@ -7642,7 +7654,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="17" t="s">
+      <c r="AF37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG37" s="15"/>
@@ -7655,28 +7667,28 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="11"/>
       <c r="J38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="11"/>
       <c r="S38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="16"/>
+      <c r="V38" s="24"/>
       <c r="W38" s="11"/>
       <c r="AB38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
+      <c r="AE38" s="24"/>
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
@@ -7686,7 +7698,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="15"/>
@@ -7699,7 +7711,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O39" s="15"/>
@@ -7712,7 +7724,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="17" t="s">
+      <c r="W39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X39" s="15"/>
@@ -7725,7 +7737,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="17" t="s">
+      <c r="AF39" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG39" s="15"/>
@@ -7760,14 +7772,14 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -7776,7 +7788,7 @@
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="15"/>
@@ -7789,7 +7801,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="17" t="s">
+      <c r="N41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O41" s="15"/>
@@ -7802,7 +7814,7 @@
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="17" t="s">
+      <c r="W41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X41" s="15"/>
@@ -7815,7 +7827,7 @@
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="15"/>
-      <c r="AF41" s="17" t="s">
+      <c r="AF41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="AG41" s="15"/>
@@ -7830,7 +7842,7 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="15"/>
@@ -7843,7 +7855,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="O42" s="15"/>
@@ -7856,7 +7868,7 @@
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="17" t="s">
+      <c r="W42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="X42" s="15"/>
@@ -7869,7 +7881,7 @@
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
-      <c r="AF42" s="17" t="s">
+      <c r="AF42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AG42" s="15"/>
@@ -7884,7 +7896,7 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15"/>
@@ -7897,7 +7909,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="O43" s="15"/>
@@ -7910,7 +7922,7 @@
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="17" t="s">
+      <c r="W43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="X43" s="15"/>
@@ -7923,7 +7935,7 @@
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
       <c r="AE43" s="15"/>
-      <c r="AF43" s="17" t="s">
+      <c r="AF43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AG43" s="15"/>
@@ -7937,28 +7949,28 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="11"/>
       <c r="J44" s="15" t="s">
         <v>170</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
+      <c r="M44" s="24"/>
       <c r="N44" s="11"/>
       <c r="S44" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="16"/>
+      <c r="V44" s="24"/>
       <c r="W44" s="11"/>
       <c r="AB44" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="16"/>
+      <c r="AE44" s="24"/>
       <c r="AF44" s="11"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
@@ -7968,7 +7980,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="15"/>
@@ -7981,7 +7993,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="17" t="s">
+      <c r="N45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="15"/>
@@ -7994,7 +8006,7 @@
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="17" t="s">
+      <c r="W45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X45" s="15"/>
@@ -8007,7 +8019,7 @@
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
-      <c r="AF45" s="17" t="s">
+      <c r="AF45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AG45" s="15"/>
@@ -8302,18 +8314,18 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
       <c r="W54" s="7"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
@@ -8354,17 +8366,229 @@
       <c r="AI55" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="268">
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="S32:V32"/>
+  <mergeCells count="270">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AF41:AJ41"/>
+    <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AF42:AJ42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:AA42"/>
     <mergeCell ref="S54:V54"/>
     <mergeCell ref="AB54:AE54"/>
     <mergeCell ref="A15:D15"/>
@@ -8389,53 +8613,16 @@
     <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AF45:AJ45"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AF42:AJ42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AF43:AJ43"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:AA42"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AF41:AJ41"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="S32:V32"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="J36:M36"/>
@@ -8443,186 +8630,13 @@
     <mergeCell ref="S36:V36"/>
     <mergeCell ref="W36:AA36"/>
     <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB30:AE30"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="J29:M29"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="S29:V29"/>
     <mergeCell ref="W29:AA29"/>
     <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8632,8 +8646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58D888-97B0-4BB4-B0DF-40F9EA743ADA}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45"/>
+    <sheetView topLeftCell="N24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8656,81 +8670,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -8739,7 +8753,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8749,7 +8763,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -8759,7 +8773,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -8769,7 +8783,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -8781,7 +8795,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -8791,7 +8805,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -8801,7 +8815,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -8811,7 +8825,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="17"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -8823,7 +8837,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -8833,7 +8847,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -8843,7 +8857,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -8853,44 +8867,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="17"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -8899,7 +8913,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -8909,7 +8923,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -8919,7 +8933,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -8929,7 +8943,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -8941,7 +8955,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -8951,7 +8965,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -8961,7 +8975,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -8971,44 +8985,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="17"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -9017,7 +9031,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -9029,7 +9043,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -9041,7 +9055,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -9053,7 +9067,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="17" t="s">
+      <c r="AF10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -9067,7 +9081,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -9079,7 +9093,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -9091,7 +9105,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -9103,7 +9117,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -9111,38 +9125,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -9151,7 +9165,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -9163,7 +9177,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -9175,7 +9189,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -9187,7 +9201,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -9234,28 +9248,28 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11"/>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="11"/>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="24"/>
       <c r="W15" s="11"/>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="24"/>
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -9264,28 +9278,28 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11"/>
       <c r="J16" s="15" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="11"/>
       <c r="S16" s="15" t="s">
         <v>175</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="24"/>
       <c r="W16" s="11"/>
       <c r="AB16" s="15" t="s">
         <v>176</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="24"/>
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9328,8 +9342,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -9340,8 +9354,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M18" s="24"/>
+      <c r="N18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -9352,8 +9366,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17" t="s">
+      <c r="V18" s="24"/>
+      <c r="W18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -9364,8 +9378,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="17" t="s">
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -9378,8 +9392,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -9390,8 +9404,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="24"/>
+      <c r="N19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -9402,8 +9416,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="s">
+      <c r="V19" s="24"/>
+      <c r="W19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -9414,8 +9428,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="17" t="s">
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="16" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -9428,8 +9442,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -9440,8 +9454,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
+      <c r="M20" s="24"/>
+      <c r="N20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -9452,8 +9466,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="24"/>
+      <c r="W20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -9464,8 +9478,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="17" t="s">
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="16" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -9478,8 +9492,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -9490,8 +9504,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17" t="s">
+      <c r="M21" s="24"/>
+      <c r="N21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -9502,8 +9516,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17" t="s">
+      <c r="V21" s="24"/>
+      <c r="W21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -9514,8 +9528,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="17" t="s">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="16" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -9523,44 +9537,44 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="15"/>
@@ -9569,7 +9583,7 @@
       <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="O23" s="15"/>
@@ -9580,8 +9594,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17" t="s">
+      <c r="V23" s="24"/>
+      <c r="W23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="X23" s="15"/>
@@ -9590,7 +9604,7 @@
       <c r="AB23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" s="17" t="s">
+      <c r="AF23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="AG23" s="15"/>
@@ -9601,7 +9615,7 @@
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="15"/>
@@ -9610,7 +9624,7 @@
       <c r="J24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="O24" s="15"/>
@@ -9621,8 +9635,8 @@
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="17" t="s">
+      <c r="V24" s="24"/>
+      <c r="W24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="X24" s="15"/>
@@ -9631,7 +9645,7 @@
       <c r="AB24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="16" t="s">
         <v>80</v>
       </c>
       <c r="AG24" s="15"/>
@@ -9645,7 +9659,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="15"/>
@@ -9657,7 +9671,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O25" s="15"/>
@@ -9669,7 +9683,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X25" s="15"/>
@@ -9681,7 +9695,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG25" s="15"/>
@@ -9694,7 +9708,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -9704,56 +9718,56 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="11"/>
       <c r="S26" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="16"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="11"/>
       <c r="AB26" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
+      <c r="AE26" s="24"/>
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -9761,8 +9775,8 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="15"/>
@@ -9773,8 +9787,8 @@
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17" t="s">
+      <c r="M28" s="24"/>
+      <c r="N28" s="16" t="s">
         <v>92</v>
       </c>
       <c r="O28" s="15"/>
@@ -9785,8 +9799,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="17" t="s">
+      <c r="V28" s="24"/>
+      <c r="W28" s="16" t="s">
         <v>99</v>
       </c>
       <c r="X28" s="15"/>
@@ -9797,8 +9811,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="17" t="s">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="AG28" s="15"/>
@@ -9812,7 +9826,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="15"/>
@@ -9824,7 +9838,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="15"/>
@@ -9836,7 +9850,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="X29" s="15"/>
@@ -9848,7 +9862,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AG29" s="15"/>
@@ -9861,8 +9875,8 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="15"/>
@@ -9873,8 +9887,8 @@
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17" t="s">
+      <c r="M30" s="24"/>
+      <c r="N30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O30" s="15"/>
@@ -9885,8 +9899,8 @@
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="17" t="s">
+      <c r="V30" s="24"/>
+      <c r="W30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="X30" s="15"/>
@@ -9897,8 +9911,8 @@
       </c>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="17" t="s">
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="AG30" s="15"/>
@@ -9911,7 +9925,7 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -9921,7 +9935,7 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="5"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -9931,7 +9945,7 @@
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="16"/>
+      <c r="V31" s="24"/>
       <c r="W31" s="5"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -9941,45 +9955,45 @@
       </c>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
-      <c r="AE31" s="16"/>
+      <c r="AE31" s="24"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -9987,8 +10001,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F33" s="15"/>
@@ -9999,8 +10013,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17" t="s">
+      <c r="M33" s="24"/>
+      <c r="N33" s="16" t="s">
         <v>93</v>
       </c>
       <c r="O33" s="15"/>
@@ -10011,8 +10025,8 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="17" t="s">
+      <c r="V33" s="24"/>
+      <c r="W33" s="16" t="s">
         <v>85</v>
       </c>
       <c r="X33" s="15"/>
@@ -10023,8 +10037,8 @@
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="17" t="s">
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="16" t="s">
         <v>85</v>
       </c>
       <c r="AG33" s="15"/>
@@ -10038,7 +10052,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="15"/>
@@ -10050,7 +10064,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>81</v>
       </c>
       <c r="O34" s="15"/>
@@ -10061,8 +10075,8 @@
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="17" t="s">
+      <c r="V34" s="24"/>
+      <c r="W34" s="16" t="s">
         <v>86</v>
       </c>
       <c r="X34" s="15"/>
@@ -10073,8 +10087,8 @@
       </c>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="17" t="s">
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="16" t="s">
         <v>86</v>
       </c>
       <c r="AG34" s="15"/>
@@ -10087,8 +10101,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="15"/>
@@ -10099,8 +10113,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="24"/>
+      <c r="N35" s="16" t="s">
         <v>83</v>
       </c>
       <c r="O35" s="15"/>
@@ -10111,8 +10125,8 @@
       </c>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="17" t="s">
+      <c r="V35" s="24"/>
+      <c r="W35" s="16" t="s">
         <v>104</v>
       </c>
       <c r="X35" s="15"/>
@@ -10123,8 +10137,8 @@
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="17" t="s">
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="16" t="s">
         <v>103</v>
       </c>
       <c r="AG35" s="15"/>
@@ -10137,7 +10151,7 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -10147,62 +10161,50 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="11"/>
-      <c r="S36" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AB36" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="S37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="11"/>
+      <c r="AB37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="11"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
@@ -10210,8 +10212,8 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="15"/>
@@ -10222,21 +10224,29 @@
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17" t="s">
+      <c r="M38" s="24"/>
+      <c r="N38" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="S38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W38" s="11"/>
-      <c r="AB38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="11"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -10244,8 +10254,8 @@
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
@@ -10256,29 +10266,30 @@
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17" t="s">
+      <c r="M39" s="24"/>
+      <c r="N39" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
+      <c r="S39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="11"/>
+      <c r="AB39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
@@ -10286,8 +10297,8 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="15"/>
@@ -10298,57 +10309,54 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17" t="s">
+      <c r="M40" s="24"/>
+      <c r="N40" s="16" t="s">
         <v>109</v>
       </c>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="S40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="11"/>
-      <c r="AB40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
+      <c r="S40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W40" s="13"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AB40" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="AF40" s="5"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
       <c r="S41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W41" s="13"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="W41" s="5"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
       <c r="AB41" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF41" s="5"/>
       <c r="AG41" s="2"/>
@@ -10361,8 +10369,8 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="15"/>
@@ -10373,22 +10381,22 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17" t="s">
+      <c r="M42" s="24"/>
+      <c r="N42" s="16" t="s">
         <v>85</v>
       </c>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
       <c r="S42" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W42" s="5"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AB42" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="2"/>
@@ -10401,8 +10409,8 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
@@ -10413,22 +10421,22 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17" t="s">
+      <c r="M43" s="24"/>
+      <c r="N43" s="16" t="s">
         <v>86</v>
       </c>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="S43" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AB43" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF43" s="5"/>
       <c r="AG43" s="2"/>
@@ -10441,8 +10449,8 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="15"/>
@@ -10453,22 +10461,22 @@
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17" t="s">
+      <c r="M44" s="24"/>
+      <c r="N44" s="16" t="s">
         <v>108</v>
       </c>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
       <c r="S44" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W44" s="5"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AB44" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF44" s="5"/>
       <c r="AG44" s="2"/>
@@ -10476,31 +10484,31 @@
       <c r="AI44" s="2"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="S45" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="W45" s="5"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AB45" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="AF45" s="5"/>
       <c r="AG45" s="2"/>
@@ -10516,20 +10524,22 @@
         <v>1</v>
       </c>
       <c r="N46" s="11"/>
-      <c r="S46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W46" s="5"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AB46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
@@ -10580,22 +10590,6 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="11"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -10694,10 +10688,10 @@
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="13"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -10712,10 +10706,10 @@
       <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -10730,31 +10724,237 @@
       <c r="Q56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="280">
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="276">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J16:M16"/>
@@ -10771,246 +10971,36 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="E43:H43"/>
     <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/CLI.xlsx
+++ b/CLI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4165BA48-5E4F-4364-B1A5-51FEB3C918DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C7E8B-789F-49D6-B788-A0D2A8FADBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{34B683BC-2245-4D05-9364-220B19A460DB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="197">
   <si>
     <t>RT-HH-01</t>
   </si>
@@ -570,6 +570,66 @@
   </si>
   <si>
     <t>router-id 1.1.2.4</t>
+  </si>
+  <si>
+    <t>OSPF-Prozess starten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Eindeutige Router-ID setzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface zum OSPF Area 0 hinzufügen</t>
+  </si>
+  <si>
+    <t>Interface zum OSPF Area 1 hinzufügen</t>
+  </si>
+  <si>
+    <t>Domain-Name für das Gerät festlegen</t>
+  </si>
+  <si>
+    <t>RSA-Schlüssel für SSH generieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Benutzer mit verschlüsseltem Passwort anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	VTY (SSH) Leitungen konfigurieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lokale Benutzerdatenbank für Login nutzen</t>
+  </si>
+  <si>
+    <t>Nur SSH-Verbindungen erlauben</t>
+  </si>
+  <si>
+    <t>Konfiguration speichern</t>
+  </si>
+  <si>
+    <t>Interface zum OSPF Area 2 hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface zum OSPF Area 3 hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface zum OSPF Area 4 hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	OSPFv3-Prozess starten</t>
+  </si>
+  <si>
+    <t>Eindeutige Router-ID festlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface dem OSPFv3 Area 1 zuweisen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface dem OSPFv3 Area 2 zuweisen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface dem OSPFv3 Area 3 zuweisen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Interface dem OSPFv3 Area 4 zuweisen</t>
   </si>
 </sst>
 </file>
@@ -722,7 +782,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,21 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81B47-BD4C-4A16-B0C6-3253E569DD17}">
   <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1120,64 +1180,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1208,10 +1268,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -1219,7 +1279,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -1230,7 +1290,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -1241,7 +1301,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -1253,10 +1313,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -1264,7 +1324,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1275,7 +1335,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -1286,7 +1346,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -1298,7 +1358,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1309,7 +1369,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1320,7 +1380,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -1331,7 +1391,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -1364,14 +1424,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1380,7 +1440,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1391,7 +1451,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1402,7 +1462,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -1413,7 +1473,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -1425,7 +1485,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1436,7 +1496,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1447,7 +1507,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -1458,7 +1518,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -1491,14 +1551,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1507,7 +1567,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -1520,7 +1580,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -1533,7 +1593,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -1546,7 +1606,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -1560,7 +1620,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -1573,7 +1633,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -1586,7 +1646,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -1599,7 +1659,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -1634,14 +1694,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1649,8 +1709,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -1663,7 +1723,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -1676,7 +1736,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -1689,7 +1749,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -1702,8 +1762,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -1714,8 +1774,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -1726,8 +1786,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="16"/>
+      <c r="W14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -1738,8 +1798,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="16" t="s">
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -1752,8 +1812,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -1764,8 +1824,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="16" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -1776,8 +1836,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="16" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -1788,8 +1848,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="16" t="s">
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -1802,8 +1862,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -1814,8 +1874,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -1826,8 +1886,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="16" t="s">
+      <c r="V16" s="16"/>
+      <c r="W16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -1838,8 +1898,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="16" t="s">
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -1852,8 +1912,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -1864,8 +1924,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="16" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -1876,8 +1936,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="16"/>
+      <c r="W17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -1888,8 +1948,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="16" t="s">
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -1924,14 +1984,14 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1940,7 +2000,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="15"/>
@@ -1953,7 +2013,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O19" s="15"/>
@@ -1966,7 +2026,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X19" s="15"/>
@@ -1979,7 +2039,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
-      <c r="AF19" s="16" t="s">
+      <c r="AF19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG19" s="15"/>
@@ -1992,8 +2052,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="15"/>
@@ -2006,7 +2066,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="15"/>
@@ -2019,7 +2079,7 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X20" s="15"/>
@@ -2032,7 +2092,7 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="16" t="s">
+      <c r="AF20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG20" s="15"/>
@@ -2046,7 +2106,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15"/>
@@ -2059,7 +2119,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="15"/>
@@ -2072,7 +2132,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X21" s="15"/>
@@ -2085,7 +2145,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AF21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG21" s="15"/>
@@ -2098,8 +2158,8 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="15"/>
@@ -2112,7 +2172,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O22" s="15"/>
@@ -2125,7 +2185,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="16" t="s">
+      <c r="W22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X22" s="15"/>
@@ -2138,7 +2198,7 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="16" t="s">
+      <c r="AF22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG22" s="15"/>
@@ -2173,14 +2233,14 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -2202,7 +2262,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="15"/>
@@ -2215,7 +2275,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X24" s="15"/>
@@ -2228,7 +2288,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG24" s="15"/>
@@ -2255,7 +2315,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O25" s="15"/>
@@ -2268,7 +2328,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X25" s="15"/>
@@ -2281,7 +2341,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG25" s="15"/>
@@ -2308,7 +2368,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O26" s="15"/>
@@ -2321,7 +2381,7 @@
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X26" s="15"/>
@@ -2334,7 +2394,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="16" t="s">
+      <c r="AF26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG26" s="15"/>
@@ -2348,7 +2408,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -2361,7 +2421,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -2374,7 +2434,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="16" t="s">
+      <c r="W27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -2387,7 +2447,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="16" t="s">
+      <c r="AF27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -2422,14 +2482,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -2438,7 +2498,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="15"/>
@@ -2451,7 +2511,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -2464,7 +2524,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -2477,7 +2537,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AF29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -2491,7 +2551,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="15"/>
@@ -2504,7 +2564,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -2517,7 +2577,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="16" t="s">
+      <c r="W30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -2530,7 +2590,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="16" t="s">
+      <c r="AF30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -2544,7 +2604,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15"/>
@@ -2557,7 +2617,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -2570,7 +2630,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="16" t="s">
+      <c r="W31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -2583,7 +2643,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="16" t="s">
+      <c r="AF31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -2597,7 +2657,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="15"/>
@@ -2610,7 +2670,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="15"/>
@@ -2623,7 +2683,7 @@
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="16" t="s">
+      <c r="W32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X32" s="15"/>
@@ -2636,7 +2696,7 @@
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
-      <c r="AF32" s="16" t="s">
+      <c r="AF32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG32" s="15"/>
@@ -2671,14 +2731,14 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
@@ -2687,7 +2747,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="15"/>
@@ -2700,7 +2760,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="15"/>
@@ -2713,7 +2773,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="16" t="s">
+      <c r="W34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X34" s="15"/>
@@ -2726,7 +2786,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
-      <c r="AF34" s="16" t="s">
+      <c r="AF34" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG34" s="15"/>
@@ -2741,7 +2801,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="15"/>
@@ -2754,7 +2814,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O35" s="15"/>
@@ -2767,7 +2827,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="16" t="s">
+      <c r="W35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X35" s="15"/>
@@ -2780,7 +2840,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="16" t="s">
+      <c r="AF35" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG35" s="15"/>
@@ -2795,7 +2855,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="15"/>
@@ -2808,7 +2868,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O36" s="15"/>
@@ -2821,7 +2881,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="16" t="s">
+      <c r="W36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X36" s="15"/>
@@ -2834,7 +2894,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="16" t="s">
+      <c r="AF36" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG36" s="15"/>
@@ -2849,7 +2909,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="15"/>
@@ -2862,7 +2922,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O37" s="15"/>
@@ -2875,7 +2935,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="16" t="s">
+      <c r="W37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X37" s="15"/>
@@ -2888,7 +2948,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="16" t="s">
+      <c r="AF37" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG37" s="15"/>
@@ -2924,14 +2984,14 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -2940,7 +3000,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="15"/>
@@ -2953,7 +3013,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="17" t="s">
         <v>62</v>
       </c>
       <c r="O39" s="15"/>
@@ -2966,7 +3026,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="16" t="s">
+      <c r="W39" s="17" t="s">
         <v>63</v>
       </c>
       <c r="X39" s="15"/>
@@ -2979,7 +3039,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="16" t="s">
+      <c r="AF39" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AG39" s="15"/>
@@ -2993,7 +3053,7 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3004,8 +3064,8 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
@@ -3015,8 +3075,8 @@
       </c>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="17"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
@@ -3026,8 +3086,8 @@
       </c>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="17"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
@@ -3038,7 +3098,7 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3049,21 +3109,21 @@
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="24"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>129</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
-      <c r="V41" s="24"/>
+      <c r="V41" s="16"/>
       <c r="W41" s="11"/>
       <c r="AB41" s="15" t="s">
         <v>134</v>
       </c>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
-      <c r="AE41" s="24"/>
+      <c r="AE41" s="16"/>
       <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
@@ -3072,7 +3132,7 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="24"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3083,21 +3143,21 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="24"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="11"/>
       <c r="S42" s="15" t="s">
         <v>130</v>
       </c>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
-      <c r="V42" s="24"/>
+      <c r="V42" s="16"/>
       <c r="W42" s="11"/>
       <c r="AB42" s="15" t="s">
         <v>135</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
-      <c r="AE42" s="24"/>
+      <c r="AE42" s="16"/>
       <c r="AF42" s="11"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
@@ -3106,7 +3166,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="24"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3117,21 +3177,21 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="24"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="11"/>
       <c r="S43" s="15" t="s">
         <v>131</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="24"/>
+      <c r="V43" s="16"/>
       <c r="W43" s="11"/>
       <c r="AB43" s="15" t="s">
         <v>136</v>
       </c>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
-      <c r="AE43" s="24"/>
+      <c r="AE43" s="16"/>
       <c r="AF43" s="11"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
@@ -3144,10 +3204,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -3158,8 +3218,8 @@
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="17"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -3169,8 +3229,8 @@
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="24"/>
-      <c r="AF44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="17"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
@@ -3469,6 +3529,268 @@
     </row>
   </sheetData>
   <mergeCells count="286">
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AF35:AJ35"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="AF37:AJ37"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="W44:AA44"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
     <mergeCell ref="S53:V53"/>
     <mergeCell ref="AB53:AE53"/>
     <mergeCell ref="S52:V52"/>
@@ -3493,268 +3815,6 @@
     <mergeCell ref="N40:R40"/>
     <mergeCell ref="N30:R30"/>
     <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="W44:AA44"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="AF36:AJ36"/>
-    <mergeCell ref="AF37:AJ37"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3788,81 +3848,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3871,7 +3931,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -3881,7 +3941,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -3891,7 +3951,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -3901,7 +3961,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -3913,7 +3973,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -3923,7 +3983,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -3933,7 +3993,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -3943,7 +4003,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -3955,7 +4015,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -3965,7 +4025,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -3975,7 +4035,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -3985,44 +4045,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -4031,7 +4091,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4041,7 +4101,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -4051,7 +4111,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -4061,7 +4121,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -4073,7 +4133,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4083,7 +4143,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -4093,7 +4153,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -4103,44 +4163,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -4149,7 +4209,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -4161,7 +4221,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -4173,7 +4233,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -4185,7 +4245,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -4199,7 +4259,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -4211,7 +4271,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -4223,7 +4283,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -4235,7 +4295,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -4243,38 +4303,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -4283,7 +4343,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -4295,7 +4355,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -4307,7 +4367,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -4319,7 +4379,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -4332,8 +4392,8 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="15"/>
@@ -4344,8 +4404,8 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O14" s="15"/>
@@ -4356,8 +4416,8 @@
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="16"/>
+      <c r="W14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X14" s="15"/>
@@ -4368,8 +4428,8 @@
       </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="16" t="s">
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG14" s="15"/>
@@ -4382,8 +4442,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="15"/>
@@ -4394,8 +4454,8 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="16" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O15" s="15"/>
@@ -4406,8 +4466,8 @@
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="16" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X15" s="15"/>
@@ -4418,8 +4478,8 @@
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="16" t="s">
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG15" s="15"/>
@@ -4432,8 +4492,8 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="15"/>
@@ -4444,8 +4504,8 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O16" s="15"/>
@@ -4456,8 +4516,8 @@
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="16" t="s">
+      <c r="V16" s="16"/>
+      <c r="W16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X16" s="15"/>
@@ -4468,8 +4528,8 @@
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="16" t="s">
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG16" s="15"/>
@@ -4482,8 +4542,8 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F17" s="15"/>
@@ -4494,8 +4554,8 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="16" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O17" s="15"/>
@@ -4506,8 +4566,8 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="16"/>
+      <c r="W17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X17" s="15"/>
@@ -4518,8 +4578,8 @@
       </c>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="16" t="s">
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG17" s="15"/>
@@ -4527,44 +4587,44 @@
       <c r="AI17" s="15"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="15"/>
@@ -4573,7 +4633,7 @@
       <c r="J19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O19" s="15"/>
@@ -4584,8 +4644,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="16"/>
+      <c r="W19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="X19" s="15"/>
@@ -4594,7 +4654,7 @@
       <c r="AB19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF19" s="16" t="s">
+      <c r="AF19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AG19" s="15"/>
@@ -4605,7 +4665,7 @@
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="15"/>
@@ -4614,7 +4674,7 @@
       <c r="J20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="O20" s="15"/>
@@ -4625,8 +4685,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="X20" s="15"/>
@@ -4635,7 +4695,7 @@
       <c r="AB20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF20" s="16" t="s">
+      <c r="AF20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="15"/>
@@ -4649,7 +4709,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="15"/>
@@ -4661,7 +4721,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O21" s="15"/>
@@ -4673,7 +4733,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X21" s="15"/>
@@ -4685,7 +4745,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AF21" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG21" s="15"/>
@@ -4693,38 +4753,38 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -4732,8 +4792,8 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="15"/>
@@ -4744,8 +4804,8 @@
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="16" t="s">
+      <c r="M23" s="16"/>
+      <c r="N23" s="17" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="15"/>
@@ -4756,8 +4816,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="16" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="17" t="s">
         <v>99</v>
       </c>
       <c r="X23" s="15"/>
@@ -4768,8 +4828,8 @@
       </c>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="16" t="s">
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17" t="s">
         <v>101</v>
       </c>
       <c r="AG23" s="15"/>
@@ -4783,7 +4843,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="15"/>
@@ -4795,7 +4855,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O24" s="15"/>
@@ -4807,7 +4867,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X24" s="15"/>
@@ -4819,7 +4879,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG24" s="15"/>
@@ -4832,8 +4892,8 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="15"/>
@@ -4844,8 +4904,8 @@
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="16" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O25" s="15"/>
@@ -4856,8 +4916,8 @@
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="16" t="s">
+      <c r="V25" s="16"/>
+      <c r="W25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="X25" s="15"/>
@@ -4868,8 +4928,8 @@
       </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AG25" s="15"/>
@@ -4877,38 +4937,38 @@
       <c r="AI25" s="15"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -4916,8 +4976,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="15"/>
@@ -4928,8 +4988,8 @@
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O27" s="15"/>
@@ -4940,8 +5000,8 @@
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="16" t="s">
+      <c r="V27" s="16"/>
+      <c r="W27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="X27" s="15"/>
@@ -4952,8 +5012,8 @@
       </c>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="16" t="s">
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="AG27" s="15"/>
@@ -4967,7 +5027,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="15"/>
@@ -4979,7 +5039,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="15"/>
@@ -4990,8 +5050,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="16" t="s">
+      <c r="V28" s="16"/>
+      <c r="W28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="X28" s="15"/>
@@ -5002,8 +5062,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="16" t="s">
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="AG28" s="15"/>
@@ -5016,8 +5076,8 @@
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="15"/>
@@ -5028,8 +5088,8 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O29" s="15"/>
@@ -5040,8 +5100,8 @@
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="16" t="s">
+      <c r="V29" s="16"/>
+      <c r="W29" s="17" t="s">
         <v>104</v>
       </c>
       <c r="X29" s="15"/>
@@ -5052,8 +5112,8 @@
       </c>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="17" t="s">
         <v>103</v>
       </c>
       <c r="AG29" s="15"/>
@@ -5061,34 +5121,34 @@
       <c r="AI29" s="15"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="25"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="21"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="25"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="21"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
@@ -5100,8 +5160,8 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="15"/>
@@ -5112,8 +5172,8 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="16" t="s">
+      <c r="M31" s="16"/>
+      <c r="N31" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O31" s="15"/>
@@ -5134,8 +5194,8 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="15"/>
@@ -5146,25 +5206,25 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="16"/>
+      <c r="N32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
       <c r="W32" s="13"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -5176,8 +5236,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="15"/>
@@ -5188,8 +5248,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="16" t="s">
+      <c r="M33" s="16"/>
+      <c r="N33" s="17" t="s">
         <v>109</v>
       </c>
       <c r="O33" s="15"/>
@@ -5200,33 +5260,33 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="24"/>
+      <c r="V33" s="16"/>
       <c r="W33" s="11"/>
       <c r="AB33" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="24"/>
+      <c r="AE33" s="16"/>
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -5250,8 +5310,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="15"/>
@@ -5262,8 +5322,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O35" s="15"/>
@@ -5296,8 +5356,8 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="15"/>
@@ -5308,8 +5368,8 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="16" t="s">
+      <c r="M36" s="16"/>
+      <c r="N36" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O36" s="15"/>
@@ -5336,8 +5396,8 @@
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="15"/>
@@ -5348,8 +5408,8 @@
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="16" t="s">
+      <c r="M37" s="16"/>
+      <c r="N37" s="17" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="15"/>
@@ -5377,18 +5437,18 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="25"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -5439,18 +5499,18 @@
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="13"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -5476,14 +5536,14 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="11"/>
       <c r="J41" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="24"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="11"/>
       <c r="S41" s="15" t="s">
         <v>115</v>
@@ -5684,6 +5744,263 @@
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="J49:M49"/>
     <mergeCell ref="S39:V39"/>
@@ -5708,263 +6025,6 @@
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="J24:M24"/>
     <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AB22:AE22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5975,8 +6035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF66C8F-F7E7-4E47-AB56-867EE702083D}">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29:AA29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5984,79 +6044,84 @@
     <col min="1" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.42578125" style="1"/>
     <col min="13" max="13" width="22" style="1" customWidth="1"/>
     <col min="14" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
     <col min="19" max="21" width="11.42578125" style="1"/>
     <col min="22" max="22" width="23" style="1" customWidth="1"/>
-    <col min="23" max="30" width="11.42578125" style="1"/>
+    <col min="23" max="25" width="11.42578125" style="1"/>
+    <col min="26" max="26" width="18.140625" style="1" customWidth="1"/>
+    <col min="27" max="30" width="11.42578125" style="1"/>
     <col min="31" max="31" width="21.85546875" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" style="1"/>
+    <col min="32" max="34" width="11.42578125" style="1"/>
+    <col min="35" max="35" width="17.85546875" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -6087,10 +6152,10 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="2"/>
       <c r="J3" s="15" t="s">
         <v>1</v>
@@ -6098,7 +6163,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -6109,7 +6174,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -6120,7 +6185,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -6132,10 +6197,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="15" t="s">
         <v>1</v>
@@ -6143,7 +6208,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -6154,7 +6219,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -6165,7 +6230,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -6177,7 +6242,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -6188,7 +6253,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -6199,7 +6264,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -6210,7 +6275,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -6243,14 +6308,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -6259,7 +6324,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6270,7 +6335,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -6281,7 +6346,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -6292,7 +6357,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -6304,7 +6369,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6315,7 +6380,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -6326,7 +6391,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -6337,7 +6402,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -6370,14 +6435,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -6386,7 +6451,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -6399,7 +6464,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -6412,7 +6477,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -6425,7 +6490,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -6439,7 +6504,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -6452,7 +6517,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -6465,7 +6530,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -6478,7 +6543,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -6513,14 +6578,14 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -6528,8 +6593,8 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -6542,7 +6607,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -6555,7 +6620,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -6568,7 +6633,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -6615,29 +6680,37 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="11"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="11"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="11"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="11" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -6645,29 +6718,37 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="J16" s="15" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="S16" s="15" t="s">
         <v>166</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="11"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="AB16" s="15" t="s">
         <v>167</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="11"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="11" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
@@ -6709,8 +6790,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -6721,8 +6802,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -6733,8 +6814,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="16"/>
+      <c r="W18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -6745,8 +6826,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="16" t="s">
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -6759,8 +6840,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -6771,8 +6852,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="16" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -6783,8 +6864,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="16"/>
+      <c r="W19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -6795,8 +6876,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="16" t="s">
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -6809,8 +6890,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -6821,8 +6902,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="16" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -6833,8 +6914,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -6845,8 +6926,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="16" t="s">
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -6859,8 +6940,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -6871,8 +6952,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="16" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -6883,8 +6964,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="16" t="s">
+      <c r="V21" s="16"/>
+      <c r="W21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -6895,8 +6976,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -6931,14 +7012,14 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -6947,7 +7028,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="15"/>
@@ -6960,7 +7041,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="15"/>
@@ -6973,7 +7054,7 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="16" t="s">
+      <c r="W23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X23" s="15"/>
@@ -6986,7 +7067,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="16" t="s">
+      <c r="AF23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG23" s="15"/>
@@ -6999,8 +7080,8 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="15"/>
@@ -7013,7 +7094,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O24" s="15"/>
@@ -7026,7 +7107,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X24" s="15"/>
@@ -7039,7 +7120,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG24" s="15"/>
@@ -7053,7 +7134,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15"/>
@@ -7066,7 +7147,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O25" s="15"/>
@@ -7079,7 +7160,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X25" s="15"/>
@@ -7092,7 +7173,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG25" s="15"/>
@@ -7105,29 +7186,37 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="J26" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="11"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="S26" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="11"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AB26" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="11"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -7135,8 +7224,8 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="15"/>
@@ -7149,7 +7238,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O27" s="15"/>
@@ -7162,7 +7251,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="16" t="s">
+      <c r="W27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X27" s="15"/>
@@ -7175,7 +7264,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="16" t="s">
+      <c r="AF27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG27" s="15"/>
@@ -7210,14 +7299,14 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -7239,7 +7328,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O29" s="15"/>
@@ -7252,7 +7341,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X29" s="15"/>
@@ -7265,7 +7354,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AF29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG29" s="15"/>
@@ -7292,7 +7381,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O30" s="15"/>
@@ -7305,7 +7394,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="16" t="s">
+      <c r="W30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X30" s="15"/>
@@ -7318,7 +7407,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="16" t="s">
+      <c r="AF30" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG30" s="15"/>
@@ -7345,7 +7434,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O31" s="15"/>
@@ -7358,7 +7447,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="16" t="s">
+      <c r="W31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X31" s="15"/>
@@ -7371,7 +7460,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="16" t="s">
+      <c r="AF31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="15"/>
@@ -7384,8 +7473,10 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -7395,22 +7486,28 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="11"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="S32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="11"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AB32" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="11"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -7419,7 +7516,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="15"/>
@@ -7432,7 +7529,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O33" s="15"/>
@@ -7445,7 +7542,7 @@
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="16" t="s">
+      <c r="W33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X33" s="15"/>
@@ -7458,7 +7555,7 @@
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
-      <c r="AF33" s="16" t="s">
+      <c r="AF33" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="15"/>
@@ -7493,14 +7590,14 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
@@ -7509,7 +7606,7 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="15"/>
@@ -7522,7 +7619,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O35" s="15"/>
@@ -7535,7 +7632,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="16" t="s">
+      <c r="W35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X35" s="15"/>
@@ -7548,7 +7645,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="16" t="s">
+      <c r="AF35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG35" s="15"/>
@@ -7562,7 +7659,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="15"/>
@@ -7575,7 +7672,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O36" s="15"/>
@@ -7588,7 +7685,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="16" t="s">
+      <c r="W36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X36" s="15"/>
@@ -7601,7 +7698,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
-      <c r="AF36" s="16" t="s">
+      <c r="AF36" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG36" s="15"/>
@@ -7615,7 +7712,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="15"/>
@@ -7628,7 +7725,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O37" s="15"/>
@@ -7641,7 +7738,7 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
-      <c r="W37" s="16" t="s">
+      <c r="W37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X37" s="15"/>
@@ -7654,7 +7751,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
-      <c r="AF37" s="16" t="s">
+      <c r="AF37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG37" s="15"/>
@@ -7667,29 +7764,37 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="J38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="11"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="S38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="11"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="AB38" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="11"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -7698,7 +7803,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="15"/>
@@ -7711,7 +7816,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O39" s="15"/>
@@ -7724,7 +7829,7 @@
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
-      <c r="W39" s="16" t="s">
+      <c r="W39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X39" s="15"/>
@@ -7737,7 +7842,7 @@
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
-      <c r="AF39" s="16" t="s">
+      <c r="AF39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG39" s="15"/>
@@ -7772,14 +7877,14 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
@@ -7788,7 +7893,7 @@
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="15"/>
@@ -7801,7 +7906,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="16" t="s">
+      <c r="N41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O41" s="15"/>
@@ -7814,7 +7919,7 @@
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="16" t="s">
+      <c r="W41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="X41" s="15"/>
@@ -7827,7 +7932,7 @@
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="15"/>
-      <c r="AF41" s="16" t="s">
+      <c r="AF41" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AG41" s="15"/>
@@ -7842,7 +7947,7 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="15"/>
@@ -7855,7 +7960,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="16" t="s">
+      <c r="N42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="O42" s="15"/>
@@ -7868,7 +7973,7 @@
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
-      <c r="W42" s="16" t="s">
+      <c r="W42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="X42" s="15"/>
@@ -7881,7 +7986,7 @@
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
-      <c r="AF42" s="16" t="s">
+      <c r="AF42" s="17" t="s">
         <v>44</v>
       </c>
       <c r="AG42" s="15"/>
@@ -7896,7 +8001,7 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15"/>
@@ -7909,7 +8014,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="16" t="s">
+      <c r="N43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O43" s="15"/>
@@ -7922,7 +8027,7 @@
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
-      <c r="W43" s="16" t="s">
+      <c r="W43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="X43" s="15"/>
@@ -7935,7 +8040,7 @@
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
       <c r="AE43" s="15"/>
-      <c r="AF43" s="16" t="s">
+      <c r="AF43" s="17" t="s">
         <v>45</v>
       </c>
       <c r="AG43" s="15"/>
@@ -7949,29 +8054,37 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="J44" s="15" t="s">
         <v>170</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="11"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="S44" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="11"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="AB44" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="24"/>
-      <c r="AF44" s="11"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="11" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
@@ -7980,7 +8093,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="15"/>
@@ -7993,7 +8106,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="16" t="s">
+      <c r="N45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="15"/>
@@ -8006,7 +8119,7 @@
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="16" t="s">
+      <c r="W45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="X45" s="15"/>
@@ -8019,7 +8132,7 @@
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
-      <c r="AF45" s="16" t="s">
+      <c r="AF45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AG45" s="15"/>
@@ -8068,7 +8181,9 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -8079,7 +8194,9 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -8090,7 +8207,9 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="5"/>
+      <c r="W47" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
@@ -8100,7 +8219,9 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
-      <c r="AF47" s="5"/>
+      <c r="AF47" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
@@ -8109,7 +8230,9 @@
       <c r="A48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -8117,21 +8240,27 @@
       <c r="J48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N48" s="5"/>
+      <c r="N48" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="S48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W48" s="5"/>
+      <c r="W48" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AB48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AF48" s="5"/>
+      <c r="AF48" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
@@ -8140,7 +8269,9 @@
       <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -8148,21 +8279,27 @@
       <c r="J49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="S49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W49" s="5"/>
+      <c r="W49" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AB49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AF49" s="5"/>
+      <c r="AF49" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
@@ -8171,7 +8308,9 @@
       <c r="A50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -8179,21 +8318,27 @@
       <c r="J50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="S50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="W50" s="5"/>
+      <c r="W50" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AB50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF50" s="5"/>
+      <c r="AF50" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
@@ -8202,7 +8347,9 @@
       <c r="A51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -8210,21 +8357,27 @@
       <c r="J51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="S51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W51" s="5"/>
+      <c r="W51" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AB51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AF51" s="5"/>
+      <c r="AF51" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
@@ -8233,7 +8386,9 @@
       <c r="A52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -8241,21 +8396,27 @@
       <c r="J52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="S52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W52" s="5"/>
+      <c r="W52" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AB52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AF52" s="5"/>
+      <c r="AF52" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
@@ -8267,7 +8428,9 @@
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -8278,21 +8441,27 @@
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="S53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W53" s="5"/>
+      <c r="W53" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AB53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AF53" s="5"/>
+      <c r="AF53" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
@@ -8314,18 +8483,18 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
       <c r="W54" s="7"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
@@ -8367,228 +8536,30 @@
     </row>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="AF41:AJ41"/>
-    <mergeCell ref="AF45:AJ45"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="AF42:AJ42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AF43:AJ43"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="S54:V54"/>
     <mergeCell ref="AB54:AE54"/>
     <mergeCell ref="A15:D15"/>
@@ -8613,30 +8584,228 @@
     <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="AB36:AE36"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AF42:AJ42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="AF41:AJ41"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8646,105 +8815,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58D888-97B0-4BB4-B0DF-40F9EA743ADA}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView topLeftCell="N24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AE47"/>
+    <sheetView topLeftCell="P21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19:AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.42578125" style="1"/>
     <col min="13" max="13" width="22.140625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="18.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" customWidth="1"/>
     <col min="19" max="21" width="11.42578125" style="1"/>
     <col min="22" max="22" width="22.28515625" style="1" customWidth="1"/>
-    <col min="23" max="26" width="11.42578125" style="1"/>
-    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="23" max="25" width="11.42578125" style="1"/>
+    <col min="26" max="26" width="17.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" customWidth="1"/>
     <col min="28" max="30" width="11.42578125" style="1"/>
     <col min="31" max="31" width="21.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" style="1"/>
+    <col min="32" max="34" width="11.42578125" style="1"/>
+    <col min="35" max="35" width="18.28515625" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="10"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -8753,7 +8927,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8763,7 +8937,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -8773,7 +8947,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -8783,7 +8957,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
       <c r="AI3" s="15"/>
@@ -8795,7 +8969,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -8805,7 +8979,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -8815,7 +8989,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -8825,7 +8999,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
@@ -8837,7 +9011,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -8847,7 +9021,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -8857,7 +9031,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -8867,44 +9041,44 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="17"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -8913,7 +9087,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -8923,7 +9097,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -8933,7 +9107,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -8943,7 +9117,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -8955,7 +9129,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -8965,7 +9139,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -8975,7 +9149,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -8985,44 +9159,44 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="17"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -9031,7 +9205,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="15"/>
@@ -9043,7 +9217,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="15"/>
@@ -9055,7 +9229,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="15"/>
@@ -9067,7 +9241,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AF10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AG10" s="15"/>
@@ -9081,7 +9255,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="15"/>
@@ -9093,7 +9267,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="15"/>
@@ -9105,7 +9279,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="15"/>
@@ -9117,7 +9291,7 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="16" t="s">
+      <c r="AF11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="15"/>
@@ -9125,38 +9299,38 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -9165,7 +9339,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="15"/>
@@ -9177,7 +9351,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="15"/>
@@ -9189,7 +9363,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="X13" s="15"/>
@@ -9201,7 +9375,7 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AF13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="AG13" s="15"/>
@@ -9248,29 +9422,37 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="J15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="11"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="S15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="11"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="AB15" s="15" t="s">
         <v>163</v>
       </c>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="11"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="11" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -9278,29 +9460,37 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="J16" s="15" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="S16" s="15" t="s">
         <v>175</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="11"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="AB16" s="15" t="s">
         <v>176</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="11"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="11" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
@@ -9342,8 +9532,8 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="15"/>
@@ -9354,8 +9544,8 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O18" s="15"/>
@@ -9366,8 +9556,8 @@
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="16"/>
+      <c r="W18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="X18" s="15"/>
@@ -9378,8 +9568,8 @@
       </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="16" t="s">
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AG18" s="15"/>
@@ -9392,8 +9582,8 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F19" s="15"/>
@@ -9404,8 +9594,8 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="16" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="O19" s="15"/>
@@ -9416,8 +9606,8 @@
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="16"/>
+      <c r="W19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="X19" s="15"/>
@@ -9428,8 +9618,8 @@
       </c>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="16" t="s">
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="17" t="s">
         <v>152</v>
       </c>
       <c r="AG19" s="15"/>
@@ -9442,8 +9632,8 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F20" s="15"/>
@@ -9454,8 +9644,8 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="16" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O20" s="15"/>
@@ -9466,8 +9656,8 @@
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="X20" s="15"/>
@@ -9478,8 +9668,8 @@
       </c>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="16" t="s">
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AG20" s="15"/>
@@ -9492,8 +9682,8 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F21" s="15"/>
@@ -9504,8 +9694,8 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="16" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="O21" s="15"/>
@@ -9516,8 +9706,8 @@
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="16" t="s">
+      <c r="V21" s="16"/>
+      <c r="W21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="X21" s="15"/>
@@ -9528,8 +9718,8 @@
       </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="16" t="s">
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AG21" s="15"/>
@@ -9537,44 +9727,44 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="15"/>
@@ -9583,7 +9773,7 @@
       <c r="J23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O23" s="15"/>
@@ -9594,8 +9784,8 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="16" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="X23" s="15"/>
@@ -9604,7 +9794,7 @@
       <c r="AB23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" s="16" t="s">
+      <c r="AF23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AG23" s="15"/>
@@ -9615,7 +9805,7 @@
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="15"/>
@@ -9624,7 +9814,7 @@
       <c r="J24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="O24" s="15"/>
@@ -9635,8 +9825,8 @@
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="16" t="s">
+      <c r="V24" s="16"/>
+      <c r="W24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="X24" s="15"/>
@@ -9645,7 +9835,7 @@
       <c r="AB24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF24" s="16" t="s">
+      <c r="AF24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AG24" s="15"/>
@@ -9659,7 +9849,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="15"/>
@@ -9671,7 +9861,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O25" s="15"/>
@@ -9683,7 +9873,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X25" s="15"/>
@@ -9695,7 +9885,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="16" t="s">
+      <c r="AF25" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG25" s="15"/>
@@ -9708,8 +9898,10 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -9718,56 +9910,62 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="11"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="S26" s="15" t="s">
         <v>171</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="11"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="AB26" s="15" t="s">
         <v>172</v>
       </c>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="11"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -9775,8 +9973,8 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="15"/>
@@ -9787,8 +9985,8 @@
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="16" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="17" t="s">
         <v>92</v>
       </c>
       <c r="O28" s="15"/>
@@ -9799,8 +9997,8 @@
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="16" t="s">
+      <c r="V28" s="16"/>
+      <c r="W28" s="17" t="s">
         <v>99</v>
       </c>
       <c r="X28" s="15"/>
@@ -9811,8 +10009,8 @@
       </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="16" t="s">
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="17" t="s">
         <v>101</v>
       </c>
       <c r="AG28" s="15"/>
@@ -9826,7 +10024,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="15"/>
@@ -9838,7 +10036,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="15"/>
@@ -9850,7 +10048,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="X29" s="15"/>
@@ -9862,7 +10060,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="16" t="s">
+      <c r="AF29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AG29" s="15"/>
@@ -9875,8 +10073,8 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="15"/>
@@ -9887,8 +10085,8 @@
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O30" s="15"/>
@@ -9899,8 +10097,8 @@
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="16" t="s">
+      <c r="V30" s="16"/>
+      <c r="W30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="X30" s="15"/>
@@ -9911,8 +10109,8 @@
       </c>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="16" t="s">
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="AG30" s="15"/>
@@ -9925,8 +10123,10 @@
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -9935,8 +10135,10 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="5"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -9945,8 +10147,10 @@
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="5"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -9955,45 +10159,47 @@
       </c>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="5"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -10001,8 +10207,8 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F33" s="15"/>
@@ -10013,8 +10219,8 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="16" t="s">
+      <c r="M33" s="16"/>
+      <c r="N33" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O33" s="15"/>
@@ -10025,8 +10231,8 @@
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="16" t="s">
+      <c r="V33" s="16"/>
+      <c r="W33" s="17" t="s">
         <v>85</v>
       </c>
       <c r="X33" s="15"/>
@@ -10037,8 +10243,8 @@
       </c>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="16" t="s">
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="17" t="s">
         <v>85</v>
       </c>
       <c r="AG33" s="15"/>
@@ -10052,7 +10258,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="15"/>
@@ -10064,7 +10270,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O34" s="15"/>
@@ -10075,8 +10281,8 @@
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="16" t="s">
+      <c r="V34" s="16"/>
+      <c r="W34" s="17" t="s">
         <v>86</v>
       </c>
       <c r="X34" s="15"/>
@@ -10087,8 +10293,8 @@
       </c>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="16" t="s">
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="17" t="s">
         <v>86</v>
       </c>
       <c r="AG34" s="15"/>
@@ -10101,8 +10307,8 @@
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="15"/>
@@ -10113,8 +10319,8 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17" t="s">
         <v>83</v>
       </c>
       <c r="O35" s="15"/>
@@ -10125,8 +10331,8 @@
       </c>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="16" t="s">
+      <c r="V35" s="16"/>
+      <c r="W35" s="17" t="s">
         <v>104</v>
       </c>
       <c r="X35" s="15"/>
@@ -10137,8 +10343,8 @@
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="16" t="s">
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="17" t="s">
         <v>103</v>
       </c>
       <c r="AG35" s="15"/>
@@ -10151,8 +10357,10 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="5"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -10161,8 +10369,10 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="11"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
@@ -10181,22 +10391,22 @@
       <c r="AI36" s="12"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
       <c r="S37" s="1" t="s">
         <v>1</v>
       </c>
@@ -10212,8 +10422,8 @@
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="15"/>
@@ -10224,8 +10434,8 @@
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="16" t="s">
+      <c r="M38" s="16"/>
+      <c r="N38" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="15"/>
@@ -10254,8 +10464,8 @@
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="15"/>
@@ -10266,8 +10476,8 @@
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="16" t="s">
+      <c r="M39" s="16"/>
+      <c r="N39" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O39" s="15"/>
@@ -10279,17 +10489,18 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="11"/>
+      <c r="W39" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="AB39" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
+      <c r="AF39" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
@@ -10297,8 +10508,8 @@
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="15"/>
@@ -10309,8 +10520,8 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="16" t="s">
+      <c r="M40" s="16"/>
+      <c r="N40" s="17" t="s">
         <v>109</v>
       </c>
       <c r="O40" s="15"/>
@@ -10319,46 +10530,48 @@
       <c r="S40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W40" s="13"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
+      <c r="W40" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="AB40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
+      <c r="AF40" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
       <c r="S41" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AB41" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AF41" s="5"/>
+      <c r="AF41" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
@@ -10369,8 +10582,8 @@
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="15"/>
@@ -10381,8 +10594,8 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="16" t="s">
+      <c r="M42" s="16"/>
+      <c r="N42" s="17" t="s">
         <v>85</v>
       </c>
       <c r="O42" s="15"/>
@@ -10391,14 +10604,18 @@
       <c r="S42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="W42" s="5"/>
+      <c r="W42" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AB42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF42" s="5"/>
+      <c r="AF42" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
@@ -10409,8 +10626,8 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="15"/>
@@ -10421,8 +10638,8 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="16" t="s">
+      <c r="M43" s="16"/>
+      <c r="N43" s="17" t="s">
         <v>86</v>
       </c>
       <c r="O43" s="15"/>
@@ -10431,14 +10648,18 @@
       <c r="S43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="W43" s="5"/>
+      <c r="W43" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AB43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AF43" s="5"/>
+      <c r="AF43" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
@@ -10449,8 +10670,8 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="15"/>
@@ -10461,8 +10682,8 @@
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="16" t="s">
+      <c r="M44" s="16"/>
+      <c r="N44" s="17" t="s">
         <v>108</v>
       </c>
       <c r="O44" s="15"/>
@@ -10471,31 +10692,35 @@
       <c r="S44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W44" s="5"/>
+      <c r="W44" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AB44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AF44" s="5"/>
+      <c r="AF44" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="25"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
@@ -10503,14 +10728,18 @@
       <c r="S45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W45" s="5"/>
+      <c r="W45" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AB45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AF45" s="5"/>
+      <c r="AF45" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
@@ -10524,18 +10753,18 @@
         <v>1</v>
       </c>
       <c r="N46" s="11"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
       <c r="W46" s="13"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12"/>
-      <c r="AE46" s="12"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
       <c r="AF46" s="13"/>
       <c r="AG46" s="12"/>
       <c r="AH46" s="12"/>
@@ -10582,43 +10811,49 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="J48" s="2" t="s">
         <v>157</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="11"/>
+      <c r="N48" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="E49" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="J49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
+      <c r="N49" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="J50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -10627,14 +10862,18 @@
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="J51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -10643,14 +10882,18 @@
       <c r="A52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="J52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -10659,14 +10902,18 @@
       <c r="A53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="J53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -10675,41 +10922,45 @@
       <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="J54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="13"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="12"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="13"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -10724,237 +10975,32 @@
       <c r="Q56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="276">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AB34:AE34"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AB35:AE35"/>
-    <mergeCell ref="AF35:AI35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
+  <mergeCells count="279">
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J16:M16"/>
@@ -10979,28 +11025,236 @@
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
